--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C8F9BD-A7A7-4504-B50C-59330F66CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23A9587-EBF1-48CC-9E36-14499D0FBAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -940,22 +940,19 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>00016.HK</t>
+  </si>
+  <si>
+    <t>新鴻基地產</t>
+  </si>
+  <si>
     <t>C0005</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>新鴻基地產</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>00016.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>disagree</t>
   </si>
   <si>
     <t>Commodity-type Business</t>
-  </si>
-  <si>
-    <t>disagree</t>
   </si>
 </sst>
 </file>
@@ -976,7 +973,7 @@
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1169,13 +1166,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1521,7 +1511,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2198,9 +2188,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3574,8 +3561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3596,14 +3583,14 @@
         <v>196</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="285" t="s">
+      <c r="C5" s="192" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3637,7 +3624,7 @@
         <v>218</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3702,7 +3689,7 @@
         <v>226</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3747,7 +3734,7 @@
         <v>232</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4166,11 +4153,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8543689320388349E-2</v>
+        <v>0.25372124950953201</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4077669902912623E-2</v>
+        <v>0.33491204935258223</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4880,8 +4867,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4934,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77.25</v>
+        <v>14.779999732971191</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4975,7 +4962,7 @@
       </c>
       <c r="G5" s="273">
         <f>G3*G4/1000000</f>
-        <v>223853.5261665</v>
+        <v>42829.191675929185</v>
       </c>
       <c r="H5" s="273"/>
       <c r="I5" s="38"/>
@@ -5191,7 +5178,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.36632981464756137</v>
+        <v>7.0088732202852347E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5194,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>6.7665742235097318E-2</v>
+        <v>0.35366567537890337</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5239,7 +5226,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8543689320388349E-2</v>
+        <v>0.25372124950953201</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5269,20 +5256,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.975781464428103</v>
+        <v>118.95012869378448</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>49.916439672045541</v>
+        <v>258.86374279091905</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.594202042440495</v>
+        <v>139.94132787504057</v>
       </c>
       <c r="G29" s="272">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>43.405599714822216</v>
+        <v>225.09890677471225</v>
       </c>
       <c r="H29" s="272"/>
     </row>
@@ -6346,7 +6333,7 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B19" sqref="B19"/>
@@ -10284,8 +10271,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12154,17 +12141,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7665742235097318E-2</v>
+        <v>0.35366567537890337</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7665742235097318E-2</v>
+        <v>0.35366567537890337</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7665742235097318E-2</v>
+        <v>0.35366567537890337</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12205,17 +12192,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8543689320388349E-2</v>
+        <v>0.25372124950953201</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8543689320388349E-2</v>
+        <v>0.25372124950953201</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8543689320388349E-2</v>
+        <v>0.25372124950953201</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12275,14 +12262,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>109.87526667293676</v>
+        <v>359.98175196130376</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>109.87526667293676</v>
+        <v>359.98175196130376</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12300,14 +12287,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>72.014506033520973</v>
+        <v>175.9917324300429</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>212</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>72.014506033520973</v>
+        <v>175.9917324300429</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12350,21 +12337,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>158298.27856735457</v>
+        <v>518628.92693365895</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.62742637447969</v>
+        <v>178.97455220707977</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.62742637447969</v>
+        <v>178.97455220707977</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>79.820403468849008</v>
+        <v>261.51371052873907</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12413,27 +12400,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>52776.178567354567</v>
+        <v>413106.82693365891</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.975781464428103</v>
+        <v>118.95012869378448</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.975781464428103</v>
+        <v>137.32290729702817</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.594202042440495</v>
+        <v>139.94132787504057</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.212622620452887</v>
+        <v>142.55974845305298</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>43.405599714822216</v>
+        <v>225.09890677471225</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12474,27 +12461,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>103751.94238133855</v>
+        <v>253552.86161616413</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>30.433346453285214</v>
+        <v>74.374145723700067</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>35.803937003864959</v>
+        <v>87.498994969058899</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>35.803937003864959</v>
+        <v>87.498994969058899</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>35.803937003864959</v>
+        <v>87.498994969058899</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>52.31593152184216</v>
+        <v>127.85162225419947</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12535,27 +12522,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>70676.452974346554</v>
+        <v>325742.23677491152</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>21.70456395885666</v>
+        <v>96.66213720874228</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>24.389859234146531</v>
+        <v>112.41095113304354</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>25.699069523152726</v>
+        <v>113.72016142204973</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>27.008279812158925</v>
+        <v>115.02937171105594</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>47.860765618332188</v>
+        <v>176.47526451445586</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C23A9587-EBF1-48CC-9E36-14499D0FBAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{856A7DA3-BA95-4EAA-B856-6C1421940A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -625,9 +625,6 @@
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
-    <t>Normalized E/P</t>
-  </si>
-  <si>
     <t>US Riskfree</t>
   </si>
   <si>
@@ -940,7 +937,8 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>00016.HK</t>
+    <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>新鴻基地產</t>
@@ -953,6 +951,10 @@
   </si>
   <si>
     <t>Commodity-type Business</t>
+  </si>
+  <si>
+    <t>0016.HK</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1511,7 +1513,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="286">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2147,6 +2149,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3561,8 +3566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3575,23 +3580,23 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3612,7 +3617,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="192" t="s">
         <v>71</v>
@@ -3621,15 +3626,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C10" s="194">
         <v>2897780274</v>
@@ -3637,7 +3642,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C11" s="193" t="s">
         <v>2</v>
@@ -3661,7 +3666,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="220">
         <v>45473</v>
@@ -3669,10 +3674,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="219" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C15" s="177" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3686,55 +3691,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="241" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="241" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="241" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C19" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="242" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="225" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C21" s="243" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3867,7 +3872,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C29" s="151">
         <v>4046</v>
@@ -4127,7 +4132,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="251">
         <f>0.95+2.8</f>
@@ -4149,15 +4154,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.25372124950953201</v>
+        <v>4.8543689320388349E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>0.33491204935258223</v>
+        <v>6.4077669902912623E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4198,13 +4203,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="195" t="s">
         <v>34</v>
       </c>
       <c r="D47" s="195" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>36</v>
@@ -4577,7 +4582,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C83" s="59">
         <v>606717</v>
@@ -4597,7 +4602,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C86" s="198">
         <v>5</v>
@@ -4605,26 +4610,26 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C87" s="237" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="269">
+      <c r="C89" s="270">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="269"/>
+      <c r="D89" s="270"/>
       <c r="E89" s="89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F89" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4633,10 +4638,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="270" t="s">
+      <c r="C90" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="270"/>
+      <c r="D90" s="271"/>
       <c r="E90" s="236" t="s">
         <v>102</v>
       </c>
@@ -4685,7 +4690,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4706,7 +4711,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4724,7 +4729,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4781,7 +4786,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="238">
         <f>C44</f>
@@ -4867,8 +4872,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4899,7 +4904,7 @@
       </c>
       <c r="C2" s="25" t="str">
         <f>C3&amp;" : "&amp;C4</f>
-        <v>00016.HK : 新鴻基地產</v>
+        <v>0016.HK : 新鴻基地產</v>
       </c>
       <c r="D2" s="87"/>
       <c r="E2" s="7"/>
@@ -4909,19 +4914,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="C3" s="275" t="str">
+        <v>195</v>
+      </c>
+      <c r="C3" s="276" t="str">
         <f>Inputs!C4</f>
-        <v>00016.HK</v>
-      </c>
-      <c r="D3" s="276"/>
+        <v>0016.HK</v>
+      </c>
+      <c r="D3" s="277"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>14.779999732971191</v>
+        <v>77.25</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4929,42 +4934,42 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="277" t="str">
+        <v>196</v>
+      </c>
+      <c r="C4" s="278" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="D4" s="278"/>
+      <c r="D4" s="279"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="281">
+      <c r="G4" s="282">
         <f>Inputs!C10</f>
         <v>2897780274</v>
       </c>
-      <c r="H4" s="281"/>
+      <c r="H4" s="282"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="279">
+      <c r="C5" s="280">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="280"/>
+      <c r="D5" s="281"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="273">
+      <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>42829.191675929185</v>
-      </c>
-      <c r="H5" s="273"/>
+        <v>223853.5261665</v>
+      </c>
+      <c r="H5" s="274"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4987,16 +4992,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="274" t="str">
+      <c r="G6" s="275" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="274"/>
+      <c r="H6" s="275"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C7" s="188" t="str">
         <f>Inputs!C8</f>
@@ -5021,40 +5026,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" s="173">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C11" s="174">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" s="175">
         <v>0.06</v>
@@ -5067,29 +5072,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C14" s="173">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C16" s="174">
         <v>0.16</v>
@@ -5099,12 +5104,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="176">
         <v>7.1999999999999995E-2</v>
@@ -5114,7 +5119,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>52</v>
@@ -5122,7 +5127,7 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
@@ -5136,7 +5141,7 @@
         <v>0.54949235029228316</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G20" s="173">
         <v>0.15</v>
@@ -5144,7 +5149,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="172">
         <f>Fin_Analysis!I77</f>
@@ -5155,14 +5160,14 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" s="172">
         <f>Fin_Analysis!I78</f>
         <v>1.0218987976510586E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5174,11 +5179,11 @@
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>7.0088732202852347E-2</v>
+        <v>0.36632981464756137</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5190,16 +5195,16 @@
         <v>5.6582664391799292E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" s="179">
-        <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.35366567537890337</v>
+        <v>260</v>
+      </c>
+      <c r="G24" s="269">
+        <f>G3/(Fin_Analysis!H86*G7)</f>
+        <v>14.778527020742755</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="172">
         <f>Fin_Analysis!I82</f>
@@ -5222,11 +5227,11 @@
         <v>0.27690377095281005</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>0.25372124950953201</v>
+        <v>4.8543689320388349E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5243,12 +5248,12 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="G28" s="271" t="s">
-        <v>260</v>
-      </c>
-      <c r="H28" s="271"/>
+        <v>238</v>
+      </c>
+      <c r="G28" s="272" t="s">
+        <v>259</v>
+      </c>
+      <c r="H28" s="272"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5256,42 +5261,42 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>118.95012869378448</v>
+        <v>12.975781464428103</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>258.86374279091905</v>
+        <v>49.916439672045541</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>139.94132787504057</v>
-      </c>
-      <c r="G29" s="272">
+        <v>15.594202042440495</v>
+      </c>
+      <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>225.09890677471225</v>
-      </c>
-      <c r="H29" s="272"/>
+        <v>43.405599714822216</v>
+      </c>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C32" s="225"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C33" s="246" t="str">
         <f>Inputs!C17</f>
@@ -5301,7 +5306,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C34" s="226" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
@@ -5312,14 +5317,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="225"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C36" s="246" t="str">
         <f>Inputs!C18</f>
@@ -5329,7 +5334,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C37" s="246" t="str">
         <f>Inputs!C19</f>
@@ -5339,14 +5344,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="197" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C38" s="225"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C39" s="246" t="str">
         <f>Inputs!C20</f>
@@ -5356,7 +5361,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C40" s="246" t="str">
         <f>Inputs!C21</f>
@@ -5371,14 +5376,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="227" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C43" s="245" t="str">
         <f>Inputs!C22</f>
@@ -6363,16 +6368,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="149" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="149" t="s">
         <v>204</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="H2" s="148" t="s">
         <v>205</v>
-      </c>
-      <c r="H2" s="148" t="s">
-        <v>206</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6390,7 +6395,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="147" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6423,7 +6428,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="147" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6790,7 +6795,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="200">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6841,7 +6846,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="229" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C13" s="230">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6892,7 +6897,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="231">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6943,7 +6948,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="232" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C15" s="233">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7045,7 +7050,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C17" s="200">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7198,7 +7203,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C20" s="153">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -8269,7 +8274,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8338,7 +8343,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="154">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8542,7 +8547,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C47" s="154">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -10440,7 +10445,7 @@
         <v>34</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>35</v>
@@ -11492,11 +11497,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="282">
+      <c r="D56" s="283">
         <f>I15+I34</f>
         <v>127087</v>
       </c>
-      <c r="E56" s="280"/>
+      <c r="E56" s="281"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11507,11 +11512,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="281">
+      <c r="D57" s="282">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="280"/>
+      <c r="E57" s="281"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11523,11 +11528,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="281">
+      <c r="D58" s="282">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="280"/>
+      <c r="E58" s="281"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11741,19 +11746,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="269">
+      <c r="C72" s="270">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="269"/>
-      <c r="E72" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F72" s="283"/>
-      <c r="H72" s="283" t="s">
+      <c r="D72" s="270"/>
+      <c r="E72" s="284" t="s">
         <v>207</v>
       </c>
-      <c r="I72" s="283"/>
+      <c r="F72" s="284"/>
+      <c r="H72" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I72" s="284"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11763,18 +11768,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="270" t="s">
+      <c r="C73" s="271" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="270"/>
-      <c r="E73" s="284" t="s">
+      <c r="D73" s="271"/>
+      <c r="E73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="270"/>
-      <c r="H73" s="284" t="s">
+      <c r="F73" s="271"/>
+      <c r="H73" s="285" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="270"/>
+      <c r="I73" s="271"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11851,7 +11856,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11911,7 +11916,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="257" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C79" s="258">
         <f>C76-C77-C78</f>
@@ -11974,7 +11979,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12004,7 +12009,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12137,28 +12142,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.35366567537890337</v>
+        <v>6.7665742235097318E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.35366567537890337</v>
+        <v>6.7665742235097318E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.35366567537890337</v>
+        <v>6.7665742235097318E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C88" s="170">
         <f>Inputs!C44</f>
@@ -12188,21 +12193,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25372124950953201</v>
+        <v>4.8543689320388349E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25372124950953201</v>
+        <v>4.8543689320388349E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>0.25372124950953201</v>
+        <v>4.8543689320388349E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12233,15 +12238,15 @@
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="283" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" s="283"/>
+      <c r="E92" s="284" t="s">
+        <v>207</v>
+      </c>
+      <c r="F92" s="284"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="283" t="s">
-        <v>207</v>
-      </c>
-      <c r="I92" s="283"/>
+      <c r="H92" s="284" t="s">
+        <v>206</v>
+      </c>
+      <c r="I92" s="284"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12258,24 +12263,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>359.98175196130376</v>
+        <v>109.87526667293676</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>359.98175196130376</v>
+        <v>109.87526667293676</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C94" s="183">
         <f>Dashboard!G20</f>
@@ -12283,18 +12288,18 @@
       </c>
       <c r="D94" s="145"/>
       <c r="E94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>175.9917324300429</v>
+        <v>72.014506033520973</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>175.9917324300429</v>
+        <v>72.014506033520973</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12313,14 +12318,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E96" s="184" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="184" t="str">
         <f>H72</f>
@@ -12337,21 +12342,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>518628.92693365895</v>
+        <v>158298.27856735457</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>178.97455220707977</v>
+        <v>54.62742637447969</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>178.97455220707977</v>
+        <v>54.62742637447969</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>261.51371052873907</v>
+        <v>79.820403468849008</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12400,27 +12405,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>413106.82693365891</v>
+        <v>52776.178567354567</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>118.95012869378448</v>
+        <v>12.975781464428103</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>137.32290729702817</v>
+        <v>12.975781464428103</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>139.94132787504057</v>
+        <v>15.594202042440495</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>142.55974845305298</v>
+        <v>18.212622620452887</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>225.09890677471225</v>
+        <v>43.405599714822216</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12437,14 +12442,14 @@
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E102" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H102" s="184" t="str">
         <f>H96</f>
@@ -12461,27 +12466,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>253552.86161616413</v>
+        <v>103751.94238133855</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>74.374145723700067</v>
+        <v>30.433346453285214</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>87.498994969058899</v>
+        <v>35.803937003864959</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>87.498994969058899</v>
+        <v>35.803937003864959</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>87.498994969058899</v>
+        <v>35.803937003864959</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>127.85162225419947</v>
+        <v>52.31593152184216</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12491,21 +12496,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E105" s="185" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="228" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H105" s="185" t="str">
         <f>H96</f>
@@ -12518,31 +12523,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>325742.23677491152</v>
+        <v>70676.452974346554</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>96.66213720874228</v>
+        <v>21.70456395885666</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>112.41095113304354</v>
+        <v>24.389859234146531</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>113.72016142204973</v>
+        <v>25.699069523152726</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>115.02937171105594</v>
+        <v>27.008279812158925</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>176.47526451445586</v>
+        <v>47.860765618332188</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{856A7DA3-BA95-4EAA-B856-6C1421940A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3274E1E-4137-45F8-B5C5-2ABA55141A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
   <si>
     <t>Company Info:</t>
   </si>
@@ -954,6 +954,10 @@
   </si>
   <si>
     <t>0016.HK</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -4158,11 +4162,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8543689320388349E-2</v>
+        <v>4.7984644913627639E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4077669902912623E-2</v>
+        <v>6.3339731285988479E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4926,10 +4930,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77.25</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4967,7 +4971,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>223853.5261665</v>
+        <v>226461.52841309999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5183,7 +5187,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.36632981464756137</v>
+        <v>0.37059773481821262</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5199,7 +5203,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.778527020742755</v>
+        <v>14.950704034576653</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5231,7 +5235,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8543689320388349E-2</v>
+        <v>4.7984644913627639E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5261,20 +5265,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.975781464428103</v>
+        <v>12.776716947349371</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>49.916439672045541</v>
+        <v>49.581940633875107</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.594202042440495</v>
+        <v>15.395137525361765</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>43.405599714822216</v>
+        <v>43.114730985978355</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12146,17 +12150,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7665742235097318E-2</v>
+        <v>6.6886482247744947E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7665742235097318E-2</v>
+        <v>6.6886482247744947E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7665742235097318E-2</v>
+        <v>6.6886482247744947E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12197,17 +12201,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8543689320388349E-2</v>
+        <v>4.7984644913627639E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8543689320388349E-2</v>
+        <v>4.7984644913627639E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8543689320388349E-2</v>
+        <v>4.7984644913627639E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12267,14 +12271,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>109.87526667293676</v>
+        <v>109.47487682573423</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>109.87526667293676</v>
+        <v>109.47487682573423</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12292,14 +12296,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>72.014506033520973</v>
+        <v>71.82273338459629</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>72.014506033520973</v>
+        <v>71.82273338459629</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12342,21 +12346,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>158298.27856735457</v>
+        <v>157721.4333365105</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.62742637447969</v>
+        <v>54.428361857400958</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.62742637447969</v>
+        <v>54.428361857400958</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>79.820403468849008</v>
+        <v>79.529534740005147</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12405,27 +12409,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>52776.178567354567</v>
+        <v>52199.333336510492</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.975781464428103</v>
+        <v>12.776716947349371</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.975781464428103</v>
+        <v>12.776716947349371</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.594202042440495</v>
+        <v>15.395137525361765</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.212622620452887</v>
+        <v>18.013558103374159</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>43.405599714822216</v>
+        <v>43.114730985978355</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12466,27 +12470,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>103751.94238133855</v>
+        <v>103475.6538123065</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>30.433346453285214</v>
+        <v>30.352303288700117</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>35.803937003864959</v>
+        <v>35.70859210435308</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>35.803937003864959</v>
+        <v>35.70859210435308</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>35.803937003864959</v>
+        <v>35.70859210435308</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>52.31593152184216</v>
+        <v>52.176615635064621</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12527,27 +12531,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>70676.452974346554</v>
+        <v>70249.88607440851</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>21.70456395885666</v>
+        <v>21.564510118024742</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>24.389859234146531</v>
+        <v>24.242654525851226</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>25.699069523152726</v>
+        <v>25.551864814857424</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>27.008279812158925</v>
+        <v>26.86107510386362</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>47.860765618332188</v>
+        <v>47.645673310521488</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3274E1E-4137-45F8-B5C5-2ABA55141A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EFA13D9-7A72-4C4F-BF6F-48E720ABDB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -941,6 +941,9 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>0016.HK</t>
+  </si>
+  <si>
     <t>新鴻基地產</t>
   </si>
   <si>
@@ -951,10 +954,6 @@
   </si>
   <si>
     <t>Commodity-type Business</t>
-  </si>
-  <si>
-    <t>0016.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>HKD</t>
@@ -3570,8 +3569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3592,7 +3591,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="189" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3600,7 +3599,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="192" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3633,7 +3632,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="193" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3698,7 +3697,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="243" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3743,7 +3742,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="244" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4162,11 +4161,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7984644913627639E-2</v>
+        <v>4.8046124279308135E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3339731285988479E-2</v>
+        <v>6.3420884048686746E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4840,7 +4839,7 @@
   </conditionalFormatting>
   <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
-      <formula1>"Tier 1, Superior Cycl. ,Cigar Butts, N"</formula1>
+      <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C11" xr:uid="{7C8576B4-3288-485C-91EB-6274925EDC41}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
@@ -4876,8 +4875,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4930,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>78.150000000000006</v>
+        <v>78.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4971,7 +4970,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>226461.52841309999</v>
+        <v>226171.75038569997</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5187,7 +5186,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.37059773481821262</v>
+        <v>0.37012352146591798</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5202,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.950704034576653</v>
+        <v>14.931573255261775</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5235,7 +5234,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.7984644913627639E-2</v>
+        <v>4.8046124279308135E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5265,20 +5264,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.776716947349371</v>
+        <v>12.798580074093763</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>49.581940633875107</v>
+        <v>49.618678446192035</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.395137525361765</v>
+        <v>15.417000652106159</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>43.114730985978355</v>
+        <v>43.146676909732207</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12150,17 +12149,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6886482247744947E-2</v>
+        <v>6.6972179214109778E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6886482247744947E-2</v>
+        <v>6.6972179214109778E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6886482247744947E-2</v>
+        <v>6.6972179214109778E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12201,17 +12200,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7984644913627639E-2</v>
+        <v>4.8046124279308135E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7984644913627639E-2</v>
+        <v>4.8046124279308135E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7984644913627639E-2</v>
+        <v>4.8046124279308135E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12271,14 +12270,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>109.47487682573423</v>
+        <v>109.51885138285279</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>109.47487682573423</v>
+        <v>109.51885138285279</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12296,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>71.82273338459629</v>
+        <v>71.84380303585732</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>71.82273338459629</v>
+        <v>71.84380303585732</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12346,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>157721.4333365105</v>
+        <v>157784.78787391837</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.428361857400958</v>
+        <v>54.450224984145351</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.428361857400958</v>
+        <v>54.450224984145351</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>79.529534740005147</v>
+        <v>79.561480663758999</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12409,27 +12408,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>52199.333336510492</v>
+        <v>52262.687873918359</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.776716947349371</v>
+        <v>12.798580074093763</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.776716947349371</v>
+        <v>12.798580074093763</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.395137525361765</v>
+        <v>15.417000652106159</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.013558103374159</v>
+        <v>18.035421230118555</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>43.114730985978355</v>
+        <v>43.146676909732207</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12470,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>103475.6538123065</v>
+        <v>103506.00904716171</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>30.352303288700117</v>
+        <v>30.361207328063774</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>35.70859210435308</v>
+        <v>35.719067444780912</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>35.70859210435308</v>
+        <v>35.719067444780912</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>35.70859210435308</v>
+        <v>35.719067444780912</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>52.176615635064621</v>
+        <v>52.191921973929851</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12531,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>70249.88607440851</v>
+        <v>70296.740960540046</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>21.564510118024742</v>
+        <v>21.579893701078767</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>24.242654525851226</v>
+        <v>24.258823759437337</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>25.551864814857424</v>
+        <v>25.568034048443536</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>26.86107510386362</v>
+        <v>26.877244337449731</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>47.645673310521488</v>
+        <v>47.669299441831029</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EFA13D9-7A72-4C4F-BF6F-48E720ABDB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE31F2B-B8F7-44BA-A03C-E0998754087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4161,11 +4161,11 @@
       </c>
       <c r="C45" s="153">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8046124279308135E-2</v>
+        <v>4.7923322683706068E-2</v>
       </c>
       <c r="D45" s="153">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3420884048686746E-2</v>
+        <v>6.3258785942492013E-2</v>
       </c>
       <c r="E45" s="153" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>78.05</v>
+        <v>78.25</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4970,7 +4970,7 @@
       </c>
       <c r="G5" s="274">
         <f>G3*G4/1000000</f>
-        <v>226171.75038569997</v>
+        <v>226751.30644049999</v>
       </c>
       <c r="H5" s="274"/>
       <c r="I5" s="38"/>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="G23" s="178">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.37012352146591798</v>
+        <v>0.37107194817050715</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5202,7 +5202,7 @@
       </c>
       <c r="G24" s="269">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.931573255261775</v>
+        <v>14.969834813891529</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5234,7 +5234,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8046124279308135E-2</v>
+        <v>4.7923322683706068E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5264,20 +5264,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.798580074093763</v>
+        <v>12.754916697336292</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>49.618678446192035</v>
+        <v>49.545308476782218</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.417000652106159</v>
+        <v>15.373337275348684</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>43.146676909732207</v>
+        <v>43.082876936332369</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12149,17 +12149,17 @@
       </c>
       <c r="C87" s="262">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6972179214109778E-2</v>
+        <v>6.6801004315159965E-2</v>
       </c>
       <c r="D87" s="210"/>
       <c r="E87" s="263">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6972179214109778E-2</v>
+        <v>6.6801004315159965E-2</v>
       </c>
       <c r="F87" s="210"/>
       <c r="H87" s="263">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6972179214109778E-2</v>
+        <v>6.6801004315159965E-2</v>
       </c>
       <c r="I87" s="210"/>
       <c r="K87" s="24"/>
@@ -12200,17 +12200,17 @@
       </c>
       <c r="C89" s="262">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8046124279308135E-2</v>
+        <v>4.7923322683706068E-2</v>
       </c>
       <c r="D89" s="210"/>
       <c r="E89" s="262">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8046124279308135E-2</v>
+        <v>4.7923322683706068E-2</v>
       </c>
       <c r="F89" s="210"/>
       <c r="H89" s="262">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8046124279308135E-2</v>
+        <v>4.7923322683706068E-2</v>
       </c>
       <c r="I89" s="210"/>
       <c r="K89" s="24"/>
@@ -12270,14 +12270,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>109.51885138285279</v>
+        <v>109.43102873618113</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>109.51885138285279</v>
+        <v>109.43102873618113</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>71.84380303585732</v>
+        <v>71.801722510114743</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>71.84380303585732</v>
+        <v>71.801722510114743</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12345,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>157784.78787391837</v>
+        <v>157658.26100205432</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.450224984145351</v>
+        <v>54.406561607387879</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.450224984145351</v>
+        <v>54.406561607387879</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>79.561480663758999</v>
+        <v>79.497680690359161</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12408,27 +12408,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>52262.687873918359</v>
+        <v>52136.161002054316</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.798580074093763</v>
+        <v>12.754916697336292</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.798580074093763</v>
+        <v>12.754916697336292</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.417000652106159</v>
+        <v>15.373337275348684</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.035421230118555</v>
+        <v>17.991757853361076</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>43.146676909732207</v>
+        <v>43.082876936332369</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12469,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>103506.00904716171</v>
+        <v>103445.38325768274</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>30.361207328063774</v>
+        <v>30.343424088416693</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>35.719067444780912</v>
+        <v>35.69814598637258</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>35.719067444780912</v>
+        <v>35.69814598637258</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>35.719067444780912</v>
+        <v>35.69814598637258</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>52.191921973929851</v>
+        <v>52.161351995401816</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>70296.740960540046</v>
+        <v>70203.164629868537</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>21.579893701078767</v>
+        <v>21.549170392876491</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>24.258823759437337</v>
+        <v>24.226531341854436</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>25.568034048443536</v>
+        <v>25.535741630860631</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>26.877244337449731</v>
+        <v>26.84495191986683</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>47.669299441831029</v>
+        <v>47.622114465867092</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAE31F2B-B8F7-44BA-A03C-E0998754087F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA89868E-067A-4632-A7C2-84DC02F6282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA89868E-067A-4632-A7C2-84DC02F6282A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB56F3B-24F2-4AC8-8B3B-F7E86E8BCBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4631,7 +4631,7 @@
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="89" t="s">
         <v>206</v>
       </c>
       <c r="H89" s="31"/>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB56F3B-24F2-4AC8-8B3B-F7E86E8BCBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35E3A34-CFDA-4C0D-AF97-397F8837880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5068,7 +5068,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="173">
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5115,7 +5115,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="176">
-        <v>7.1999999999999995E-2</v>
+        <v>6.8999999999999992E-2</v>
       </c>
       <c r="D17" s="177"/>
     </row>
@@ -5264,20 +5264,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.754916697336292</v>
+        <v>14.020185571926717</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>49.545308476782218</v>
+        <v>52.332370576725054</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.373337275348684</v>
+        <v>16.638606149939115</v>
       </c>
       <c r="G29" s="273">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>43.082876936332369</v>
+        <v>45.506409197152223</v>
       </c>
       <c r="H29" s="273"/>
     </row>
@@ -12259,7 +12259,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>6.4500000000000002E-2</v>
       </c>
       <c r="D93" s="240">
         <f>Inputs!C86</f>
@@ -12270,14 +12270,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>109.43102873618113</v>
+        <v>111.97593638120861</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>109.43102873618113</v>
+        <v>111.97593638120861</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12295,14 +12295,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>71.801722510114743</v>
+        <v>73.47153001034998</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>71.801722510114743</v>
+        <v>73.47153001034998</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12345,21 +12345,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>157658.26100205432</v>
+        <v>161324.73218814866</v>
       </c>
       <c r="D97" s="214"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.406561607387879</v>
+        <v>55.671830481978304</v>
       </c>
       <c r="F97" s="214"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.406561607387879</v>
+        <v>55.671830481978304</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>79.497680690359161</v>
+        <v>81.921212951179015</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12408,27 +12408,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>52136.161002054316</v>
+        <v>55802.632188148651</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.754916697336292</v>
+        <v>14.020185571926717</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.754916697336292</v>
+        <v>14.020185571926717</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.373337275348684</v>
+        <v>16.638606149939115</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>17.991757853361076</v>
+        <v>19.257026727951509</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>43.082876936332369</v>
+        <v>45.506409197152223</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12469,27 +12469,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>103445.38325768274</v>
+        <v>105851.08984507072</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>30.343424088416693</v>
+        <v>31.049085113728712</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>35.69814598637258</v>
+        <v>36.528335427916133</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>35.69814598637258</v>
+        <v>36.528335427916133</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>35.69814598637258</v>
+        <v>36.528335427916133</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>52.161351995401816</v>
+        <v>53.751520642223319</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12530,27 +12530,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>70203.164629868537</v>
+        <v>73239.253516609679</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>21.549170392876491</v>
+        <v>22.534635342827713</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>24.226531341854436</v>
+        <v>25.274260499921425</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>25.535741630860631</v>
+        <v>26.583470788927624</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>26.84495191986683</v>
+        <v>27.892681077933823</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>47.622114465867092</v>
+        <v>49.628964919687775</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E35E3A34-CFDA-4C0D-AF97-397F8837880B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0A1C14-2F6D-44FF-99DA-C2E6774B048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -964,7 +964,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
@@ -977,6 +977,7 @@
     <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="185" formatCode="#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1516,7 +1517,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="286">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1816,9 +1817,6 @@
     <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2153,6 +2151,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="180" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,7 +3594,7 @@
       <c r="B4" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="189" t="s">
+      <c r="C4" s="188" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3598,7 +3602,7 @@
       <c r="B5" s="141" t="s">
         <v>196</v>
       </c>
-      <c r="C5" s="192" t="s">
+      <c r="C5" s="191" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3606,7 +3610,7 @@
       <c r="B6" s="141" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="190">
+      <c r="C6" s="189">
         <v>45625</v>
       </c>
     </row>
@@ -3614,7 +3618,7 @@
       <c r="B7" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="191">
+      <c r="C7" s="190">
         <v>8</v>
       </c>
     </row>
@@ -3622,16 +3626,16 @@
       <c r="B8" s="140" t="s">
         <v>216</v>
       </c>
-      <c r="C8" s="192" t="s">
+      <c r="C8" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="268"/>
+      <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
         <v>217</v>
       </c>
-      <c r="C9" s="193" t="s">
+      <c r="C9" s="192" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3639,7 +3643,7 @@
       <c r="B10" s="140" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="193">
         <v>2897780274</v>
       </c>
     </row>
@@ -3647,101 +3651,101 @@
       <c r="B11" s="140" t="s">
         <v>219</v>
       </c>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="192" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="219" t="s">
+      <c r="B12" s="218" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="220">
+      <c r="C12" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="219" t="s">
+      <c r="B13" s="218" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="221">
+      <c r="C13" s="220">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="219" t="s">
+      <c r="B14" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="220">
+      <c r="C14" s="219">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="219" t="s">
+      <c r="B15" s="218" t="s">
         <v>257</v>
       </c>
-      <c r="C15" s="177" t="s">
+      <c r="C15" s="176" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="223" t="s">
+      <c r="B16" s="222" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="224">
+      <c r="C16" s="223">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="241" t="s">
+      <c r="B17" s="240" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="243" t="s">
+      <c r="C17" s="242" t="s">
         <v>264</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="241" t="s">
+      <c r="B18" s="240" t="s">
         <v>239</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="241" t="s">
+      <c r="B19" s="240" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="243" t="s">
+      <c r="C19" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="243" t="s">
+      <c r="C20" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="225" t="s">
+      <c r="B21" s="224" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="243" t="s">
+      <c r="C21" s="242" t="s">
         <v>246</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="227" t="s">
+      <c r="B22" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="243" t="s">
         <v>265</v>
       </c>
       <c r="D22" s="24"/>
@@ -3799,407 +3803,407 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="150">
+      <c r="C25" s="149">
         <v>71506</v>
       </c>
-      <c r="D25" s="150">
+      <c r="D25" s="149">
         <v>71195</v>
       </c>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="150"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C26" s="151">
+      <c r="C26" s="150">
         <v>39292</v>
       </c>
-      <c r="D26" s="151">
+      <c r="D26" s="150">
         <v>36737</v>
       </c>
-      <c r="E26" s="151"/>
-      <c r="F26" s="151"/>
-      <c r="G26" s="151"/>
-      <c r="H26" s="151"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="151"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="151"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="150"/>
+      <c r="L26" s="150"/>
+      <c r="M26" s="150"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="151">
+      <c r="C27" s="150">
         <f>3906+3322</f>
         <v>7228</v>
       </c>
-      <c r="D27" s="151">
+      <c r="D27" s="150">
         <f>4179+3145</f>
         <v>7324</v>
       </c>
-      <c r="E27" s="151"/>
-      <c r="F27" s="151"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="151"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="151"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="150"/>
+      <c r="L27" s="150"/>
+      <c r="M27" s="150"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C29" s="151">
+      <c r="C29" s="150">
         <v>4046</v>
       </c>
-      <c r="D29" s="151">
+      <c r="D29" s="150">
         <v>3053</v>
       </c>
-      <c r="E29" s="151"/>
-      <c r="F29" s="151"/>
-      <c r="G29" s="151"/>
-      <c r="H29" s="151"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="151"/>
-      <c r="K29" s="151"/>
-      <c r="L29" s="151"/>
-      <c r="M29" s="151"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="150"/>
+      <c r="L29" s="150"/>
+      <c r="M29" s="150"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="151">
+      <c r="C30" s="150">
         <v>559</v>
       </c>
-      <c r="D30" s="151">
+      <c r="D30" s="150">
         <v>668</v>
       </c>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="151"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="151"/>
-      <c r="L30" s="151"/>
-      <c r="M30" s="151"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="150"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="150"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C31" s="151">
+      <c r="C31" s="150">
         <v>-2259</v>
       </c>
-      <c r="D31" s="151">
+      <c r="D31" s="150">
         <v>-1565</v>
       </c>
-      <c r="E31" s="151"/>
-      <c r="F31" s="151"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="151"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="151"/>
-      <c r="K31" s="151"/>
-      <c r="L31" s="151"/>
-      <c r="M31" s="151"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="150"/>
+      <c r="L31" s="150"/>
+      <c r="M31" s="150"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="151">
+      <c r="C32" s="150">
         <v>4805</v>
       </c>
-      <c r="D32" s="151">
+      <c r="D32" s="150">
         <v>4765</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="150"/>
+      <c r="L32" s="150"/>
+      <c r="M32" s="150"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C33" s="151">
+      <c r="C33" s="150">
         <v>4396</v>
       </c>
-      <c r="D33" s="151">
+      <c r="D33" s="150">
         <v>4262</v>
       </c>
-      <c r="E33" s="151"/>
-      <c r="F33" s="151"/>
-      <c r="G33" s="151"/>
-      <c r="H33" s="151"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="151"/>
-      <c r="K33" s="151"/>
-      <c r="L33" s="151"/>
-      <c r="M33" s="151"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="150"/>
+      <c r="L33" s="150"/>
+      <c r="M33" s="150"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="151"/>
-      <c r="E34" s="151"/>
-      <c r="F34" s="151"/>
-      <c r="G34" s="151"/>
-      <c r="H34" s="151"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="151"/>
-      <c r="K34" s="151"/>
-      <c r="L34" s="151"/>
-      <c r="M34" s="151"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="150"/>
+      <c r="L34" s="150"/>
+      <c r="M34" s="150"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="151"/>
-      <c r="E35" s="151"/>
-      <c r="F35" s="151"/>
-      <c r="G35" s="151"/>
-      <c r="H35" s="151"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="151"/>
-      <c r="K35" s="151"/>
-      <c r="L35" s="151"/>
-      <c r="M35" s="151"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="150"/>
+      <c r="L35" s="150"/>
+      <c r="M35" s="150"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
-      <c r="K36" s="151"/>
-      <c r="L36" s="151"/>
-      <c r="M36" s="151"/>
+      <c r="C36" s="217"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
+      <c r="K36" s="150"/>
+      <c r="L36" s="150"/>
+      <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="218"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
-      <c r="F37" s="151"/>
-      <c r="G37" s="151"/>
-      <c r="H37" s="151"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="151"/>
-      <c r="K37" s="151"/>
-      <c r="L37" s="151"/>
-      <c r="M37" s="151"/>
+      <c r="C37" s="217"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
+      <c r="K37" s="150"/>
+      <c r="L37" s="150"/>
+      <c r="M37" s="150"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="218"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="151"/>
-      <c r="F38" s="151"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="151"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="151"/>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
-      <c r="M38" s="151"/>
+      <c r="C38" s="217"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
+      <c r="K38" s="150"/>
+      <c r="L38" s="150"/>
+      <c r="M38" s="150"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="218"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
+      <c r="C39" s="217"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
+      <c r="K39" s="150"/>
+      <c r="L39" s="150"/>
+      <c r="M39" s="150"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
+      <c r="C40" s="217"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
+      <c r="K40" s="150"/>
+      <c r="L40" s="150"/>
+      <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="C41" s="218"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="151"/>
-      <c r="K41" s="151"/>
-      <c r="L41" s="151"/>
-      <c r="M41" s="151"/>
+      <c r="C41" s="217"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="150"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>139</v>
       </c>
-      <c r="C42" s="218"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="151"/>
-      <c r="F42" s="151"/>
-      <c r="G42" s="151"/>
-      <c r="H42" s="151"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="151"/>
-      <c r="K42" s="151"/>
-      <c r="L42" s="151"/>
-      <c r="M42" s="151"/>
+      <c r="C42" s="217"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="150"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="151"/>
-      <c r="E43" s="151"/>
-      <c r="F43" s="151"/>
-      <c r="G43" s="151"/>
-      <c r="H43" s="151"/>
-      <c r="I43" s="151"/>
-      <c r="J43" s="151"/>
-      <c r="K43" s="151"/>
-      <c r="L43" s="151"/>
-      <c r="M43" s="151"/>
+      <c r="C43" s="217"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="150"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="251">
+      <c r="C44" s="250">
         <f>0.95+2.8</f>
         <v>3.75</v>
       </c>
-      <c r="D44" s="251">
+      <c r="D44" s="250">
         <f>3.7+1.25</f>
         <v>4.95</v>
       </c>
-      <c r="E44" s="251"/>
-      <c r="F44" s="251"/>
-      <c r="G44" s="251"/>
-      <c r="H44" s="251"/>
-      <c r="I44" s="251"/>
-      <c r="J44" s="251"/>
-      <c r="K44" s="251"/>
-      <c r="L44" s="251"/>
-      <c r="M44" s="251"/>
+      <c r="E44" s="250"/>
+      <c r="F44" s="250"/>
+      <c r="G44" s="250"/>
+      <c r="H44" s="250"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="250"/>
+      <c r="K44" s="250"/>
+      <c r="L44" s="250"/>
+      <c r="M44" s="250"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="153">
+      <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.7923322683706068E-2</v>
-      </c>
-      <c r="D45" s="153">
+        <v>4.8138639281129651E-2</v>
+      </c>
+      <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3258785942492013E-2</v>
-      </c>
-      <c r="E45" s="153" t="str">
+        <v>6.3543003851091143E-2</v>
+      </c>
+      <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
@@ -4208,10 +4212,10 @@
       <c r="B47" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="195" t="s">
+      <c r="C47" s="194" t="s">
         <v>34</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>197</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -4320,7 +4324,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="222" t="s">
+      <c r="E56" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4332,7 +4336,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4352,7 +4356,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="120"/>
-      <c r="D59" s="196">
+      <c r="D59" s="195">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -4425,7 +4429,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="222" t="s">
+      <c r="E65" s="221" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4439,7 +4443,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="222" t="s">
+      <c r="E66" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4452,7 +4456,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="222" t="s">
+      <c r="E67" s="221" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4504,16 +4508,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="247" t="s">
+      <c r="B72" s="246" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="248">
+      <c r="C72" s="247">
         <v>3743</v>
       </c>
-      <c r="D72" s="249">
+      <c r="D72" s="248">
         <v>0</v>
       </c>
-      <c r="E72" s="250"/>
+      <c r="E72" s="249"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -4607,7 +4611,7 @@
       <c r="B86" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C86" s="198">
+      <c r="C86" s="197">
         <v>5</v>
       </c>
     </row>
@@ -4615,19 +4619,20 @@
       <c r="B87" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="C87" s="237" t="s">
+      <c r="C87" s="236" t="s">
         <v>252</v>
       </c>
+      <c r="D87" s="269"/>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C89" s="270">
+      <c r="C89" s="271">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="270"/>
+      <c r="D89" s="271"/>
       <c r="E89" s="89" t="s">
         <v>207</v>
       </c>
@@ -4641,14 +4646,14 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="271" t="s">
+      <c r="C90" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D90" s="271"/>
-      <c r="E90" s="236" t="s">
+      <c r="D90" s="272"/>
+      <c r="E90" s="235" t="s">
         <v>102</v>
       </c>
-      <c r="F90" s="256" t="s">
+      <c r="F90" s="255" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4660,12 +4665,12 @@
         <f>C25</f>
         <v>71506</v>
       </c>
-      <c r="D91" s="210"/>
-      <c r="E91" s="252">
+      <c r="D91" s="209"/>
+      <c r="E91" s="251">
         <f>C91</f>
         <v>71506</v>
       </c>
-      <c r="F91" s="252">
+      <c r="F91" s="251">
         <f>C91</f>
         <v>71506</v>
       </c>
@@ -4678,15 +4683,15 @@
         <f>C26</f>
         <v>39292</v>
       </c>
-      <c r="D92" s="160">
+      <c r="D92" s="159">
         <f>C92/C91</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="E92" s="253">
+      <c r="E92" s="252">
         <f>E91*D92</f>
         <v>39292</v>
       </c>
-      <c r="F92" s="253">
+      <c r="F92" s="252">
         <f>F91*D92</f>
         <v>39292</v>
       </c>
@@ -4699,15 +4704,15 @@
         <f>C27+C28</f>
         <v>7228</v>
       </c>
-      <c r="D93" s="160">
+      <c r="D93" s="159">
         <f>C93/C91</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="E93" s="253">
+      <c r="E93" s="252">
         <f>E91*D93</f>
         <v>7228</v>
       </c>
-      <c r="F93" s="253">
+      <c r="F93" s="252">
         <f>F91*D93</f>
         <v>7228</v>
       </c>
@@ -4720,12 +4725,12 @@
         <f>C29</f>
         <v>4046</v>
       </c>
-      <c r="D94" s="160">
+      <c r="D94" s="159">
         <f>C94/C91</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="E94" s="254"/>
-      <c r="F94" s="253">
+      <c r="E94" s="253"/>
+      <c r="F94" s="252">
         <f>F91*D94</f>
         <v>4046</v>
       </c>
@@ -4738,15 +4743,15 @@
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>409</v>
       </c>
-      <c r="D95" s="160">
+      <c r="D95" s="159">
         <f>C95/C91</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="E95" s="253">
+      <c r="E95" s="252">
         <f>E91*D95</f>
         <v>409</v>
       </c>
-      <c r="F95" s="253">
+      <c r="F95" s="252">
         <f>F91*D95</f>
         <v>409</v>
       </c>
@@ -4759,12 +4764,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="160">
+      <c r="D96" s="159">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="254"/>
-      <c r="F96" s="253">
+      <c r="E96" s="253"/>
+      <c r="F96" s="252">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4777,12 +4782,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D97" s="160">
+      <c r="D97" s="159">
         <f>C97/C91</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="E97" s="254"/>
-      <c r="F97" s="253">
+      <c r="E97" s="253"/>
+      <c r="F97" s="252">
         <f>F91*D97</f>
         <v>730.718954248366</v>
       </c>
@@ -4791,16 +4796,16 @@
       <c r="B98" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C98" s="238">
+      <c r="C98" s="237">
         <f>C44</f>
         <v>3.75</v>
       </c>
-      <c r="D98" s="267"/>
-      <c r="E98" s="255">
+      <c r="D98" s="266"/>
+      <c r="E98" s="254">
         <f>F98</f>
         <v>3.75</v>
       </c>
-      <c r="F98" s="255">
+      <c r="F98" s="254">
         <f>C98</f>
         <v>3.75</v>
       </c>
@@ -4919,17 +4924,17 @@
       <c r="B3" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="276" t="str">
+      <c r="C3" s="277" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="277"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>78.25</v>
+        <v>77.900000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4939,40 +4944,40 @@
       <c r="B4" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="C4" s="278" t="str">
+      <c r="C4" s="279" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="D4" s="279"/>
+      <c r="D4" s="280"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="282">
+      <c r="G4" s="283">
         <f>Inputs!C10</f>
         <v>2897780274</v>
       </c>
-      <c r="H4" s="282"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="280">
+      <c r="C5" s="281">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="281"/>
+      <c r="D5" s="282"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="G5" s="274">
+      <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>226751.30644049999</v>
-      </c>
-      <c r="H5" s="274"/>
+        <v>225737.08334460002</v>
+      </c>
+      <c r="H5" s="275"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4980,11 +4985,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="186">
+      <c r="C6" s="185">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="187">
+      <c r="D6" s="186">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4995,22 +5000,22 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="275" t="str">
+      <c r="G6" s="276" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="275"/>
+      <c r="H6" s="276"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="188" t="str">
+      <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="188" t="str">
+      <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
         <v>C0005</v>
       </c>
@@ -5039,7 +5044,7 @@
       <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C10" s="173">
+      <c r="C10" s="172">
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -5050,7 +5055,7 @@
       <c r="B11" s="122" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="174">
+      <c r="C11" s="173">
         <v>5.3099999999999994E-2</v>
       </c>
       <c r="D11" s="137" t="s">
@@ -5064,11 +5069,11 @@
       <c r="B12" s="87" t="s">
         <v>255</v>
       </c>
-      <c r="C12" s="175">
+      <c r="C12" s="174">
         <v>0.06</v>
       </c>
-      <c r="D12" s="173">
-        <v>6.4500000000000002E-2</v>
+      <c r="D12" s="172">
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5077,7 +5082,7 @@
       <c r="B14" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C14" s="173">
+      <c r="C14" s="172">
         <v>2.1309999999999999E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -5088,7 +5093,7 @@
       <c r="B15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="173">
+      <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -5099,10 +5104,10 @@
       <c r="B16" s="122" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="174">
+      <c r="C16" s="173">
         <v>0.16</v>
       </c>
-      <c r="D16" s="266" t="str">
+      <c r="D16" s="265" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -5114,10 +5119,10 @@
       <c r="B17" s="87" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="176">
-        <v>6.8999999999999992E-2</v>
-      </c>
-      <c r="D17" s="177"/>
+      <c r="C17" s="175">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5139,14 +5144,14 @@
       <c r="B20" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="172">
+      <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.54949235029228316</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="173">
+      <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
@@ -5154,7 +5159,7 @@
       <c r="B21" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="C21" s="172">
+      <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
         <v>0.10108242664951193</v>
       </c>
@@ -5165,7 +5170,7 @@
       <c r="B22" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="C22" s="172">
+      <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.0218987976510586E-2</v>
       </c>
@@ -5177,46 +5182,46 @@
       <c r="B23" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="172">
+      <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="G23" s="178">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.37107194817050715</v>
+        <v>0.36941220143747616</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="172">
+      <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
       <c r="F24" s="140" t="s">
         <v>260</v>
       </c>
-      <c r="G24" s="269">
+      <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.969834813891529</v>
+        <v>14.902877086289459</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="172">
+      <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>5.719799737085E-3</v>
       </c>
       <c r="F25" s="140" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="172">
+      <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
         <v>0.71740422430790074</v>
       </c>
@@ -5225,16 +5230,16 @@
       <c r="B26" s="138" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="172">
+      <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.27690377095281005</v>
       </c>
       <c r="F26" s="141" t="s">
         <v>194</v>
       </c>
-      <c r="G26" s="179">
+      <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.7923322683706068E-2</v>
+        <v>4.8138639281129651E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5253,10 +5258,10 @@
       <c r="F28" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="G28" s="272" t="s">
+      <c r="G28" s="273" t="s">
         <v>259</v>
       </c>
-      <c r="H28" s="272"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5264,22 +5269,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>14.020185571926717</v>
+        <v>12.831493250701001</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>52.332370576725054</v>
+        <v>49.673984264023446</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>16.638606149939115</v>
-      </c>
-      <c r="G29" s="273">
+        <v>15.449913828713395</v>
+      </c>
+      <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.506409197152223</v>
-      </c>
-      <c r="H29" s="273"/>
+        <v>43.194768925237781</v>
+      </c>
+      <c r="H29" s="274"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5291,17 +5296,17 @@
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="197" t="s">
+      <c r="B32" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="C33" s="246" t="str">
+      <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
         <v>disagree</v>
       </c>
@@ -5311,7 +5316,7 @@
       <c r="B34" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="226" t="str">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -5319,17 +5324,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="197" t="s">
+      <c r="B35" s="196" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="225"/>
+      <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="C36" s="246" t="str">
+      <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -5339,24 +5344,24 @@
       <c r="B37" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="C37" s="246" t="str">
+      <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="197" t="s">
+      <c r="B38" s="196" t="s">
         <v>228</v>
       </c>
-      <c r="C38" s="225"/>
+      <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="C39" s="246" t="str">
+      <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -5366,7 +5371,7 @@
       <c r="B40" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C40" s="246" t="str">
+      <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -5385,10 +5390,10 @@
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="227" t="s">
+      <c r="B43" s="226" t="s">
         <v>231</v>
       </c>
-      <c r="C43" s="245" t="str">
+      <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
         <v>Commodity-type Business</v>
       </c>
@@ -6370,16 +6375,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="148" t="s">
         <v>200</v>
       </c>
       <c r="F2" s="119" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="148" t="s">
         <v>204</v>
       </c>
-      <c r="H2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>205</v>
       </c>
       <c r="I2" s="7"/>
@@ -6393,11 +6398,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="202">
+      <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45473</v>
       </c>
-      <c r="E3" s="147" t="s">
+      <c r="E3" s="146" t="s">
         <v>201</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -6430,7 +6435,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>202</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -6494,47 +6499,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="201">
+      <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>71506</v>
       </c>
-      <c r="D6" s="201">
+      <c r="D6" s="200">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>71195</v>
       </c>
-      <c r="E6" s="201" t="str">
+      <c r="E6" s="200" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="201" t="str">
+      <c r="F6" s="200" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="201" t="str">
+      <c r="G6" s="200" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="201" t="str">
+      <c r="H6" s="200" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="201" t="str">
+      <c r="I6" s="200" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="201" t="str">
+      <c r="J6" s="200" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="201" t="str">
+      <c r="K6" s="200" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="201" t="str">
+      <c r="L6" s="200" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="201" t="str">
+      <c r="M6" s="200" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -6596,47 +6601,47 @@
       <c r="B8" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="200">
+      <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>39292</v>
       </c>
-      <c r="D8" s="200">
+      <c r="D8" s="199">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>36737</v>
       </c>
-      <c r="E8" s="200" t="str">
+      <c r="E8" s="199" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="200" t="str">
+      <c r="F8" s="199" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="200" t="str">
+      <c r="G8" s="199" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="200" t="str">
+      <c r="H8" s="199" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="200" t="str">
+      <c r="I8" s="199" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="200" t="str">
+      <c r="J8" s="199" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="200" t="str">
+      <c r="K8" s="199" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="200" t="str">
+      <c r="L8" s="199" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="200" t="str">
+      <c r="M8" s="199" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -6647,47 +6652,47 @@
       <c r="B9" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="152">
+      <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>32214</v>
       </c>
-      <c r="D9" s="152">
+      <c r="D9" s="151">
         <f t="shared" si="2"/>
         <v>34458</v>
       </c>
-      <c r="E9" s="152" t="str">
+      <c r="E9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="152" t="str">
+      <c r="F9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="152" t="str">
+      <c r="G9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="152" t="str">
+      <c r="H9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="152" t="str">
+      <c r="I9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="152" t="str">
+      <c r="J9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="152" t="str">
+      <c r="K9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="152" t="str">
+      <c r="L9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="152" t="str">
+      <c r="M9" s="151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -6698,47 +6703,47 @@
       <c r="B10" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="200">
+      <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>7228</v>
       </c>
-      <c r="D10" s="200">
+      <c r="D10" s="199">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>7324</v>
       </c>
-      <c r="E10" s="200" t="str">
+      <c r="E10" s="199" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="200" t="str">
+      <c r="F10" s="199" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="200" t="str">
+      <c r="G10" s="199" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="200" t="str">
+      <c r="H10" s="199" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="200" t="str">
+      <c r="I10" s="199" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="200" t="str">
+      <c r="J10" s="199" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="200" t="str">
+      <c r="K10" s="199" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="200" t="str">
+      <c r="L10" s="199" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="200" t="str">
+      <c r="M10" s="199" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6749,47 +6754,47 @@
       <c r="B11" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="200" t="str">
+      <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="200" t="str">
+      <c r="D11" s="199" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="200" t="str">
+      <c r="E11" s="199" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="200" t="str">
+      <c r="F11" s="199" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="200" t="str">
+      <c r="G11" s="199" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="200" t="str">
+      <c r="H11" s="199" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="200" t="str">
+      <c r="I11" s="199" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="200" t="str">
+      <c r="J11" s="199" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K11" s="199" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="200" t="str">
+      <c r="L11" s="199" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="200" t="str">
+      <c r="M11" s="199" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6800,47 +6805,47 @@
       <c r="B12" s="99" t="s">
         <v>241</v>
       </c>
-      <c r="C12" s="200">
+      <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D12" s="200">
+      <c r="D12" s="199">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>873.20261437908493</v>
       </c>
-      <c r="E12" s="200" t="str">
+      <c r="E12" s="199" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="200" t="str">
+      <c r="F12" s="199" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="200" t="str">
+      <c r="G12" s="199" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="200" t="str">
+      <c r="H12" s="199" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="200" t="str">
+      <c r="I12" s="199" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="200" t="str">
+      <c r="J12" s="199" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="200" t="str">
+      <c r="K12" s="199" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="200" t="str">
+      <c r="L12" s="199" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="200" t="str">
+      <c r="M12" s="199" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6848,50 +6853,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="229" t="s">
+      <c r="B13" s="228" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="230">
+      <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="D13" s="230">
+      <c r="D13" s="229">
         <f t="shared" si="3"/>
         <v>0.36885732685751688</v>
       </c>
-      <c r="E13" s="230" t="str">
+      <c r="E13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="230" t="str">
+      <c r="F13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="230" t="str">
+      <c r="G13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="230" t="str">
+      <c r="H13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="230" t="str">
+      <c r="I13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="230" t="str">
+      <c r="J13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="230" t="str">
+      <c r="K13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="230" t="str">
+      <c r="L13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="230" t="str">
+      <c r="M13" s="229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6899,50 +6904,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="229" t="s">
+      <c r="B14" s="228" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="D14" s="231">
+      <c r="D14" s="230">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>26260.797385620914</v>
       </c>
-      <c r="E14" s="231" t="str">
+      <c r="E14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="231" t="str">
+      <c r="F14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="231" t="str">
+      <c r="G14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="231" t="str">
+      <c r="H14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="231" t="str">
+      <c r="I14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="231" t="str">
+      <c r="J14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="231" t="str">
+      <c r="K14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="231" t="str">
+      <c r="L14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="231" t="str">
+      <c r="M14" s="230" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6950,50 +6955,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="232" t="s">
+      <c r="B15" s="231" t="s">
         <v>243</v>
       </c>
-      <c r="C15" s="233">
+      <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-7.6369209602424257E-2</v>
       </c>
-      <c r="D15" s="233" t="str">
+      <c r="D15" s="232" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="233" t="str">
+      <c r="E15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="233" t="str">
+      <c r="F15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="233" t="str">
+      <c r="G15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="233" t="str">
+      <c r="H15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="233" t="str">
+      <c r="I15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="233" t="str">
+      <c r="J15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="233" t="str">
+      <c r="K15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="233" t="str">
+      <c r="L15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="233" t="str">
+      <c r="M15" s="232" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -7004,47 +7009,47 @@
       <c r="B16" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="200">
+      <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-2259</v>
       </c>
-      <c r="D16" s="200">
+      <c r="D16" s="199">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-1565</v>
       </c>
-      <c r="E16" s="200" t="str">
+      <c r="E16" s="199" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="200" t="str">
+      <c r="F16" s="199" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="200" t="str">
+      <c r="G16" s="199" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="200" t="str">
+      <c r="H16" s="199" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="200" t="str">
+      <c r="I16" s="199" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="200" t="str">
+      <c r="J16" s="199" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="200" t="str">
+      <c r="K16" s="199" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="200" t="str">
+      <c r="L16" s="199" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="200" t="str">
+      <c r="M16" s="199" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -7055,47 +7060,47 @@
       <c r="B17" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="200">
+      <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>4046</v>
       </c>
-      <c r="D17" s="200">
+      <c r="D17" s="199">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>3053</v>
       </c>
-      <c r="E17" s="200" t="str">
+      <c r="E17" s="199" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="200" t="str">
+      <c r="F17" s="199" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="200" t="str">
+      <c r="G17" s="199" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="200" t="str">
+      <c r="H17" s="199" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="200" t="str">
+      <c r="I17" s="199" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="200" t="str">
+      <c r="J17" s="199" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="200" t="str">
+      <c r="K17" s="199" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="200" t="str">
+      <c r="L17" s="199" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="200" t="str">
+      <c r="M17" s="199" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -7106,47 +7111,47 @@
       <c r="B18" s="94" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="153">
+      <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>6.7197158280424024E-2</v>
       </c>
-      <c r="D18" s="153">
+      <c r="D18" s="152">
         <f t="shared" si="6"/>
         <v>6.6928857363578897E-2</v>
       </c>
-      <c r="E18" s="153" t="str">
+      <c r="E18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="153" t="str">
+      <c r="F18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="153" t="str">
+      <c r="G18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="153" t="str">
+      <c r="H18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="153" t="str">
+      <c r="I18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="153" t="str">
+      <c r="J18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="153" t="str">
+      <c r="K18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="153" t="str">
+      <c r="L18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="153" t="str">
+      <c r="M18" s="152" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -7157,47 +7162,47 @@
       <c r="B19" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="200">
+      <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>4805</v>
       </c>
-      <c r="D19" s="200">
+      <c r="D19" s="199">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>4765</v>
       </c>
-      <c r="E19" s="200" t="str">
+      <c r="E19" s="199" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="200" t="str">
+      <c r="F19" s="199" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="200" t="str">
+      <c r="G19" s="199" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="200" t="str">
+      <c r="H19" s="199" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="200" t="str">
+      <c r="I19" s="199" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="200" t="str">
+      <c r="J19" s="199" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="200" t="str">
+      <c r="K19" s="199" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="200" t="str">
+      <c r="L19" s="199" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="200" t="str">
+      <c r="M19" s="199" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -7208,47 +7213,47 @@
       <c r="B20" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="C20" s="153">
+      <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>6.1477358543339022E-2</v>
       </c>
-      <c r="D20" s="153">
+      <c r="D20" s="152">
         <f t="shared" si="7"/>
         <v>5.9863754477140249E-2</v>
       </c>
-      <c r="E20" s="153" t="str">
+      <c r="E20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="153" t="str">
+      <c r="F20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="153" t="str">
+      <c r="G20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="153" t="str">
+      <c r="H20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="153" t="str">
+      <c r="I20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="153" t="str">
+      <c r="J20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="153" t="str">
+      <c r="K20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="153" t="str">
+      <c r="L20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="153" t="str">
+      <c r="M20" s="152" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -7259,47 +7264,47 @@
       <c r="B21" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="200">
+      <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>4396</v>
       </c>
-      <c r="D21" s="200">
+      <c r="D21" s="199">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>4262</v>
       </c>
-      <c r="E21" s="200" t="str">
+      <c r="E21" s="199" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="200" t="str">
+      <c r="F21" s="199" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="200" t="str">
+      <c r="G21" s="199" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="200" t="str">
+      <c r="H21" s="199" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="200" t="str">
+      <c r="I21" s="199" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="200" t="str">
+      <c r="J21" s="199" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="200" t="str">
+      <c r="K21" s="199" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="200" t="str">
+      <c r="L21" s="199" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="200" t="str">
+      <c r="M21" s="199" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -7310,47 +7315,47 @@
       <c r="B22" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="D22" s="162">
+      <c r="D22" s="161">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>22704.797385620914</v>
       </c>
-      <c r="E22" s="162" t="str">
+      <c r="E22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="162" t="str">
+      <c r="F22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="162" t="str">
+      <c r="G22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="162" t="str">
+      <c r="H22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="162" t="str">
+      <c r="I22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="162" t="str">
+      <c r="J22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="162" t="str">
+      <c r="K22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="162" t="str">
+      <c r="L22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="162" t="str">
+      <c r="M22" s="161" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -7361,47 +7366,47 @@
       <c r="B23" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="D23" s="154">
+      <c r="D23" s="153">
         <f t="shared" si="9"/>
         <v>0.2439661493082379</v>
       </c>
-      <c r="E23" s="154" t="str">
+      <c r="E23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="154" t="str">
+      <c r="F23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="154" t="str">
+      <c r="G23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="154" t="str">
+      <c r="H23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="154" t="str">
+      <c r="I23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="154" t="str">
+      <c r="J23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="154" t="str">
+      <c r="K23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="154" t="str">
+      <c r="L23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="154" t="str">
+      <c r="M23" s="153" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -7412,7 +7417,7 @@
       <c r="B24" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>15147.215000000002</v>
       </c>
@@ -7460,50 +7465,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="235" t="s">
+      <c r="B25" s="234" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="234">
+      <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.12792522613343046</v>
       </c>
-      <c r="D25" s="234" t="str">
+      <c r="D25" s="233" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="234" t="str">
+      <c r="E25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="234" t="str">
+      <c r="F25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="234" t="str">
+      <c r="G25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="234" t="str">
+      <c r="H25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="234" t="str">
+      <c r="I25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="234" t="str">
+      <c r="J25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="234" t="str">
+      <c r="K25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="234" t="str">
+      <c r="L25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="234" t="str">
+      <c r="M25" s="233" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -7620,43 +7625,43 @@
         <f>Fin_Analysis!C28</f>
         <v>248663</v>
       </c>
-      <c r="D28" s="200" t="str">
+      <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
         <v/>
       </c>
-      <c r="E28" s="200" t="str">
+      <c r="E28" s="199" t="str">
         <f>IF(Inputs!E34="","",Inputs!E34)</f>
         <v/>
       </c>
-      <c r="F28" s="200" t="str">
+      <c r="F28" s="199" t="str">
         <f>IF(Inputs!F34="","",Inputs!F34)</f>
         <v/>
       </c>
-      <c r="G28" s="200" t="str">
+      <c r="G28" s="199" t="str">
         <f>IF(Inputs!G34="","",Inputs!G34)</f>
         <v/>
       </c>
-      <c r="H28" s="200" t="str">
+      <c r="H28" s="199" t="str">
         <f>IF(Inputs!H34="","",Inputs!H34)</f>
         <v/>
       </c>
-      <c r="I28" s="200" t="str">
+      <c r="I28" s="199" t="str">
         <f>IF(Inputs!I34="","",Inputs!I34)</f>
         <v/>
       </c>
-      <c r="J28" s="200" t="str">
+      <c r="J28" s="199" t="str">
         <f>IF(Inputs!J34="","",Inputs!J34)</f>
         <v/>
       </c>
-      <c r="K28" s="200" t="str">
+      <c r="K28" s="199" t="str">
         <f>IF(Inputs!K34="","",Inputs!K34)</f>
         <v/>
       </c>
-      <c r="L28" s="200" t="str">
+      <c r="L28" s="199" t="str">
         <f>IF(Inputs!L34="","",Inputs!L34)</f>
         <v/>
       </c>
-      <c r="M28" s="200" t="str">
+      <c r="M28" s="199" t="str">
         <f>IF(Inputs!M34="","",Inputs!M34)</f>
         <v/>
       </c>
@@ -7671,43 +7676,43 @@
         <f>Fin_Analysis!C13</f>
         <v>17115</v>
       </c>
-      <c r="D29" s="200" t="str">
+      <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E29" s="200" t="str">
+      <c r="E29" s="199" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F29" s="200" t="str">
+      <c r="F29" s="199" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G29" s="200" t="str">
+      <c r="G29" s="199" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H29" s="200" t="str">
+      <c r="H29" s="199" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I29" s="200" t="str">
+      <c r="I29" s="199" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J29" s="200" t="str">
+      <c r="J29" s="199" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K29" s="200" t="str">
+      <c r="K29" s="199" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L29" s="200" t="str">
+      <c r="L29" s="199" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M29" s="200" t="str">
+      <c r="M29" s="199" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -7722,43 +7727,43 @@
         <f>Fin_Analysis!C18</f>
         <v>502</v>
       </c>
-      <c r="D30" s="200" t="str">
+      <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E30" s="200" t="str">
+      <c r="E30" s="199" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F30" s="200" t="str">
+      <c r="F30" s="199" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G30" s="200" t="str">
+      <c r="G30" s="199" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H30" s="200" t="str">
+      <c r="H30" s="199" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I30" s="200" t="str">
+      <c r="I30" s="199" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J30" s="200" t="str">
+      <c r="J30" s="199" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K30" s="200" t="str">
+      <c r="K30" s="199" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L30" s="200" t="str">
+      <c r="L30" s="199" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M30" s="200" t="str">
+      <c r="M30" s="199" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7773,43 +7778,43 @@
         <f>Fin_Analysis!I28</f>
         <v>62012</v>
       </c>
-      <c r="D31" s="200" t="str">
+      <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E31" s="200" t="str">
+      <c r="E31" s="199" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F31" s="200" t="str">
+      <c r="F31" s="199" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G31" s="200" t="str">
+      <c r="G31" s="199" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H31" s="200" t="str">
+      <c r="H31" s="199" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I31" s="200" t="str">
+      <c r="I31" s="199" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J31" s="200" t="str">
+      <c r="J31" s="199" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K31" s="200" t="str">
+      <c r="K31" s="199" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L31" s="200" t="str">
+      <c r="L31" s="199" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M31" s="200" t="str">
+      <c r="M31" s="199" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7824,43 +7829,43 @@
         <f>Fin_Analysis!I48</f>
         <v>145011</v>
       </c>
-      <c r="D32" s="200" t="str">
+      <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
         <v/>
       </c>
-      <c r="E32" s="200" t="str">
+      <c r="E32" s="199" t="str">
         <f>IF(Inputs!E38="","",Inputs!E38)</f>
         <v/>
       </c>
-      <c r="F32" s="200" t="str">
+      <c r="F32" s="199" t="str">
         <f>IF(Inputs!F38="","",Inputs!F38)</f>
         <v/>
       </c>
-      <c r="G32" s="200" t="str">
+      <c r="G32" s="199" t="str">
         <f>IF(Inputs!G38="","",Inputs!G38)</f>
         <v/>
       </c>
-      <c r="H32" s="200" t="str">
+      <c r="H32" s="199" t="str">
         <f>IF(Inputs!H38="","",Inputs!H38)</f>
         <v/>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="199" t="str">
         <f>IF(Inputs!I38="","",Inputs!I38)</f>
         <v/>
       </c>
-      <c r="J32" s="200" t="str">
+      <c r="J32" s="199" t="str">
         <f>IF(Inputs!J38="","",Inputs!J38)</f>
         <v/>
       </c>
-      <c r="K32" s="200" t="str">
+      <c r="K32" s="199" t="str">
         <f>IF(Inputs!K38="","",Inputs!K38)</f>
         <v/>
       </c>
-      <c r="L32" s="200" t="str">
+      <c r="L32" s="199" t="str">
         <f>IF(Inputs!L38="","",Inputs!L38)</f>
         <v/>
       </c>
-      <c r="M32" s="200" t="str">
+      <c r="M32" s="199" t="str">
         <f>IF(Inputs!M38="","",Inputs!M38)</f>
         <v/>
       </c>
@@ -7875,43 +7880,43 @@
         <f>Fin_Analysis!I15</f>
         <v>10498</v>
       </c>
-      <c r="D33" s="200" t="str">
+      <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E33" s="200" t="str">
+      <c r="E33" s="199" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F33" s="200" t="str">
+      <c r="F33" s="199" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G33" s="200" t="str">
+      <c r="G33" s="199" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H33" s="200" t="str">
+      <c r="H33" s="199" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="199" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J33" s="200" t="str">
+      <c r="J33" s="199" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K33" s="200" t="str">
+      <c r="K33" s="199" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L33" s="200" t="str">
+      <c r="L33" s="199" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M33" s="200" t="str">
+      <c r="M33" s="199" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7926,43 +7931,43 @@
         <f>Fin_Analysis!I34</f>
         <v>116589</v>
       </c>
-      <c r="D34" s="200" t="str">
+      <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E34" s="200" t="str">
+      <c r="E34" s="199" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F34" s="200" t="str">
+      <c r="F34" s="199" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G34" s="200" t="str">
+      <c r="G34" s="199" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H34" s="200" t="str">
+      <c r="H34" s="199" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I34" s="200" t="str">
+      <c r="I34" s="199" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J34" s="200" t="str">
+      <c r="J34" s="199" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K34" s="200" t="str">
+      <c r="K34" s="199" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L34" s="200" t="str">
+      <c r="L34" s="199" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M34" s="200" t="str">
+      <c r="M34" s="199" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -8028,43 +8033,43 @@
         <f>Fin_Analysis!D3</f>
         <v>611071</v>
       </c>
-      <c r="D36" s="200" t="str">
+      <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E36" s="200" t="str">
+      <c r="E36" s="199" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F36" s="200" t="str">
+      <c r="F36" s="199" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G36" s="200" t="str">
+      <c r="G36" s="199" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="199" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I36" s="200" t="str">
+      <c r="I36" s="199" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J36" s="200" t="str">
+      <c r="J36" s="199" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K36" s="200" t="str">
+      <c r="K36" s="199" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L36" s="200" t="str">
+      <c r="L36" s="199" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M36" s="200" t="str">
+      <c r="M36" s="199" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -8079,43 +8084,43 @@
         <f>Fin_Analysis!D4</f>
         <v>4354</v>
       </c>
-      <c r="D37" s="200" t="str">
+      <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E37" s="200" t="str">
+      <c r="E37" s="199" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F37" s="200" t="str">
+      <c r="F37" s="199" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G37" s="200" t="str">
+      <c r="G37" s="199" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H37" s="200" t="str">
+      <c r="H37" s="199" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I37" s="200" t="str">
+      <c r="I37" s="199" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J37" s="200" t="str">
+      <c r="J37" s="199" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K37" s="200" t="str">
+      <c r="K37" s="199" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L37" s="200" t="str">
+      <c r="L37" s="199" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M37" s="200" t="str">
+      <c r="M37" s="199" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -8130,43 +8135,43 @@
         <f>Fin_Analysis!C63</f>
         <v>119705</v>
       </c>
-      <c r="D38" s="200" t="str">
+      <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E38" s="200" t="str">
+      <c r="E38" s="199" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F38" s="200" t="str">
+      <c r="F38" s="199" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G38" s="200" t="str">
+      <c r="G38" s="199" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H38" s="200" t="str">
+      <c r="H38" s="199" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I38" s="200" t="str">
+      <c r="I38" s="199" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J38" s="200" t="str">
+      <c r="J38" s="199" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K38" s="200" t="str">
+      <c r="K38" s="199" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L38" s="200" t="str">
+      <c r="L38" s="199" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M38" s="200" t="str">
+      <c r="M38" s="199" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -8228,47 +8233,47 @@
       <c r="B40" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
         <v>3.4730330869689581E-2</v>
       </c>
-      <c r="D40" s="156" t="e">
+      <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f>IF(E6="","",E14/MAX(E39,0))</f>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -8297,47 +8302,47 @@
       <c r="B42" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="157">
+      <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="D42" s="157">
+      <c r="D42" s="156">
         <f t="shared" si="34"/>
         <v>0.51600533745347288</v>
       </c>
-      <c r="E42" s="157" t="str">
+      <c r="E42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F42" s="157" t="str">
+      <c r="F42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G42" s="157" t="str">
+      <c r="G42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H42" s="157" t="str">
+      <c r="H42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I42" s="157" t="str">
+      <c r="I42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J42" s="157" t="str">
+      <c r="J42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K42" s="157" t="str">
+      <c r="K42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L42" s="157" t="str">
+      <c r="L42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M42" s="157" t="str">
+      <c r="M42" s="156" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -8348,47 +8353,47 @@
       <c r="B43" s="94" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="D43" s="154">
+      <c r="D43" s="153">
         <f t="shared" si="35"/>
         <v>0.10287239272420816</v>
       </c>
-      <c r="E43" s="154" t="str">
+      <c r="E43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F43" s="154" t="str">
+      <c r="F43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G43" s="154" t="str">
+      <c r="G43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H43" s="154" t="str">
+      <c r="H43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I43" s="154" t="str">
+      <c r="I43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J43" s="154" t="str">
+      <c r="J43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K43" s="154" t="str">
+      <c r="K43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L43" s="154" t="str">
+      <c r="L43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M43" s="154" t="str">
+      <c r="M43" s="153" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -8399,47 +8404,47 @@
       <c r="B44" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D44" s="154">
+      <c r="D44" s="153">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E44" s="154" t="str">
+      <c r="E44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F44" s="154" t="str">
+      <c r="F44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G44" s="154" t="str">
+      <c r="G44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H44" s="154" t="str">
+      <c r="H44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I44" s="154" t="str">
+      <c r="I44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J44" s="154" t="str">
+      <c r="J44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K44" s="154" t="str">
+      <c r="K44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L44" s="154" t="str">
+      <c r="L44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M44" s="154" t="str">
+      <c r="M44" s="153" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -8450,47 +8455,47 @@
       <c r="B45" s="94" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="D45" s="154">
+      <c r="D45" s="153">
         <f t="shared" si="37"/>
         <v>4.2882224875342372E-2</v>
       </c>
-      <c r="E45" s="154" t="str">
+      <c r="E45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F45" s="154" t="str">
+      <c r="F45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G45" s="154" t="str">
+      <c r="G45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H45" s="154" t="str">
+      <c r="H45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I45" s="154" t="str">
+      <c r="I45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J45" s="154" t="str">
+      <c r="J45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K45" s="154" t="str">
+      <c r="K45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L45" s="154" t="str">
+      <c r="L45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M45" s="154" t="str">
+      <c r="M45" s="153" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -8501,47 +8506,47 @@
       <c r="B46" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="D46" s="154">
+      <c r="D46" s="153">
         <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
         <v>1.2264942964802092E-2</v>
       </c>
-      <c r="E46" s="154" t="str">
+      <c r="E46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F46" s="154" t="str">
+      <c r="F46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G46" s="154" t="str">
+      <c r="G46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H46" s="154" t="str">
+      <c r="H46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I46" s="154" t="str">
+      <c r="I46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J46" s="154" t="str">
+      <c r="J46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K46" s="154" t="str">
+      <c r="K46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L46" s="154" t="str">
+      <c r="L46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M46" s="154" t="str">
+      <c r="M46" s="153" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -8552,47 +8557,47 @@
       <c r="B47" s="94" t="s">
         <v>237</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="D47" s="154">
+      <c r="D47" s="153">
         <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
         <v>7.0651028864386544E-3</v>
       </c>
-      <c r="E47" s="154" t="str">
+      <c r="E47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F47" s="154" t="str">
+      <c r="F47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G47" s="154" t="str">
+      <c r="G47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H47" s="154" t="str">
+      <c r="H47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I47" s="154" t="str">
+      <c r="I47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J47" s="154" t="str">
+      <c r="J47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K47" s="154" t="str">
+      <c r="K47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L47" s="154" t="str">
+      <c r="L47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M47" s="154" t="str">
+      <c r="M47" s="153" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -8603,47 +8608,47 @@
       <c r="B48" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="D48" s="154">
+      <c r="D48" s="153">
         <f t="shared" si="40"/>
         <v>0.31890999909573586</v>
       </c>
-      <c r="E48" s="154" t="str">
+      <c r="E48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F48" s="154" t="str">
+      <c r="F48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G48" s="154" t="str">
+      <c r="G48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H48" s="154" t="str">
+      <c r="H48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I48" s="154" t="str">
+      <c r="I48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J48" s="154" t="str">
+      <c r="J48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K48" s="154" t="str">
+      <c r="K48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L48" s="154" t="str">
+      <c r="L48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M48" s="154" t="str">
+      <c r="M48" s="153" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -8672,47 +8677,47 @@
       <c r="B50" s="95" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="157">
+      <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
         <v>0.23935054401029285</v>
       </c>
-      <c r="D50" s="157" t="str">
+      <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="157" t="str">
+      <c r="E50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="157" t="str">
+      <c r="F50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="157" t="str">
+      <c r="G50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="157" t="str">
+      <c r="H50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="157" t="str">
+      <c r="I50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="157" t="str">
+      <c r="J50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="157" t="str">
+      <c r="K50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="157" t="str">
+      <c r="L50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M50" s="157" t="str">
+      <c r="M50" s="156" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8723,47 +8728,47 @@
       <c r="B51" s="94" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
         <v>7.0203898973512716E-3</v>
       </c>
-      <c r="D51" s="154" t="str">
+      <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E51" s="154" t="str">
+      <c r="E51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F51" s="154" t="str">
+      <c r="F51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G51" s="154" t="str">
+      <c r="G51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H51" s="154" t="str">
+      <c r="H51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I51" s="154" t="str">
+      <c r="I51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J51" s="154" t="str">
+      <c r="J51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K51" s="154" t="str">
+      <c r="K51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L51" s="154" t="str">
+      <c r="L51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M51" s="154" t="str">
+      <c r="M51" s="153" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -8791,47 +8796,47 @@
       <c r="B53" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="157">
+      <c r="C53" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.25305527237701292</v>
       </c>
-      <c r="D53" s="157" t="str">
+      <c r="D53" s="156" t="str">
         <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
         <v/>
       </c>
-      <c r="E53" s="157" t="str">
+      <c r="E53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F53" s="157" t="str">
+      <c r="F53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G53" s="157" t="str">
+      <c r="G53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H53" s="157" t="str">
+      <c r="H53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I53" s="157" t="str">
+      <c r="I53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J53" s="157" t="str">
+      <c r="J53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K53" s="157" t="str">
+      <c r="K53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L53" s="157" t="str">
+      <c r="L53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M53" s="157" t="str">
+      <c r="M53" s="156" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8841,47 +8846,47 @@
       <c r="B54" s="94" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="158">
+      <c r="C54" s="157">
         <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
         <v>0.15580099495425681</v>
       </c>
-      <c r="D54" s="158" t="str">
+      <c r="D54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="158" t="str">
+      <c r="E54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="158" t="str">
+      <c r="F54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="158" t="str">
+      <c r="G54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="158" t="str">
+      <c r="H54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="158" t="str">
+      <c r="I54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="158" t="str">
+      <c r="J54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="158" t="str">
+      <c r="K54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="158" t="str">
+      <c r="L54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="158" t="str">
+      <c r="M54" s="157" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8891,47 +8896,47 @@
       <c r="B55" s="94" t="s">
         <v>123</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="153">
         <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.20434053388692244</v>
       </c>
-      <c r="D55" s="154">
+      <c r="D55" s="153">
         <f t="shared" si="45"/>
         <v>0.13446497443458727</v>
       </c>
-      <c r="E55" s="154" t="str">
+      <c r="E55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="154" t="str">
+      <c r="F55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="154" t="str">
+      <c r="G55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="154" t="str">
+      <c r="H55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="154" t="str">
+      <c r="I55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="154" t="str">
+      <c r="J55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="154" t="str">
+      <c r="K55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="154" t="str">
+      <c r="L55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="154" t="str">
+      <c r="M55" s="153" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8941,47 +8946,47 @@
       <c r="B56" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="159">
+      <c r="C56" s="158">
         <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
         <v>4.0099174353350966</v>
       </c>
-      <c r="D56" s="159" t="str">
+      <c r="D56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E56" s="159" t="str">
+      <c r="E56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="159" t="str">
+      <c r="F56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="159" t="str">
+      <c r="G56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="159" t="str">
+      <c r="H56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="159" t="str">
+      <c r="I56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="159" t="str">
+      <c r="J56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="159" t="str">
+      <c r="K56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="159" t="str">
+      <c r="L56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="159" t="str">
+      <c r="M56" s="158" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -10279,8 +10284,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10329,7 +10334,7 @@
       <c r="H3" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="205">
+      <c r="I3" s="204">
         <f>Inputs!C83</f>
         <v>606717</v>
       </c>
@@ -10426,7 +10431,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="204">
+      <c r="D9" s="203">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
@@ -10473,7 +10478,7 @@
         <f>Inputs!C48</f>
         <v>16221</v>
       </c>
-      <c r="D11" s="199">
+      <c r="D11" s="198">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -10501,7 +10506,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -10529,7 +10534,7 @@
         <f>Inputs!C50</f>
         <v>17115</v>
       </c>
-      <c r="D13" s="199">
+      <c r="D13" s="198">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10557,7 +10562,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="199">
+      <c r="D14" s="198">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10570,7 +10575,7 @@
       <c r="H14" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="I14" s="206">
+      <c r="I14" s="205">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -10585,7 +10590,7 @@
         <f>Inputs!C52</f>
         <v>748</v>
       </c>
-      <c r="D15" s="199">
+      <c r="D15" s="198">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10612,7 +10617,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10634,7 +10639,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10656,7 +10661,7 @@
         <f>Inputs!C55</f>
         <v>502</v>
       </c>
-      <c r="D18" s="199">
+      <c r="D18" s="198">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10677,7 +10682,7 @@
         <f>Inputs!C56</f>
         <v>214077</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10702,7 +10707,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="199">
+      <c r="D20" s="198">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10729,7 +10734,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10750,7 +10755,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="199">
+      <c r="D22" s="198">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10915,7 +10920,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="207">
+      <c r="I28" s="206">
         <f>Inputs!C77</f>
         <v>62012</v>
       </c>
@@ -10944,7 +10949,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="199">
+      <c r="D30" s="198">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10970,7 +10975,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="199">
+      <c r="D31" s="198">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10997,7 +11002,7 @@
         <f>Inputs!C62</f>
         <v>1681</v>
       </c>
-      <c r="D32" s="199">
+      <c r="D32" s="198">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -11024,7 +11029,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="199">
+      <c r="D33" s="198">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -11040,7 +11045,7 @@
       <c r="H33" s="86" t="s">
         <v>67</v>
       </c>
-      <c r="I33" s="206">
+      <c r="I33" s="205">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -11054,7 +11059,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="199">
+      <c r="D34" s="198">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -11081,7 +11086,7 @@
         <f>Inputs!C65</f>
         <v>101055</v>
       </c>
-      <c r="D35" s="199">
+      <c r="D35" s="198">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -11107,7 +11112,7 @@
         <f>Inputs!C66</f>
         <v>408424</v>
       </c>
-      <c r="D36" s="199">
+      <c r="D36" s="198">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -11134,7 +11139,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="199">
+      <c r="D37" s="198">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -11161,7 +11166,7 @@
         <f>Inputs!C68</f>
         <v>50190</v>
       </c>
-      <c r="D38" s="199">
+      <c r="D38" s="198">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -11182,7 +11187,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="199">
+      <c r="D39" s="198">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -11203,7 +11208,7 @@
         <f>Inputs!C70</f>
         <v>4338</v>
       </c>
-      <c r="D40" s="199">
+      <c r="D40" s="198">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -11224,7 +11229,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="199">
+      <c r="D41" s="198">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -11245,7 +11250,7 @@
         <f>Inputs!C72</f>
         <v>3743</v>
       </c>
-      <c r="D42" s="199">
+      <c r="D42" s="198">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -11391,7 +11396,7 @@
       <c r="H48" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="I48" s="208">
+      <c r="I48" s="207">
         <f>Inputs!C82</f>
         <v>145011</v>
       </c>
@@ -11500,11 +11505,11 @@
         <v>90</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="283">
+      <c r="D56" s="284">
         <f>I15+I34</f>
         <v>127087</v>
       </c>
-      <c r="E56" s="281"/>
+      <c r="E56" s="282"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11515,11 +11520,11 @@
         <v>91</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="282">
+      <c r="D57" s="283">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="281"/>
+      <c r="E57" s="282"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11531,11 +11536,11 @@
         <v>93</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="282">
+      <c r="D58" s="283">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="281"/>
+      <c r="E58" s="282"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11631,8 +11636,8 @@
       <c r="B64" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="C64" s="209"/>
-      <c r="D64" s="209"/>
+      <c r="C64" s="208"/>
+      <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>127087</v>
@@ -11712,8 +11717,8 @@
       <c r="B69" s="121" t="s">
         <v>153</v>
       </c>
-      <c r="C69" s="209"/>
-      <c r="D69" s="209"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
         <v>79936</v>
@@ -11749,19 +11754,19 @@
       <c r="B72" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="C72" s="270">
+      <c r="C72" s="271">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="270"/>
-      <c r="E72" s="284" t="s">
+      <c r="D72" s="271"/>
+      <c r="E72" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F72" s="284"/>
-      <c r="H72" s="284" t="s">
+      <c r="F72" s="285"/>
+      <c r="H72" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I72" s="284"/>
+      <c r="I72" s="285"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11771,18 +11776,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="271" t="s">
+      <c r="C73" s="272" t="s">
         <v>101</v>
       </c>
-      <c r="D73" s="271"/>
-      <c r="E73" s="285" t="s">
+      <c r="D73" s="272"/>
+      <c r="E73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="F73" s="271"/>
-      <c r="H73" s="285" t="s">
+      <c r="F73" s="272"/>
+      <c r="H73" s="286" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="271"/>
+      <c r="I73" s="272"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11793,17 +11798,17 @@
         <f>Data!C6</f>
         <v>71506</v>
       </c>
-      <c r="D74" s="210"/>
-      <c r="E74" s="239">
+      <c r="D74" s="209"/>
+      <c r="E74" s="238">
         <f>Inputs!E91</f>
         <v>71506</v>
       </c>
-      <c r="F74" s="210"/>
-      <c r="H74" s="239">
+      <c r="F74" s="209"/>
+      <c r="H74" s="238">
         <f>Inputs!F91</f>
         <v>71506</v>
       </c>
-      <c r="I74" s="210"/>
+      <c r="I74" s="209"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11814,23 +11819,23 @@
         <f>Data!C8</f>
         <v>39292</v>
       </c>
-      <c r="D75" s="160">
+      <c r="D75" s="159">
         <f>C75/$C$74</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="E75" s="239">
+      <c r="E75" s="238">
         <f>Inputs!E92</f>
         <v>39292</v>
       </c>
-      <c r="F75" s="161">
+      <c r="F75" s="160">
         <f>E75/E74</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="H75" s="239">
+      <c r="H75" s="238">
         <f>Inputs!F92</f>
         <v>39292</v>
       </c>
-      <c r="I75" s="161">
+      <c r="I75" s="160">
         <f>H75/$H$74</f>
         <v>0.54949235029228316</v>
       </c>
@@ -11840,21 +11845,21 @@
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C76" s="162">
+      <c r="C76" s="161">
         <f>C74-C75</f>
         <v>32214</v>
       </c>
-      <c r="D76" s="211"/>
-      <c r="E76" s="163">
+      <c r="D76" s="210"/>
+      <c r="E76" s="162">
         <f>E74-E75</f>
         <v>32214</v>
       </c>
-      <c r="F76" s="211"/>
-      <c r="H76" s="163">
+      <c r="F76" s="210"/>
+      <c r="H76" s="162">
         <f>H74-H75</f>
         <v>32214</v>
       </c>
-      <c r="I76" s="211"/>
+      <c r="I76" s="210"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11865,23 +11870,23 @@
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>7228</v>
       </c>
-      <c r="D77" s="160">
+      <c r="D77" s="159">
         <f>C77/$C$74</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="E77" s="239">
+      <c r="E77" s="238">
         <f>Inputs!E93</f>
         <v>7228</v>
       </c>
-      <c r="F77" s="161">
+      <c r="F77" s="160">
         <f>E77/E74</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="H77" s="239">
+      <c r="H77" s="238">
         <f>Inputs!F93</f>
         <v>7228</v>
       </c>
-      <c r="I77" s="161">
+      <c r="I77" s="160">
         <f>H77/$H$74</f>
         <v>0.10108242664951193</v>
       </c>
@@ -11895,54 +11900,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D78" s="160">
+      <c r="D78" s="159">
         <f>C78/$C$74</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="E78" s="181">
+      <c r="E78" s="180">
         <f>E74*F78</f>
         <v>730.718954248366</v>
       </c>
-      <c r="F78" s="161">
+      <c r="F78" s="160">
         <f>I78</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="H78" s="239">
+      <c r="H78" s="238">
         <f>Inputs!F97</f>
         <v>730.718954248366</v>
       </c>
-      <c r="I78" s="161">
+      <c r="I78" s="160">
         <f>H78/$H$74</f>
         <v>1.0218987976510586E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="257" t="s">
+      <c r="B79" s="256" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="258">
+      <c r="C79" s="257">
         <f>C76-C77-C78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="D79" s="259">
+      <c r="D79" s="258">
         <f>C79/C74</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="E79" s="260">
+      <c r="E79" s="259">
         <f>E76-E77-E78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="F79" s="259">
+      <c r="F79" s="258">
         <f>E79/E74</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="G79" s="261"/>
-      <c r="H79" s="260">
+      <c r="G79" s="260"/>
+      <c r="H79" s="259">
         <f>H76-H77-H78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="I79" s="259">
+      <c r="I79" s="258">
         <f>H79/H74</f>
         <v>0.33920623508169434</v>
       </c>
@@ -11956,27 +11961,27 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="160">
+      <c r="D80" s="159">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="181">
+      <c r="E80" s="180">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="161">
+      <c r="F80" s="160">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="239">
+      <c r="H80" s="238">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="161">
+      <c r="I80" s="160">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="182" t="s">
+      <c r="K80" s="181" t="s">
         <v>132</v>
       </c>
     </row>
@@ -11988,23 +11993,23 @@
         <f>MAX(Data!C17,0)</f>
         <v>4046</v>
       </c>
-      <c r="D81" s="160">
+      <c r="D81" s="159">
         <f>C81/$C$74</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="E81" s="181">
+      <c r="E81" s="180">
         <f>E74*F81</f>
         <v>4046</v>
       </c>
-      <c r="F81" s="161">
+      <c r="F81" s="160">
         <f>I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="H81" s="239">
+      <c r="H81" s="238">
         <f>Inputs!F94</f>
         <v>4046</v>
       </c>
-      <c r="I81" s="161">
+      <c r="I81" s="160">
         <f>H81/$H$74</f>
         <v>5.6582664391799292E-2</v>
       </c>
@@ -12018,23 +12023,23 @@
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>409</v>
       </c>
-      <c r="D82" s="160">
+      <c r="D82" s="159">
         <f>C82/$C$74</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="E82" s="239">
+      <c r="E82" s="238">
         <f>Inputs!E95</f>
         <v>409</v>
       </c>
-      <c r="F82" s="161">
+      <c r="F82" s="160">
         <f>E82/E74</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="H82" s="239">
+      <c r="H82" s="238">
         <f>Inputs!F95</f>
         <v>409</v>
       </c>
-      <c r="I82" s="161">
+      <c r="I82" s="160">
         <f>H82/$H$74</f>
         <v>5.719799737085E-3</v>
       </c>
@@ -12044,27 +12049,27 @@
       <c r="B83" s="105" t="s">
         <v>126</v>
       </c>
-      <c r="C83" s="164">
+      <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="D83" s="165">
+      <c r="D83" s="164">
         <f>C83/$C$74</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="E83" s="166">
+      <c r="E83" s="165">
         <f>E79-E81-E82-E80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="F83" s="165">
+      <c r="F83" s="164">
         <f>E83/E74</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="H83" s="166">
+      <c r="H83" s="165">
         <f>H79-H81-H82-H80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="I83" s="165">
+      <c r="I83" s="164">
         <f>H83/$H$74</f>
         <v>0.27690377095281005</v>
       </c>
@@ -12074,49 +12079,49 @@
       <c r="B84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="212"/>
-      <c r="D84" s="160">
+      <c r="C84" s="211"/>
+      <c r="D84" s="159">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="213"/>
-      <c r="F84" s="180">
+      <c r="E84" s="212"/>
+      <c r="F84" s="179">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="213"/>
-      <c r="I84" s="203">
+      <c r="H84" s="212"/>
+      <c r="I84" s="202">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="264" t="s">
+      <c r="B85" s="263" t="s">
         <v>165</v>
       </c>
-      <c r="C85" s="258">
+      <c r="C85" s="257">
         <f>C83*(1-I84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="D85" s="259">
+      <c r="D85" s="258">
         <f>C85/$C$74</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="E85" s="265">
+      <c r="E85" s="264">
         <f>E83*(1-F84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="F85" s="259">
+      <c r="F85" s="258">
         <f>E85/E74</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="G85" s="261"/>
-      <c r="H85" s="265">
+      <c r="G85" s="260"/>
+      <c r="H85" s="264">
         <f>H83*(1-I84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="I85" s="259">
+      <c r="I85" s="258">
         <f>H85/$H$74</f>
         <v>0.21183138477889971</v>
       </c>
@@ -12126,69 +12131,69 @@
       <c r="B86" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C86" s="168">
+      <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="D86" s="210"/>
-      <c r="E86" s="169">
+      <c r="D86" s="209"/>
+      <c r="E86" s="168">
         <f>E85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="F86" s="210"/>
-      <c r="H86" s="169">
+      <c r="F86" s="209"/>
+      <c r="H86" s="168">
         <f>H85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="I86" s="210"/>
+      <c r="I86" s="209"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C87" s="262">
+      <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6801004315159965E-2</v>
-      </c>
-      <c r="D87" s="210"/>
-      <c r="E87" s="263">
+        <v>6.7101137197192129E-2</v>
+      </c>
+      <c r="D87" s="209"/>
+      <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6801004315159965E-2</v>
-      </c>
-      <c r="F87" s="210"/>
-      <c r="H87" s="263">
+        <v>6.7101137197192129E-2</v>
+      </c>
+      <c r="F87" s="209"/>
+      <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.6801004315159965E-2</v>
-      </c>
-      <c r="I87" s="210"/>
+        <v>6.7101137197192129E-2</v>
+      </c>
+      <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="C88" s="170">
+      <c r="C88" s="169">
         <f>Inputs!C44</f>
         <v>3.75</v>
       </c>
-      <c r="D88" s="167">
+      <c r="D88" s="166">
         <f>C88/C86</f>
         <v>0.71740422430790074</v>
       </c>
-      <c r="E88" s="171">
+      <c r="E88" s="170">
         <f>Inputs!E98</f>
         <v>3.75</v>
       </c>
-      <c r="F88" s="167">
+      <c r="F88" s="166">
         <f>E88/E86</f>
         <v>0.71740422430790074</v>
       </c>
-      <c r="H88" s="171">
+      <c r="H88" s="170">
         <f>Inputs!F98</f>
         <v>3.75</v>
       </c>
-      <c r="I88" s="167">
+      <c r="I88" s="166">
         <f>H88/H86</f>
         <v>0.71740422430790074</v>
       </c>
@@ -12198,21 +12203,21 @@
       <c r="B89" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C89" s="262">
+      <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7923322683706068E-2</v>
-      </c>
-      <c r="D89" s="210"/>
-      <c r="E89" s="262">
+        <v>4.8138639281129651E-2</v>
+      </c>
+      <c r="D89" s="209"/>
+      <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7923322683706068E-2</v>
-      </c>
-      <c r="F89" s="210"/>
-      <c r="H89" s="262">
+        <v>4.8138639281129651E-2</v>
+      </c>
+      <c r="F89" s="209"/>
+      <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.7923322683706068E-2</v>
-      </c>
-      <c r="I89" s="210"/>
+        <v>4.8138639281129651E-2</v>
+      </c>
+      <c r="I89" s="209"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12234,22 +12239,22 @@
       <c r="B92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="199" t="str">
+      <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="E92" s="284" t="s">
+      <c r="E92" s="285" t="s">
         <v>207</v>
       </c>
-      <c r="F92" s="284"/>
+      <c r="F92" s="285"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="284" t="s">
+      <c r="H92" s="285" t="s">
         <v>206</v>
       </c>
-      <c r="I92" s="284"/>
+      <c r="I92" s="285"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12259,9 +12264,9 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.4500000000000002E-2</v>
-      </c>
-      <c r="D93" s="240">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D93" s="239">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
@@ -12269,15 +12274,15 @@
         <v>210</v>
       </c>
       <c r="F93" s="144">
-        <f>FV(E87,D93,0,-(E86/C93))*Exchange_Rate</f>
-        <v>111.97593638120861</v>
+        <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
+        <v>109.58505153718521</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
-        <f>FV(H87,D93,0,-(H86/C93))*Exchange_Rate</f>
-        <v>111.97593638120861</v>
+        <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
+        <v>109.58505153718521</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12285,24 +12290,27 @@
       <c r="B94" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C94" s="183">
+      <c r="C94" s="182">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="145"/>
+      <c r="D94" s="270">
+        <f>Inputs!D87</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
-        <f>FV(E89,D93,0,-(E88/C93))*Exchange_Rate</f>
-        <v>73.47153001034998</v>
+        <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
+        <v>71.875518257948457</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
-        <f>FV(H89,D93,0,-(H88/C93))*Exchange_Rate</f>
-        <v>73.47153001034998</v>
+        <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
+        <v>71.875518257948457</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12323,14 +12331,14 @@
       <c r="D96" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E96" s="184" t="str">
+      <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="228" t="s">
+      <c r="F96" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H96" s="184" t="str">
+      <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
@@ -12345,21 +12353,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>161324.73218814866</v>
-      </c>
-      <c r="D97" s="214"/>
+        <v>157880.1630278455</v>
+      </c>
+      <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>55.671830481978304</v>
-      </c>
-      <c r="F97" s="214"/>
+        <v>54.483138160752588</v>
+      </c>
+      <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>55.671830481978304</v>
+        <v>54.483138160752588</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>81.921212951179015</v>
+        <v>79.609572679264573</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12371,14 +12379,14 @@
         <f>E53*Exchange_Rate</f>
         <v>4354</v>
       </c>
-      <c r="D98" s="214"/>
-      <c r="E98" s="214"/>
-      <c r="F98" s="214"/>
+      <c r="D98" s="213"/>
+      <c r="E98" s="213"/>
+      <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>1.5025293805281801</v>
       </c>
-      <c r="I98" s="216"/>
+      <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -12389,17 +12397,17 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>-101168.1</v>
       </c>
-      <c r="D99" s="215"/>
-      <c r="E99" s="146">
+      <c r="D99" s="214"/>
+      <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-40.149115529523407</v>
       </c>
-      <c r="F99" s="215"/>
-      <c r="H99" s="146">
+      <c r="F99" s="214"/>
+      <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>-34.912274373498619</v>
       </c>
-      <c r="I99" s="217"/>
+      <c r="I99" s="216"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -12408,27 +12416,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>55802.632188148651</v>
+        <v>52358.063027845492</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>14.020185571926717</v>
+        <v>12.831493250701001</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>14.020185571926717</v>
+        <v>12.831493250701001</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>16.638606149939115</v>
+        <v>15.449913828713395</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.257026727951509</v>
+        <v>18.068334406725789</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>45.506409197152223</v>
+        <v>43.194768925237781</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12447,14 +12455,14 @@
       <c r="D102" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E102" s="184" t="str">
+      <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="228" t="s">
+      <c r="F102" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="184" t="str">
+      <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12469,27 +12477,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>105851.08984507072</v>
+        <v>103551.70145104322</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>31.049085113728712</v>
+        <v>30.374610188055524</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>36.528335427916133</v>
+        <v>35.734835515359443</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>36.528335427916133</v>
+        <v>35.734835515359443</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>36.528335427916133</v>
+        <v>35.734835515359443</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.751520642223319</v>
+        <v>52.214961934605938</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12508,14 +12516,14 @@
       <c r="D105" s="124" t="s">
         <v>214</v>
       </c>
-      <c r="E105" s="185" t="str">
+      <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="228" t="s">
+      <c r="F105" s="227" t="s">
         <v>238</v>
       </c>
-      <c r="H105" s="185" t="str">
+      <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
@@ -12530,27 +12538,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>73239.253516609679</v>
+        <v>70367.274739444358</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>22.534635342827713</v>
+        <v>21.603051719378264</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>25.274260499921425</v>
+        <v>24.283164383030222</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>26.583470788927624</v>
+        <v>25.592374672036421</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>27.892681077933823</v>
+        <v>26.901584961042616</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>49.628964919687775</v>
+        <v>47.70486542992186</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB0A1C14-2F6D-44FF-99DA-C2E6774B048E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F6B82A-2FFC-420D-BB60-CCC0EC86254F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3574,7 +3574,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:F98"/>
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4165,11 +4165,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8138639281129651E-2</v>
+        <v>4.8355899419729211E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3543003851091143E-2</v>
+        <v>6.3829787234042562E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4622,7 +4622,9 @@
       <c r="C87" s="236" t="s">
         <v>252</v>
       </c>
-      <c r="D87" s="269"/>
+      <c r="D87" s="269">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
@@ -4934,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77.900000000000006</v>
+        <v>77.55</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4975,7 +4977,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>225737.08334460002</v>
+        <v>224722.86024869999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5070,10 +5072,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="D12" s="172">
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5120,7 +5122,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>7.1999999999999995E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5191,7 +5193,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.36941220143747616</v>
+        <v>0.36775245470444512</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5207,7 +5209,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.902877086289459</v>
+        <v>14.835919358687388</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5239,7 +5241,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8138639281129651E-2</v>
+        <v>4.8355899419729211E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5269,20 +5271,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.831493250701001</v>
+        <v>12.908848388336494</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>49.673984264023446</v>
+        <v>41.667156338782434</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.449913828713395</v>
+        <v>15.527268966348883</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>43.194768925237781</v>
+        <v>36.232309859810812</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12154,17 +12156,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7101137197192129E-2</v>
+        <v>6.7403979209042786E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7101137197192129E-2</v>
+        <v>6.7403979209042786E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7101137197192129E-2</v>
+        <v>6.7403979209042786E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12205,17 +12207,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8138639281129651E-2</v>
+        <v>4.8355899419729211E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8138639281129651E-2</v>
+        <v>4.8355899419729211E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8138639281129651E-2</v>
+        <v>4.8355899419729211E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12264,7 +12266,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>6.6000000000000003E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12275,14 +12277,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>109.58505153718521</v>
+        <v>109.74064034925841</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>109.58505153718521</v>
+        <v>109.74064034925841</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12296,21 +12298,21 @@
       </c>
       <c r="D94" s="270">
         <f>Inputs!D87</f>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>71.875518257948457</v>
+        <v>71.950041605872286</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>71.875518257948457</v>
+        <v>71.950041605872286</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12353,21 +12355,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>157880.1630278455</v>
+        <v>158104.32121977815</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.483138160752588</v>
+        <v>54.560493298388081</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.483138160752588</v>
+        <v>54.560493298388081</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>79.609572679264573</v>
+        <v>72.647113613837604</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12416,27 +12418,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>52358.063027845492</v>
+        <v>52582.221219778148</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.831493250701001</v>
+        <v>12.908848388336494</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.831493250701001</v>
+        <v>12.908848388336494</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.449913828713395</v>
+        <v>15.527268966348883</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.068334406725789</v>
+        <v>18.145689544361272</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>43.194768925237781</v>
+        <v>36.232309859810812</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12477,27 +12479,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>103551.70145104322</v>
+        <v>103659.06790435553</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>30.374610188055524</v>
+        <v>30.406103771656149</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>35.734835515359443</v>
+        <v>35.771886790183707</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>35.734835515359443</v>
+        <v>35.771886790183707</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>35.734835515359443</v>
+        <v>35.771886790183707</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>52.214961934605938</v>
+        <v>47.630147139901112</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12538,27 +12540,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>70367.274739444358</v>
+        <v>70533.037062066855</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>21.603051719378264</v>
+        <v>21.657476079996322</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>24.283164383030222</v>
+        <v>24.340367589260101</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>25.592374672036421</v>
+        <v>25.649577878266296</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>26.901584961042616</v>
+        <v>26.958788167272488</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>47.70486542992186</v>
+        <v>41.931228499855962</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02F6B82A-2FFC-420D-BB60-CCC0EC86254F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B785FB-F6E6-4AE0-9FFF-EB27DE14C63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4165,11 +4165,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8355899419729211E-2</v>
+        <v>4.9212598425196846E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3829787234042562E-2</v>
+        <v>6.4960629921259838E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4936,7 +4936,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77.55</v>
+        <v>76.2</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>266</v>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>224722.86024869999</v>
+        <v>220810.85687880003</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.36775245470444512</v>
+        <v>0.36135057444846835</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.835919358687388</v>
+        <v>14.577653837936545</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5241,7 +5241,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8355899419729211E-2</v>
+        <v>4.9212598425196846E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5271,20 +5271,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>12.908848388336494</v>
+        <v>13.214731533770916</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>41.667156338782434</v>
+        <v>42.135531076928871</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.527268966348883</v>
+        <v>15.833152111783313</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>36.232309859810812</v>
+        <v>36.639592240807715</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12156,17 +12156,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7403979209042786E-2</v>
+        <v>6.8598144195029756E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7403979209042786E-2</v>
+        <v>6.8598144195029756E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7403979209042786E-2</v>
+        <v>6.8598144195029756E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12207,17 +12207,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8355899419729211E-2</v>
+        <v>4.9212598425196846E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8355899419729211E-2</v>
+        <v>4.9212598425196846E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8355899419729211E-2</v>
+        <v>4.9212598425196846E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12277,14 +12277,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>109.74064034925841</v>
+        <v>110.35588061236305</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>109.74064034925841</v>
+        <v>110.35588061236305</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12305,14 +12305,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>71.950041605872286</v>
+        <v>72.244504359767745</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>71.950041605872286</v>
+        <v>72.244504359767745</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12355,21 +12355,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>158104.32121977815</v>
+        <v>158990.70336476713</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.560493298388081</v>
+        <v>54.866376443822503</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.560493298388081</v>
+        <v>54.866376443822503</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>72.647113613837604</v>
+        <v>73.054395994834508</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12418,27 +12418,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>52582.221219778148</v>
+        <v>53468.603364767128</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>12.908848388336494</v>
+        <v>13.214731533770916</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>12.908848388336494</v>
+        <v>13.214731533770916</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.527268966348883</v>
+        <v>15.833152111783313</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.145689544361272</v>
+        <v>18.451572689795711</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.232309859810812</v>
+        <v>36.639592240807715</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12479,27 +12479,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>103659.06790435553</v>
+        <v>104083.30302528231</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>30.406103771656149</v>
+        <v>30.530543797707537</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>35.771886790183707</v>
+        <v>35.9182868208324</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>35.771886790183707</v>
+        <v>35.9182868208324</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>35.771886790183707</v>
+        <v>35.9182868208324</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>47.630147139901112</v>
+        <v>47.825078289101675</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12540,27 +12540,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>70533.037062066855</v>
+        <v>71188.34569502472</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>21.657476079996322</v>
+        <v>21.872637665739227</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>24.340367589260101</v>
+        <v>24.566509177301658</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>25.649577878266296</v>
+        <v>25.875719466307856</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>26.958788167272488</v>
+        <v>27.184929755314055</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>41.931228499855962</v>
+        <v>42.232335264954699</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B785FB-F6E6-4AE0-9FFF-EB27DE14C63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34152B26-B83A-4FA0-9E13-DE8B0A375263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
   <si>
     <t>Company Info:</t>
   </si>
@@ -938,6 +938,14 @@
   </si>
   <si>
     <t>Normalized PE Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>LT AR or Prepayments</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prepayments or Contract Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3574,7 +3582,7 @@
   <dimension ref="A2:M98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3595,7 +3603,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3603,7 +3611,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3636,7 +3644,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3701,7 +3709,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3746,7 +3754,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4165,11 +4173,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9212598425196846E-2</v>
+        <v>4.8449612403100771E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4960629921259838E-2</v>
+        <v>6.3953488372093026E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4292,7 +4300,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4410,7 +4418,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>261</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4936,10 +4944,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>76.2</v>
+        <v>77.400000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4977,7 +4985,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>220810.85687880003</v>
+        <v>224288.19320760001</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5072,10 +5080,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5122,7 +5130,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>9.1999999999999998E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5193,7 +5201,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.36135057444846835</v>
+        <v>0.3670411346760033</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5209,7 +5217,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.577653837936545</v>
+        <v>14.807223189715073</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5241,7 +5249,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.9212598425196846E-2</v>
+        <v>4.8449612403100771E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5271,20 +5279,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>13.214731533770916</v>
+        <v>22.255552040847185</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>42.135531076928871</v>
+        <v>63.076119907850369</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>15.833152111783313</v>
+        <v>26.183002400996688</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>36.639592240807715</v>
+        <v>54.84879991986989</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12156,17 +12164,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8598144195029756E-2</v>
+        <v>6.7534607075726963E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8598144195029756E-2</v>
+        <v>6.7534607075726963E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8598144195029756E-2</v>
+        <v>6.7534607075726963E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12207,17 +12215,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9212598425196846E-2</v>
+        <v>4.8449612403100771E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9212598425196846E-2</v>
+        <v>4.8449612403100771E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9212598425196846E-2</v>
+        <v>4.8449612403100771E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12266,7 +12274,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.5999999999999993E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12277,14 +12285,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>110.35588061236305</v>
+        <v>131.17312638112134</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>110.35588061236305</v>
+        <v>131.17312638112134</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12305,14 +12313,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>72.244504359767745</v>
+        <v>85.987793092251579</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>72.244504359767745</v>
+        <v>85.987793092251579</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12355,21 +12363,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>158990.70336476713</v>
+        <v>188982.29537170284</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>54.866376443822503</v>
+        <v>65.216226733035882</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>54.866376443822503</v>
+        <v>65.216226733035882</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>73.054395994834508</v>
+        <v>91.263603673896682</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12418,27 +12426,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>53468.603364767128</v>
+        <v>83460.195371702837</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>13.214731533770916</v>
+        <v>22.255552040847185</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>13.214731533770916</v>
+        <v>23.564581822984294</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>15.833152111783313</v>
+        <v>26.183002400996688</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>18.451572689795711</v>
+        <v>28.801422979009082</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>36.639592240807715</v>
+        <v>54.84879991986989</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12479,27 +12487,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>104083.30302528231</v>
+        <v>123883.38191548594</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>30.530543797707537</v>
+        <v>36.338460708343909</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>35.9182868208324</v>
+        <v>42.751130245110481</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>35.9182868208324</v>
+        <v>42.751130245110481</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>35.9182868208324</v>
+        <v>42.751130245110481</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>47.825078289101675</v>
+        <v>59.825942142778054</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12540,27 +12548,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>71188.34569502472</v>
+        <v>96084.181143594382</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>21.872637665739227</v>
+        <v>29.297006374595547</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>24.566509177301658</v>
+        <v>33.157856034047384</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>25.875719466307856</v>
+        <v>34.467066323053587</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>27.184929755314055</v>
+        <v>35.776276612059782</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>42.232335264954699</v>
+        <v>57.337371031323968</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{34152B26-B83A-4FA0-9E13-DE8B0A375263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB444E4-51F4-4959-BB18-20A40F42D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -946,6 +946,10 @@
   </si>
   <si>
     <t>Prepayments or Contract Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ΔWC/Δsales</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -3581,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3603,7 +3607,7 @@
         <v>195</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3611,7 +3615,7 @@
         <v>196</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3644,7 +3648,7 @@
         <v>217</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3709,7 +3713,7 @@
         <v>225</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -3754,7 +3758,7 @@
         <v>231</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -4173,11 +4177,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.8449612403100771E-2</v>
+        <v>4.9019607843137254E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.3953488372093026E-2</v>
+        <v>6.4705882352941183E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4944,10 +4948,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>77.400000000000006</v>
+        <v>76.5</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4985,7 +4989,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>224288.19320760001</v>
+        <v>221680.19096099999</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5055,7 +5059,7 @@
         <v>176</v>
       </c>
       <c r="C10" s="172">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
         <v>183</v>
@@ -5066,7 +5070,7 @@
         <v>180</v>
       </c>
       <c r="C11" s="173">
-        <v>5.3099999999999994E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
         <v>190</v>
@@ -5093,7 +5097,7 @@
         <v>177</v>
       </c>
       <c r="C14" s="172">
-        <v>2.1309999999999999E-2</v>
+        <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
         <v>182</v>
@@ -5201,7 +5205,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.3670411346760033</v>
+        <v>0.36277321450535205</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5217,7 +5221,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.807223189715073</v>
+        <v>14.635046175881175</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5249,7 +5253,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.8449612403100771E-2</v>
+        <v>4.9019607843137254E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5279,20 +5283,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>22.255552040847185</v>
+        <v>22.46214548887022</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>63.076119907850369</v>
+        <v>63.467264566752085</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>26.183002400996688</v>
+        <v>26.426053516317907</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>54.84879991986989</v>
+        <v>55.188925710219209</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -5327,8 +5331,8 @@
         <v>226</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
@@ -6354,12 +6358,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N930"/>
+  <dimension ref="A1:N931"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="B19" sqref="B19"/>
+      <selection pane="topRight" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -8785,118 +8789,119 @@
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
+      <c r="A52" s="4"/>
+      <c r="B52" s="94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="153">
+        <f>IF(D6="","",C16/(C6-D6))</f>
+        <v>-7.2636655948553051</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="16"/>
+      <c r="B53" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36"/>
-      <c r="H52" s="36"/>
-      <c r="I52" s="36"/>
-      <c r="J52" s="36"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
+      <c r="J53" s="36"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="4"/>
+      <c r="B54" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="156">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
         <v>0.25305527237701292</v>
       </c>
-      <c r="D53" s="156" t="str">
-        <f t="shared" ref="D53:M53" si="43">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M53" s="156" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="157">
-        <f t="shared" ref="C54:M54" si="44">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.15580099495425681</v>
-      </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
+        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
+        <v/>
+      </c>
+      <c r="E54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8904,107 +8909,154 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="153">
-        <f t="shared" ref="C55:M55" si="45">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.20434053388692244</v>
-      </c>
-      <c r="D55" s="153">
+        <v>121</v>
+      </c>
+      <c r="C55" s="157">
+        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.15580099495425681</v>
+      </c>
+      <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
-        <v>0.13446497443458727</v>
-      </c>
-      <c r="E55" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="157" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="94" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="153">
+        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.20434053388692244</v>
+      </c>
+      <c r="D56" s="153">
+        <f t="shared" si="46"/>
+        <v>0.13446497443458727</v>
+      </c>
+      <c r="E56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M56" s="153" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="4"/>
+      <c r="B57" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="158">
-        <f t="shared" ref="C56:M56" si="46">IF(C28="","",C28/C31)</f>
+      <c r="C57" s="158">
+        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
         <v>4.0099174353350966</v>
       </c>
-      <c r="D56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="158" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="4"/>
-    </row>
+      <c r="D57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="E57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="158" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
@@ -9572,7 +9624,9 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A248" s="4"/>
+    </row>
     <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10255,6 +10309,7 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -12164,17 +12219,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7534607075726963E-2</v>
+        <v>6.8329131864853176E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7534607075726963E-2</v>
+        <v>6.8329131864853176E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.7534607075726963E-2</v>
+        <v>6.8329131864853176E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12215,17 +12270,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8449612403100771E-2</v>
+        <v>4.9019607843137254E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8449612403100771E-2</v>
+        <v>4.9019607843137254E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.8449612403100771E-2</v>
+        <v>4.9019607843137254E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12285,14 +12340,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>131.17312638112134</v>
+        <v>131.66198898885256</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>131.17312638112134</v>
+        <v>131.66198898885256</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12313,14 +12368,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>85.987793092251579</v>
+        <v>86.221786077506422</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>85.987793092251579</v>
+        <v>86.221786077506422</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12363,21 +12418,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>188982.29537170284</v>
+        <v>189686.60409925436</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>65.216226733035882</v>
+        <v>65.459277848357104</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>65.216226733035882</v>
+        <v>65.459277848357104</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>91.263603673896682</v>
+        <v>91.603729464246001</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12426,27 +12481,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>83460.195371702837</v>
+        <v>84164.504099254351</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.255552040847185</v>
+        <v>22.46214548887022</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>23.564581822984294</v>
+        <v>23.807632938305517</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>26.183002400996688</v>
+        <v>26.426053516317907</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>28.801422979009082</v>
+        <v>29.044474094330297</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97-H98+H99,0)</f>
-        <v>54.84879991986989</v>
+        <v>55.188925710219209</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12487,27 +12542,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>123883.38191548594</v>
+        <v>124220.49770035985</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>36.338460708343909</v>
+        <v>36.437346196561855</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>42.751130245110481</v>
+        <v>42.867466113602184</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>42.751130245110481</v>
+        <v>42.867466113602184</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>42.751130245110481</v>
+        <v>42.867466113602184</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>59.825942142778054</v>
+        <v>59.988742585657825</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12548,27 +12603,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>96084.181143594382</v>
+        <v>96604.893399807115</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>29.297006374595547</v>
+        <v>29.449745842716037</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>33.157856034047384</v>
+        <v>33.337549525953847</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>34.467066323053587</v>
+        <v>34.646759814960049</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>35.776276612059782</v>
+        <v>35.955970103966237</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>57.337371031323968</v>
+        <v>57.588834147938513</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AB444E4-51F4-4959-BB18-20A40F42D7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DDBC49-AD28-4DB3-9EDD-2BF3A928249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10349,8 +10349,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -12441,15 +12441,15 @@
         <v>145</v>
       </c>
       <c r="C98" s="91">
-        <f>E53*Exchange_Rate</f>
-        <v>4354</v>
+        <f>-E53*Exchange_Rate</f>
+        <v>-4354</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>1.5025293805281801</v>
+        <v>-1.5025293805281801</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12480,7 +12480,7 @@
         <v>115</v>
       </c>
       <c r="C100" s="91">
-        <f>C97-C98+$C$99</f>
+        <f>C97+C98+$C$99</f>
         <v>84164.504099254351</v>
       </c>
       <c r="D100" s="109">
@@ -12488,7 +12488,7 @@
         <v>22.46214548887022</v>
       </c>
       <c r="E100" s="109">
-        <f>MAX(E97-H98+E99,0)</f>
+        <f>MAX(E97+H98+E99,0)</f>
         <v>23.807632938305517</v>
       </c>
       <c r="F100" s="109">
@@ -12500,7 +12500,7 @@
         <v>29.044474094330297</v>
       </c>
       <c r="I100" s="109">
-        <f>MAX(I97-H98+H99,0)</f>
+        <f>MAX(I97+H98+H99,0)</f>
         <v>55.188925710219209</v>
       </c>
       <c r="K100" s="24"/>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78DDBC49-AD28-4DB3-9EDD-2BF3A928249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4160EF5-3895-4D8D-96B3-A2595C25186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4177,11 +4177,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9019607843137254E-2</v>
+        <v>4.9537648612945837E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.4705882352941183E-2</v>
+        <v>6.5389696169088504E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>76.5</v>
+        <v>75.7</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>221680.19096099999</v>
+        <v>219361.96674180002</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.36277321450535205</v>
+        <v>0.35897950768699544</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.635046175881175</v>
+        <v>14.481999941362158</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.9019607843137254E-2</v>
+        <v>4.9537648612945837E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5283,20 +5283,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>22.46214548887022</v>
+        <v>22.650441957538057</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>63.467264566752085</v>
+        <v>63.823767440944238</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>26.426053516317907</v>
+        <v>26.647578773574185</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>55.188925710219209</v>
+        <v>55.498928209516734</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12219,17 +12219,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8329131864853176E-2</v>
+        <v>6.9051236296714238E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8329131864853176E-2</v>
+        <v>6.9051236296714238E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.8329131864853176E-2</v>
+        <v>6.9051236296714238E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12270,17 +12270,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9019607843137254E-2</v>
+        <v>4.9537648612945837E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9019607843137254E-2</v>
+        <v>4.9537648612945837E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9019607843137254E-2</v>
+        <v>4.9537648612945837E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12340,14 +12340,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>131.66198898885256</v>
+        <v>132.10755540724776</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>131.66198898885256</v>
+        <v>132.10755540724776</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12368,14 +12368,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>86.221786077506422</v>
+        <v>86.434892378850435</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>86.221786077506422</v>
+        <v>86.434892378850435</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12418,21 +12418,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>189686.60409925436</v>
+        <v>190328.53561992437</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>65.459277848357104</v>
+        <v>65.680803105613379</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>65.459277848357104</v>
+        <v>65.680803105613379</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>91.603729464246001</v>
+        <v>91.913731963543526</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12481,27 +12481,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>84164.504099254351</v>
+        <v>84806.435619924363</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.46214548887022</v>
+        <v>22.650441957538057</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>23.807632938305517</v>
+        <v>24.029158195561799</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>26.426053516317907</v>
+        <v>26.647578773574185</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>29.044474094330297</v>
+        <v>29.265999351586572</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>55.188925710219209</v>
+        <v>55.498928209516734</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12542,27 +12542,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>124220.49770035985</v>
+        <v>124527.52185307504</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>36.437346196561855</v>
+        <v>36.52740496745951</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>42.867466113602184</v>
+        <v>42.973417608775897</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>42.867466113602184</v>
+        <v>42.973417608775897</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>42.867466113602184</v>
+        <v>42.973417608775897</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>59.988742585657825</v>
+        <v>60.137011133971306</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12603,27 +12603,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>96604.893399807115</v>
+        <v>97079.371236499719</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>29.449745842716037</v>
+        <v>29.588923462498784</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>33.337549525953847</v>
+        <v>33.501287902168848</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>34.646759814960049</v>
+        <v>34.810498191175043</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>35.955970103966237</v>
+        <v>36.119708480181231</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>57.588834147938513</v>
+        <v>57.817969671744024</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4160EF5-3895-4D8D-96B3-A2595C25186B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8518D7CD-239D-4479-97D0-B3ADB867BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4177,11 +4177,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9537648612945837E-2</v>
+        <v>4.9570389953734299E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5389696169088504E-2</v>
+        <v>6.5432914738929274E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4948,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>75.7</v>
+        <v>75.650000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>219361.96674180002</v>
+        <v>219217.0777281</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5084,10 +5084,10 @@
         <v>255</v>
       </c>
       <c r="C12" s="174">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D12" s="172">
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
     </row>
@@ -5134,7 +5134,7 @@
         <v>256</v>
       </c>
       <c r="C17" s="175">
-        <v>8.0500000000000002E-2</v>
+        <v>8.6249999999999993E-2</v>
       </c>
       <c r="D17" s="176"/>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35897950768699544</v>
+        <v>0.3587424010108482</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.481999941362158</v>
+        <v>14.472434551704719</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5253,7 +5253,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.9537648612945837E-2</v>
+        <v>4.9570389953734299E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5283,20 +5283,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>22.650441957538057</v>
+        <v>17.711543695663313</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>63.823767440944238</v>
+        <v>52.100429457608797</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>26.647578773574185</v>
+        <v>20.837110230192135</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>55.498928209516734</v>
+        <v>45.304721267485917</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12219,17 +12219,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9051236296714238E-2</v>
+        <v>6.9096874919514439E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9051236296714238E-2</v>
+        <v>6.9096874919514439E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9051236296714238E-2</v>
+        <v>6.9096874919514439E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12270,17 +12270,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9537648612945837E-2</v>
+        <v>4.9570389953734299E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9537648612945837E-2</v>
+        <v>4.9570389953734299E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9537648612945837E-2</v>
+        <v>4.9570389953734299E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="C93" s="136">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.5250000000000011E-2</v>
+        <v>8.0625000000000002E-2</v>
       </c>
       <c r="D93" s="239">
         <f>Inputs!C86</f>
@@ -12340,14 +12340,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>132.10755540724776</v>
+        <v>120.42062773977361</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>132.10755540724776</v>
+        <v>120.42062773977361</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12368,14 +12368,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>86.434892378850435</v>
+        <v>78.783880188412866</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>86.434892378850435</v>
+        <v>78.783880188412866</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12418,21 +12418,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>190328.53561992437</v>
+        <v>173491.07449221436</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>65.680803105613379</v>
+        <v>59.870334562231328</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>65.680803105613379</v>
+        <v>59.870334562231328</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>91.913731963543526</v>
+        <v>81.719525021512709</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12481,27 +12481,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>84806.435619924363</v>
+        <v>67968.974492214358</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>22.650441957538057</v>
+        <v>17.711543695663313</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>24.029158195561799</v>
+        <v>18.218689652179741</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>26.647578773574185</v>
+        <v>20.837110230192135</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>29.265999351586572</v>
+        <v>23.455530808204529</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>55.498928209516734</v>
+        <v>45.304721267485917</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12542,27 +12542,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>124527.52185307504</v>
+        <v>113504.64021903732</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>36.52740496745951</v>
+        <v>33.29408549427572</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>42.973417608775897</v>
+        <v>39.16951234620673</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>42.973417608775897</v>
+        <v>39.16951234620673</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>42.973417608775897</v>
+        <v>39.16951234620673</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>60.137011133971306</v>
+        <v>53.46410651721262</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12603,27 +12603,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>97079.371236499719</v>
+        <v>83149.199855625848</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>29.588923462498784</v>
+        <v>25.502814594969514</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>33.501287902168848</v>
+        <v>28.694100999193235</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>34.810498191175043</v>
+        <v>30.003311288199434</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>36.119708480181231</v>
+        <v>31.312521577205629</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>57.817969671744024</v>
+        <v>49.384413892349272</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8518D7CD-239D-4479-97D0-B3ADB867BE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F893375D-CC3A-4A60-8FD4-3F1A914BE240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4177,11 +4188,11 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9570389953734299E-2</v>
+        <v>4.9966688874083946E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5432914738929274E-2</v>
+        <v>6.5956029313790812E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4948,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>75.650000000000006</v>
+        <v>75.05</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>269</v>
@@ -4989,7 +5000,7 @@
       </c>
       <c r="G5" s="275">
         <f>G3*G4/1000000</f>
-        <v>219217.0777281</v>
+        <v>217478.40956369997</v>
       </c>
       <c r="H5" s="275"/>
       <c r="I5" s="38"/>
@@ -5205,7 +5216,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.3587424010108482</v>
+        <v>0.35589712089708064</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5221,7 +5232,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.472434551704719</v>
+        <v>14.357649875815454</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5253,7 +5264,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.9570389953734299E-2</v>
+        <v>4.9966688874083946E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5283,20 +5294,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.711543695663313</v>
+        <v>17.843154431731254</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>52.100429457608797</v>
+        <v>52.343473165030304</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.837110230192135</v>
+        <v>20.991946390272062</v>
       </c>
       <c r="G29" s="274">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.304721267485917</v>
+        <v>45.516063621765483</v>
       </c>
       <c r="H29" s="274"/>
     </row>
@@ -12219,17 +12230,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9096874919514439E-2</v>
+        <v>6.9649281647718428E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9096874919514439E-2</v>
+        <v>6.9649281647718428E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9096874919514439E-2</v>
+        <v>6.9649281647718428E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12270,17 +12281,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9570389953734299E-2</v>
+        <v>4.9966688874083946E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9570389953734299E-2</v>
+        <v>4.9966688874083946E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9570389953734299E-2</v>
+        <v>4.9966688874083946E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12340,14 +12351,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.42062773977361</v>
+        <v>120.73205856323527</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.42062773977361</v>
+        <v>120.73205856323527</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12368,14 +12379,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>78.783880188412866</v>
+        <v>78.93272943935456</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>211</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>78.783880188412866</v>
+        <v>78.93272943935456</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12418,21 +12429,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>173491.07449221436</v>
+        <v>173939.75566259588</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>59.870334562231328</v>
+        <v>60.025170722311252</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>59.870334562231328</v>
+        <v>60.025170722311252</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>81.719525021512709</v>
+        <v>81.930867375792275</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12481,27 +12492,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>67968.974492214358</v>
+        <v>68417.655662595876</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.711543695663313</v>
+        <v>17.843154431731254</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>18.218689652179741</v>
+        <v>18.373525812259665</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>20.837110230192135</v>
+        <v>20.991946390272062</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.455530808204529</v>
+        <v>23.610366968284456</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.304721267485917</v>
+        <v>45.516063621765483</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12542,27 +12553,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>113504.64021903732</v>
+        <v>113719.0886650215</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.29408549427572</v>
+        <v>33.356989221215287</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.16951234620673</v>
+        <v>39.243516730841513</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>39.16951234620673</v>
+        <v>39.243516730841513</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.16951234620673</v>
+        <v>39.243516730841513</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.46410651721262</v>
+        <v>53.565118198641898</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12603,27 +12614,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>83149.199855625848</v>
+        <v>83480.764663808703</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>25.502814594969514</v>
+        <v>25.600071826473268</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>28.694100999193235</v>
+        <v>28.808521271550589</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>30.003311288199434</v>
+        <v>30.117731560556788</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>31.312521577205629</v>
+        <v>31.426941849562986</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>49.384413892349272</v>
+        <v>49.54059091020369</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F893375D-CC3A-4A60-8FD4-3F1A914BE240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B73459-9471-40E4-86B0-22B7D0931F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -129,15 +126,9 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
   </si>
   <si>
-    <t>Orderly Liquidation Value per Shares =</t>
-  </si>
-  <si>
     <t>Book Quick Ratio</t>
   </si>
   <si>
@@ -452,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -552,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -920,10 +903,6 @@
     <t>Profit</t>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -961,6 +940,42 @@
   </si>
   <si>
     <t>ΔWC/Δsales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minority interests</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1540,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2180,6 +2195,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,7 +3621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3610,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -3647,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>2897780274</v>
@@ -3672,7 +3697,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3696,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3704,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.23499999999999999</v>
@@ -3721,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3844,7 +3869,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>39292</v>
@@ -3864,7 +3889,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <f>3906+3322</f>
@@ -3886,7 +3911,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3902,7 +3927,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C29" s="150">
         <v>4046</v>
@@ -3922,7 +3947,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>559</v>
@@ -3942,7 +3967,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150">
         <v>-2259</v>
@@ -3962,7 +3987,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150">
         <v>4805</v>
@@ -3982,7 +4007,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150">
         <v>4396</v>
@@ -4018,7 +4043,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4034,7 +4059,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4066,7 +4091,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4114,7 +4139,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4130,7 +4155,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>139</v>
+        <v>258</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4146,7 +4171,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4162,7 +4187,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <f>0.95+2.8</f>
@@ -4184,15 +4209,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>4.9966688874083946E-2</v>
+        <v>5.0234427327528461E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.5956029313790812E-2</v>
+        <v>6.6309444072337576E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4233,21 +4258,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C47" s="194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E47" s="111" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59">
         <v>16221</v>
@@ -4259,7 +4284,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -4269,7 +4294,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59">
         <v>17115</v>
@@ -4282,7 +4307,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4292,7 +4317,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59">
         <v>748</v>
@@ -4304,7 +4329,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4315,7 +4340,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4325,7 +4350,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59">
         <v>502</v>
@@ -4338,7 +4363,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59">
         <v>214077</v>
@@ -4348,24 +4373,24 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
@@ -4376,7 +4401,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4387,7 +4412,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4398,7 +4423,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
@@ -4409,7 +4434,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59">
         <v>1681</v>
@@ -4422,7 +4447,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4433,7 +4458,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4443,7 +4468,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59">
         <f>7954+93101</f>
@@ -4453,12 +4478,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59">
         <v>408424</v>
@@ -4467,12 +4492,12 @@
         <v>0.2</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
@@ -4480,12 +4505,12 @@
         <v>0.1</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59">
         <v>50190</v>
@@ -4498,7 +4523,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4509,7 +4534,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59">
         <v>4338</v>
@@ -4521,7 +4546,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4532,7 +4557,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247">
         <v>3743</v>
@@ -4544,7 +4569,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59">
         <v>10498</v>
@@ -4552,19 +4577,19 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120"/>
     </row>
@@ -4578,7 +4603,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59">
         <v>116589</v>
@@ -4586,25 +4611,25 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83">
         <v>145011</v>
@@ -4612,7 +4637,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59">
         <v>606717</v>
@@ -4620,19 +4645,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4640,10 +4665,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4651,18 +4676,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C89" s="271">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4671,20 +4696,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="272"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4702,7 +4727,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4723,7 +4748,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4744,7 +4769,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4762,7 +4787,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4783,7 +4808,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4801,7 +4826,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4819,7 +4844,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4947,62 +4972,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="C3" s="277" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>75.05</v>
+        <v>74.650000000000006</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="279" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>2897780274</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C5" s="281">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="275">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>217478.40956369997</v>
-      </c>
-      <c r="H5" s="275"/>
+        <v>216319.29745410001</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5025,16 +5050,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5059,40 +5084,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5105,29 +5130,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5137,12 +5162,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5152,29 +5177,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.54949235029228316</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5182,7 +5207,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5193,58 +5218,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>1.0218987976510586E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35589712089708064</v>
+        <v>0.35400026748790242</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.357649875815454</v>
+        <v>14.281126758555946</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>5.719799737085E-3</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5253,18 +5278,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.27690377095281005</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>4.9966688874083946E-2</v>
+        <v>5.0234427327528461E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5274,62 +5299,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="G28" s="273" t="s">
-        <v>259</v>
-      </c>
-      <c r="H28" s="273"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.843154431731254</v>
+        <v>17.932224298919106</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>52.343473165030304</v>
+        <v>52.507957244275175</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>20.991946390272062</v>
-      </c>
-      <c r="G29" s="274">
+        <v>21.096734469316594</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.516063621765483</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>45.659093255891463</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5339,25 +5364,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5367,7 +5392,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5377,14 +5402,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5394,7 +5419,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5409,14 +5434,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6369,12 +6394,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D52" sqref="D52"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6401,16 +6426,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="147" t="s">
         <v>200</v>
-      </c>
-      <c r="F2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>204</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>205</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6428,7 +6453,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6461,7 +6486,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6472,7 +6497,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6624,7 +6649,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6675,7 +6700,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6726,7 +6751,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6777,7 +6802,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6828,7 +6853,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6879,7 +6904,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6930,7 +6955,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6981,7 +7006,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7032,7 +7057,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7083,7 +7108,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7134,7 +7159,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7185,7 +7210,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7236,7 +7261,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7287,7 +7312,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7338,7 +7363,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7389,7 +7414,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7440,7 +7465,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7491,7 +7516,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7542,7 +7567,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7695,7 +7720,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7746,7 +7771,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7848,7 +7873,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -8052,7 +8077,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8103,7 +8128,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8154,7 +8179,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8205,7 +8230,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8256,7 +8281,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8307,7 +8332,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8325,7 +8350,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8376,7 +8401,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8427,7 +8452,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8478,7 +8503,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8529,7 +8554,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8580,7 +8605,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8631,7 +8656,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8682,7 +8707,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>150</v>
+        <v>260</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8699,50 +8724,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.23935054401029285</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>0.10238706508836766</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="E50" s="156" t="str">
+      <c r="F50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F50" s="156" t="str">
+      <c r="G50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G50" s="156" t="str">
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8751,11 +8776,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>7.0203898973512716E-3</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.23935054401029285</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8802,167 +8827,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
+        <v>144</v>
       </c>
       <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>7.0203898973512716E-3</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>257</v>
+      </c>
+      <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>-7.2636655948553051</v>
       </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
+      <c r="D53" s="153" t="str">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+        <v/>
+      </c>
+      <c r="E53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="F53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="G53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="I53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="J53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="K53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="L53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="M53" s="153" t="str">
+        <f t="shared" si="44"/>
+        <v/>
+      </c>
+      <c r="N53" s="87"/>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.25305527237701292</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M54" s="156" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.15580099495425681</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.74162260082582199</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E55" s="157" t="str">
+      <c r="F55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F55" s="157" t="str">
+      <c r="G55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G55" s="157" t="str">
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H55" s="157" t="str">
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8970,112 +8996,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.20434053388692244</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>0.15580099495425681</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>0.13446497443458727</v>
-      </c>
-      <c r="E56" s="153" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F56" s="153" t="str">
+      <c r="F56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G56" s="153" t="str">
+      <c r="G56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H56" s="153" t="str">
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
-        <v>21</v>
-      </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.20434053388692244</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.13446497443458727</v>
+      </c>
+      <c r="E57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>4.0099174353350966</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>265</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>3.9977915643952013E-2</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>3.2635118260657993E-2</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="F61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="G61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9638,7 +9854,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10321,6 +10539,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10360,8 +10579,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I100" sqref="I100"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10379,7 +10598,7 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
@@ -10394,7 +10613,7 @@
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="116">
@@ -10408,7 +10627,7 @@
       <c r="F3" s="87"/>
       <c r="G3" s="87"/>
       <c r="H3" s="47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
@@ -10418,7 +10637,7 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="87"/>
       <c r="D4" s="65">
@@ -10436,10 +10655,10 @@
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10448,12 +10667,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>27</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>40428.799999999988</v>
       </c>
       <c r="E6" s="56">
@@ -10463,7 +10683,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10473,8 +10693,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>29</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10486,7 +10707,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10504,7 +10725,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10523,32 +10744,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10565,7 +10786,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10576,7 +10797,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10593,7 +10814,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10604,7 +10825,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10621,7 +10842,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10632,7 +10853,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10649,7 +10870,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10660,7 +10881,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10677,7 +10898,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10687,7 +10908,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10709,7 +10930,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10731,7 +10952,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10752,7 +10973,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10777,7 +10998,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10804,7 +11025,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10825,7 +11046,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10842,7 +11063,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10854,13 +11075,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10882,7 +11103,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10902,7 +11123,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10911,7 +11132,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10931,7 +11152,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10944,7 +11165,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10964,7 +11185,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11010,7 +11231,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11019,7 +11240,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11035,7 +11256,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11045,7 +11266,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11062,7 +11283,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11072,7 +11293,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11089,7 +11310,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11099,7 +11320,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11119,7 +11340,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11129,7 +11350,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11146,7 +11367,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11156,7 +11377,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11182,7 +11403,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11209,7 +11430,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11236,7 +11457,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11257,7 +11478,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11278,7 +11499,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11299,7 +11520,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11320,7 +11541,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11337,7 +11558,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11355,7 +11576,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11374,7 +11595,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11393,7 +11614,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11410,7 +11631,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11423,7 +11644,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11440,7 +11661,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11453,7 +11674,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11470,7 +11691,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11497,7 +11718,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11513,14 +11734,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11537,7 +11758,7 @@
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11567,7 +11788,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11578,14 +11799,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>127087</v>
       </c>
-      <c r="E56" s="282"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11593,30 +11814,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11633,11 +11854,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11647,7 +11868,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11668,7 +11889,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11689,7 +11910,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11710,7 +11931,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11725,7 +11946,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11756,11 +11977,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11770,7 +11991,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11791,7 +12012,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11806,7 +12027,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11828,21 +12049,21 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="271">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I72" s="285"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11852,23 +12073,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
-        <v>102</v>
-      </c>
-      <c r="I73" s="272"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11889,7 +12110,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11919,7 +12140,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -11940,7 +12161,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11970,7 +12191,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12000,7 +12221,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12031,7 +12252,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12058,12 +12279,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12093,7 +12314,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12123,7 +12344,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12153,7 +12374,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12174,7 +12395,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12205,7 +12426,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12226,28 +12447,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9649281647718428E-2</v>
+        <v>7.0022486103968745E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9649281647718428E-2</v>
+        <v>7.0022486103968745E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9649281647718428E-2</v>
+        <v>7.0022486103968745E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12277,21 +12498,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9966688874083946E-2</v>
+        <v>5.0234427327528461E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9966688874083946E-2</v>
+        <v>5.0234427327528461E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.9966688874083946E-2</v>
+        <v>5.0234427327528461E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12308,29 +12529,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E92" s="285" t="s">
-        <v>207</v>
-      </c>
-      <c r="F92" s="285"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
-        <v>206</v>
-      </c>
-      <c r="I92" s="285"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12347,24 +12568,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.73205856323527</v>
+        <v>120.94282481918582</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.73205856323527</v>
+        <v>120.94282481918582</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12375,18 +12596,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>78.93272943935456</v>
+        <v>79.033418860042019</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>78.93272943935456</v>
+        <v>79.033418860042019</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12405,51 +12626,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>173939.75566259588</v>
+        <v>174243.40849100149</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.025170722311252</v>
+        <v>60.129958801355791</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.025170722311252</v>
+        <v>60.129958801355791</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>81.930867375792275</v>
+        <v>82.073897009918255</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12467,7 +12688,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12488,31 +12709,31 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>68417.655662595876</v>
+        <v>68721.308491001488</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.843154431731254</v>
+        <v>17.932224298919106</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>18.373525812259665</v>
+        <v>18.478313891304204</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>20.991946390272062</v>
+        <v>21.096734469316594</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.610366968284456</v>
+        <v>23.715155047328988</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.516063621765483</v>
+        <v>45.659093255891463</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12522,58 +12743,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>113719.0886650215</v>
+        <v>113864.15281319065</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.356989221215287</v>
+        <v>33.399540593053281</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.243516730841513</v>
+        <v>39.293577168297979</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>39.243516730841513</v>
+        <v>39.293577168297979</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.243516730841513</v>
+        <v>39.293577168297979</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.565118198641898</v>
+        <v>53.633447784591667</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12583,58 +12804,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>83480.764663808703</v>
+        <v>83705.123152096086</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>25.600071826473268</v>
+        <v>25.665882445986192</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>28.808521271550589</v>
+        <v>28.885945529801091</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>30.117731560556788</v>
+        <v>30.195155818807287</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>31.426941849562986</v>
+        <v>31.504366107813482</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>49.54059091020369</v>
+        <v>49.646270520241565</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12643,7 +12864,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12652,6 +12873,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65B73459-9471-40E4-86B0-22B7D0931F88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC5A5B0-3937-4F19-B28A-37F7763C8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -959,10 +925,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -976,6 +938,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.54949235029228316</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.10108242664951193</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0218987976510586E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.6582664391799292E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.719799737085E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.27690377095281005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -3672,7 +2835,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>68</v>
@@ -3681,15 +2844,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>2897780274</v>
@@ -3697,7 +2860,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3927,7 +3090,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C29" s="150">
         <v>4046</v>
@@ -4059,7 +3222,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4155,7 +3318,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4187,7 +3350,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <f>0.95+2.8</f>
@@ -4209,15 +3372,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0234427327528461E-2</v>
+        <v>5.0200803212851405E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6309444072337576E-2</v>
+        <v>6.6265060240963861E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4258,13 +3421,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4329,7 +3492,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -4340,7 +3503,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4447,7 +3610,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -4458,7 +3621,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -4637,7 +3800,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59">
         <v>606717</v>
@@ -4657,7 +3820,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4665,10 +3828,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4678,16 +3841,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4696,10 +3859,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4748,7 +3911,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4769,7 +3932,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4787,7 +3950,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4826,7 +3989,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4844,7 +4007,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4930,8 +4093,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4972,62 +4135,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.650000000000006</v>
+        <v>74.7</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>2897780274</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>216319.29745410001</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>216464.18646780003</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5050,16 +4213,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5084,40 +4247,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5130,29 +4293,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5162,12 +4325,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5175,9 +4338,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>264</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5185,91 +4348,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.54949235029228316</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>3.9977915643952019E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.10108242664951193</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.74162260082582199</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>1.0218987976510586E-2</v>
+      <c r="B22" s="279" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>8.7405603757025482E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.33920623508169434</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35400026748790242</v>
+        <v>0.35423737416404966</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>261</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.281126758555946</v>
+        <v>14.290692148213385</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
-        <v>5.719799737085E-3</v>
+        <f>Fin_Analysis!I80</f>
+        <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5278,18 +4441,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>263</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.27690377095281005</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>5.719799737085E-3</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0234427327528461E-2</v>
+        <v>5.0200803212851405E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5299,62 +4462,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.932224298919106</v>
+        <v>17.921031574404214</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>52.507957244275175</v>
+        <v>52.487287796299121</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.096734469316594</v>
-      </c>
-      <c r="G29" s="278">
+        <v>21.083566558122605</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.659093255891463</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>45.641119822868802</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5364,7 +4527,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5375,14 +4538,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5392,7 +4555,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5402,14 +4565,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5419,7 +4582,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5434,14 +4597,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6385,7 +5548,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6399,7 +5561,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6426,16 +5588,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6453,7 +5615,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6486,7 +5648,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6853,7 +6015,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6904,7 +6066,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6955,7 +6117,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7006,7 +6168,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7108,7 +6270,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7261,7 +6423,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7771,7 +6933,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8281,7 +7443,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8332,7 +7494,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8401,7 +7563,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8605,7 +7767,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8707,7 +7869,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8725,14 +7887,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>0.10238706508836766</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>8.7405603757025482E-2</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="str">
@@ -8776,7 +7938,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8827,7 +7989,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8878,7 +8040,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C53" s="153">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8929,7 +8091,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -8946,7 +8108,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9146,11 +8308,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9196,7 +8358,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9246,7 +8408,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10750,7 +9912,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10908,7 +10070,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11320,7 +10482,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11788,7 +10950,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11802,11 +10964,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>127087</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11817,11 +10979,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11833,11 +10995,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11854,7 +11016,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11931,7 +11093,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11977,7 +11139,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12012,7 +11174,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12051,19 +11213,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12073,18 +11235,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12161,7 +11323,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12191,7 +11353,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12221,7 +11383,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12284,7 +11446,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12314,7 +11476,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12395,7 +11557,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12426,7 +11588,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12447,28 +11609,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0022486103968745E-2</v>
+        <v>6.9975616970030352E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0022486103968745E-2</v>
+        <v>6.9975616970030352E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0022486103968745E-2</v>
+        <v>6.9975616970030352E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12498,21 +11660,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0234427327528461E-2</v>
+        <v>5.0200803212851405E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0234427327528461E-2</v>
+        <v>5.0200803212851405E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0234427327528461E-2</v>
+        <v>5.0200803212851405E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12534,24 +11696,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12568,24 +11730,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.94282481918582</v>
+        <v>120.91633944636142</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.94282481918582</v>
+        <v>120.91633944636142</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12596,18 +11758,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.033418860042019</v>
+        <v>79.02076807219953</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.033418860042019</v>
+        <v>79.02076807219953</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12626,14 +11788,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12650,21 +11812,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>174243.40849100149</v>
+        <v>174205.25077769376</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.129958801355791</v>
+        <v>60.116790890161802</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.129958801355791</v>
+        <v>60.116790890161802</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>82.073897009918255</v>
+        <v>82.055923576895594</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12713,27 +11875,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>68721.308491001488</v>
+        <v>68683.150777693751</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.932224298919106</v>
+        <v>17.921031574404214</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>18.478313891304204</v>
+        <v>18.465145980110215</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>21.096734469316594</v>
+        <v>21.083566558122605</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.715155047328988</v>
+        <v>23.701987136134999</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.659093255891463</v>
+        <v>45.641119822868802</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12743,21 +11905,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12770,31 +11932,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>113864.15281319065</v>
+        <v>113845.92671009553</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.399540593053281</v>
+        <v>33.394194367264575</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.293577168297979</v>
+        <v>39.287287490899502</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>39.293577168297979</v>
+        <v>39.287287490899502</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.293577168297979</v>
+        <v>39.287287490899502</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.633447784591667</v>
+        <v>53.624862740708075</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12804,21 +11966,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12831,31 +11993,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>83705.123152096086</v>
+        <v>83676.931243894651</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>25.665882445986192</v>
+        <v>25.657612970834393</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>28.885945529801091</v>
+        <v>28.876216735504858</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>30.195155818807287</v>
+        <v>30.185427024511053</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>31.504366107813482</v>
+        <v>31.494637313517252</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>49.646270520241565</v>
+        <v>49.632991281788435</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12864,7 +12026,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CC5A5B0-3937-4F19-B28A-37F7763C8298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D5032B-7068-4225-8058-E98A5EA7023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -909,10 +905,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -974,6 +966,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45625</v>
@@ -2835,7 +2855,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>68</v>
@@ -2844,15 +2864,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>2897780274</v>
@@ -2860,7 +2880,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3090,7 +3110,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>4046</v>
@@ -3188,9 +3208,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>265</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3206,7 +3226,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3222,7 +3242,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3237,10 +3257,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150"/>
       <c r="F37" s="150"/>
@@ -3252,9 +3273,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3301,10 +3322,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150"/>
       <c r="F41" s="150"/>
@@ -3318,9 +3340,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3334,7 +3356,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3350,7 +3372,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <f>0.95+2.8</f>
@@ -3372,15 +3394,15 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0200803212851405E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
       <c r="D45" s="152">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6265060240963861E-2</v>
+        <v>6.6132264529058127E-2</v>
       </c>
       <c r="E45" s="152" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3421,13 +3443,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3447,7 +3469,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
@@ -3457,7 +3479,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <v>17115</v>
@@ -3492,7 +3514,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
@@ -3503,7 +3525,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3541,7 +3563,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
@@ -3610,7 +3632,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
@@ -3621,7 +3643,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3673,7 +3695,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <v>50190</v>
@@ -3800,7 +3822,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>606717</v>
@@ -3820,7 +3842,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3828,10 +3850,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3839,7 +3861,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3847,10 +3869,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3872,7 +3894,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3911,7 +3933,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3932,7 +3954,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -3950,7 +3972,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -3989,7 +4011,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4007,7 +4029,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4030,28 +4052,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4093,8 +4120,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4135,7 +4162,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4147,15 +4174,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>74.7</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4175,7 +4202,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4188,7 +4215,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>216464.18646780003</v>
+        <v>216898.85350890001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4222,7 +4249,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4247,40 +4274,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4293,29 +4320,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4325,12 +4352,12 @@
         <v>HK</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4340,7 +4367,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4348,21 +4375,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="276">
+        <v>252</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>3.9977915643952019E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4370,69 +4397,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.74162260082582199</v>
+        <v>250</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>259</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>8.7405603757025482E-2</v>
+        <v>257</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.33920623508169434</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35423737416404966</v>
+        <v>176</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.290692148213385</v>
+        <v>14.319388317185698</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4441,18 +4468,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>5.719799737085E-3</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0200803212851405E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4462,40 +4489,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="130">
+        <v>161</v>
+      </c>
+      <c r="C29" s="130" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>17.921031574404214</v>
-      </c>
-      <c r="D29" s="129">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="129" t="e">
         <f>G29*(1+G20)</f>
-        <v>52.487287796299121</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="131" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.083566558122605</v>
-      </c>
-      <c r="G29" s="286">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="286" t="e">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.641119822868802</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4503,21 +4530,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4527,25 +4554,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4555,7 +4582,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4565,14 +4592,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4582,7 +4609,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4597,14 +4624,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5504,27 +5531,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5556,12 +5583,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5588,16 +5615,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5615,7 +5642,7 @@
         <v>45473</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5648,7 +5675,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5659,7 +5686,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6015,7 +6042,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6066,7 +6093,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6117,7 +6144,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6168,7 +6195,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6270,7 +6297,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6423,7 +6450,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6678,7 +6705,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6729,7 +6756,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6783,15 +6810,15 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>818094</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
+        <f>IF(D34="","",D34+D30)</f>
         <v/>
       </c>
       <c r="E27" s="65" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
         <v/>
       </c>
       <c r="F27" s="65" t="str">
@@ -6831,50 +6858,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>248663</v>
+        <f>Fin_Analysis!C13</f>
+        <v>17115</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
       <c r="E28" s="199" t="str">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
       <c r="F28" s="199" t="str">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
       <c r="G28" s="199" t="str">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6882,50 +6909,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>17115</v>
+        <f>Fin_Analysis!C18</f>
+        <v>502</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6933,101 +6960,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>502</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
       <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
       <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
       <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>62012</v>
+        <f>Fin_Analysis!I15</f>
+        <v>10498</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199" t="str">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
       <c r="F31" s="199" t="str">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
       <c r="G31" s="199" t="str">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7035,101 +7062,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>145011</v>
+        <f>Fin_Analysis!I34</f>
+        <v>116589</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
       <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
       <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
       <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>10498</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199" t="str">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v/>
-      </c>
-      <c r="F33" s="199" t="str">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v/>
-      </c>
-      <c r="G33" s="199" t="str">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v/>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>127087</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77" t="str">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v/>
+      </c>
+      <c r="F33" s="77" t="str">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v/>
+      </c>
+      <c r="G33" s="77" t="str">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v/>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7137,50 +7164,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>116589</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199" t="str">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
       <c r="F34" s="199" t="str">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
       <c r="G34" s="199" t="str">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7188,50 +7215,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>127087</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77" t="str">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v/>
-      </c>
-      <c r="F35" s="77" t="str">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v/>
-      </c>
-      <c r="G35" s="77" t="str">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v/>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7239,50 +7266,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>611071</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
       <c r="E36" s="199" t="str">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
       <c r="F36" s="199" t="str">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
       <c r="G36" s="199" t="str">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7290,272 +7317,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>4354</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>698389</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>119705</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>3.4730330869689581E-2</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="str">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v/>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>698389</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>3.4730330869689581E-2</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="str">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v/>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.54949235029228316</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.51600533745347288</v>
+      </c>
+      <c r="E40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="F40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="G40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>249</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.10108242664951193</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.10287239272420816</v>
+      </c>
+      <c r="E41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="F41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="G41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.54949235029228316</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.51600533745347288</v>
-      </c>
-      <c r="E42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="F42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="G42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="F42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="G42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7563,50 +7590,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.10108242664951193</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>5.6582664391799292E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.10287239272420816</v>
+        <f t="shared" si="37"/>
+        <v>4.2882224875342372E-2</v>
       </c>
       <c r="E43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="F43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="G43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7614,50 +7641,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
-        <v>0</v>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>1.0218987976510586E-2</v>
       </c>
       <c r="D44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.2264942964802092E-2</v>
       </c>
       <c r="E44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="F44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="G44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7665,50 +7692,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>5.6582664391799292E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>5.719799737085E-3</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.2882224875342372E-2</v>
+        <f t="shared" si="39"/>
+        <v>7.0651028864386544E-3</v>
       </c>
       <c r="E45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="F45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="G45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7716,221 +7743,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>1.0218987976510586E-2</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.27690377095281005</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>1.2264942964802092E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.31890999909573586</v>
       </c>
       <c r="E46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="F46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="G46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>5.719799737085E-3</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>7.0651028864386544E-3</v>
-      </c>
-      <c r="E47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="F47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="G47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.27690377095281005</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.31890999909573586</v>
-      </c>
-      <c r="E48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="F48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="G48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="F48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="G48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>255</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.23935054401029285</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>256</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>8.7405603757025482E-2</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>7.0203898973512716E-3</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7938,522 +7965,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.23935054401029285</v>
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>-7.2636655948553051</v>
       </c>
       <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>7.0203898973512716E-3</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C53" s="153">
-        <f>IF(D6="","",C16/(C6-D6))</f>
-        <v>-7.2636655948553051</v>
-      </c>
-      <c r="D53" s="153" t="str">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
-        <v/>
-      </c>
-      <c r="E53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="F53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="B53" s="95" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="F53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="G53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>0.15580099495425681</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="F54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="G54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.74162260082582199</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="F55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="G55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.20434053388692244</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.13446497443458727</v>
+      </c>
+      <c r="E55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="F55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="G55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>0.15580099495425681</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="F56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="G56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.20434053388692244</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.13446497443458727</v>
-      </c>
-      <c r="E57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="F57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="G57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>4.0099174353350966</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="F58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="G58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>253</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="F59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="G59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>3.9977915643952013E-2</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="F60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="G60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>3.2635118260657993E-2</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="F61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="G61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9013,12 +8944,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9700,27 +9627,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9834,13 +9764,13 @@
         <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>40428.799999999988</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>0.93383943927956004</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9860,9 +9790,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>13.951644423403231</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9912,7 +9842,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -9959,7 +9889,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -9987,7 +9917,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10070,7 +10000,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10092,7 +10022,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10160,7 +10090,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10482,7 +10412,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10619,7 +10549,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10906,9 +10836,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10926,13 +10856,13 @@
         <f>MAX(D4,0)</f>
         <v>4354</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>4354</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10950,7 +10880,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11016,7 +10946,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11051,7 +10981,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11072,7 +11002,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11093,7 +11023,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11108,7 +11038,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11139,7 +11069,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11153,7 +11083,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11174,7 +11104,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11189,7 +11119,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11211,7 +11141,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11219,11 +11149,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11251,7 +11181,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11323,7 +11253,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11353,7 +11283,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11383,7 +11313,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11441,12 +11371,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11476,7 +11406,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11506,7 +11436,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11557,7 +11487,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11588,7 +11518,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11609,28 +11539,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9975616970030352E-2</v>
+        <v>6.983538527269563E-2</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9975616970030352E-2</v>
+        <v>6.983538527269563E-2</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9975616970030352E-2</v>
+        <v>6.983538527269563E-2</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11660,21 +11590,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0200803212851405E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0200803212851405E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0200803212851405E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11691,27 +11621,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11730,24 +11660,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.91633944636142</v>
+        <v>120.8371233445109</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.91633944636142</v>
+        <v>120.8371233445109</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11758,18 +11688,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.02076807219953</v>
+        <v>78.982926792072305</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.02076807219953</v>
+        <v>78.982926792072305</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11788,14 +11718,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11808,49 +11738,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>174205.25077769376</v>
+        <v>174091.1234318637</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.116790890161802</v>
+        <v>60.077406487260703</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.116790890161802</v>
+        <v>60.077406487260703</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>82.055923576895594</v>
+        <v>82.002166157267538</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="91">
+        <v>140</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-4354</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-1.5025293805281801</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11873,29 +11803,29 @@
       <c r="B100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>68683.150777693751</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>17.921031574404214</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>18.465145980110215</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>21.083566558122605</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.701987136134999</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.641119822868802</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11905,21 +11835,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11932,31 +11862,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>113845.92671009553</v>
+        <v>113791.40843965752</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.394194367264575</v>
+        <v>33.378202633768389</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.287287490899502</v>
+        <v>39.268473686786344</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>39.287287490899502</v>
+        <v>39.268473686786344</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.287287490899502</v>
+        <v>39.268473686786344</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.624862740708075</v>
+        <v>53.599182992177901</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11966,21 +11896,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -11993,31 +11923,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="91">
+        <v>185</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>83676.931243894651</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>25.657612970834393</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>28.876216735504858</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>30.185427024511053</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>31.494637313517252</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>49.632991281788435</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12026,7 +11956,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0D5032B-7068-4225-8058-E98A5EA7023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DB83C5-6474-49D3-A8F2-C1B363F4C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -945,10 +941,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -978,6 +970,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>266</v>
+      <c r="C4" s="187" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>267</v>
+      <c r="C5" s="190" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45625</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>268</v>
+      <c r="C9" s="191" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>2897780274</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>240</v>
-      </c>
-      <c r="C15" s="176" t="s">
+      <c r="B15" s="215" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="175" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>269</v>
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>271</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>230</v>
+      <c r="C19" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>230</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>230</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>270</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>272</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,421 +3042,425 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>71506</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>71195</v>
       </c>
-      <c r="E25" s="149"/>
-      <c r="F25" s="149"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>39292</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>36737</v>
       </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <f>3906+3322</f>
         <v>7228</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <f>4179+3145</f>
         <v>7324</v>
       </c>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C29" s="150">
+        <v>240</v>
+      </c>
+      <c r="C29" s="149">
         <v>4046</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>3053</v>
       </c>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>559</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>668</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150">
+      <c r="C31" s="149">
         <v>-2259</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="149">
         <v>-1565</v>
       </c>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150">
+      <c r="C32" s="149">
         <v>4805</v>
       </c>
-      <c r="D32" s="150">
+      <c r="D32" s="149">
         <v>4765</v>
       </c>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150">
+      <c r="C33" s="149">
         <v>4396</v>
       </c>
-      <c r="D33" s="150">
+      <c r="D33" s="149">
         <v>4262</v>
       </c>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="B37" s="94" t="s">
+        <v>261</v>
+      </c>
+      <c r="C37" s="149">
+        <v>207023</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>264</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>262</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>611071</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>4354</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <f>0.95+2.8</f>
         <v>3.75</v>
       </c>
-      <c r="D44" s="250">
+      <c r="D44" s="247">
         <f>3.7+1.25</f>
         <v>4.95</v>
       </c>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="C45" s="152">
+        <v>236</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0100200400801605E-2</v>
-      </c>
-      <c r="D45" s="152">
+        <v>5.08130081300813E-2</v>
+      </c>
+      <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6132264529058127E-2</v>
-      </c>
-      <c r="E45" s="152" t="str">
+        <v>6.7073170731707321E-2</v>
+      </c>
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3525,7 +3537,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3557,7 +3569,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3569,7 +3581,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3588,8 +3600,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3643,7 +3655,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
@@ -3662,7 +3674,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3676,7 +3688,7 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3689,7 +3701,7 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3741,16 +3753,16 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247">
+      <c r="C72" s="244">
         <v>3743</v>
       </c>
-      <c r="D72" s="248">
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3776,7 +3788,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="119"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
@@ -3810,21 +3822,21 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120"/>
-    </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C81" s="119"/>
+    </row>
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83">
+        <v>266</v>
+      </c>
+      <c r="C82" s="214">
         <v>145011</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59">
+        <v>267</v>
+      </c>
+      <c r="C83" s="214">
         <v>606717</v>
       </c>
     </row>
@@ -3842,20 +3854,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="197">
+        <v>234</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="269">
+        <v>232</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3885,10 +3897,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3900,12 +3912,12 @@
         <f>C25</f>
         <v>71506</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>71506</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>71506</v>
       </c>
@@ -3918,75 +3930,75 @@
         <f>C26</f>
         <v>39292</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>39292</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>39292</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>7228</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>7228</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>7228</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>4046</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>4046</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>409</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>409</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>409</v>
       </c>
@@ -3999,12 +4011,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4017,12 +4029,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>730.718954248366</v>
       </c>
@@ -4031,16 +4043,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>3.75</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98</f>
         <v>3.75</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>3.75</v>
       </c>
@@ -4121,7 +4133,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4173,11 +4185,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>74.849999999999994</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>73.8</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4215,7 +4227,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>216898.85350890001</v>
+        <v>213856.18422119998</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4225,11 +4237,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4251,11 +4263,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0005</v>
       </c>
@@ -4263,7 +4275,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4273,10 +4285,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4284,7 +4296,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4292,13 +4304,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4307,12 +4319,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="174">
+        <v>237</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4322,7 +4334,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4333,7 +4345,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4341,13 +4353,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -4357,129 +4369,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="175">
+        <v>238</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>262</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>3.9977915643952019E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.74162260082582199</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>257</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>264</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>8.7405603757025482E-2</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>258</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.34996945399339846</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.319388317185698</v>
+        <v>14.118515134379487</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.71740422430790074</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0100200400801605E-2</v>
+        <v>5.08130081300813E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4496,10 +4508,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4507,22 +4519,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130" t="e">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D29" s="129" t="e">
+        <v>18.125128502059777</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>#DIV/0!</v>
+        <v>52.864190740942909</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131" t="e">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G29" s="286" t="e">
+        <v>21.323680590658562</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>#DIV/0!</v>
+        <v>45.968861513863402</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4530,23 +4542,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>disagree</v>
       </c>
@@ -4554,9 +4566,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4564,17 +4576,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4582,26 +4594,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4609,9 +4621,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4624,16 +4636,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Commodity-type Business</v>
       </c>
@@ -5585,10 +5597,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5614,16 +5626,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5637,11 +5649,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45473</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5666,7 +5678,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5674,7 +5686,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5738,47 +5750,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>71506</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>71195</v>
       </c>
-      <c r="E6" s="200" t="str">
+      <c r="E6" s="199" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="200" t="str">
+      <c r="F6" s="199" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="200" t="str">
+      <c r="G6" s="199" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5840,47 +5852,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>39292</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>36737</v>
       </c>
-      <c r="E8" s="199" t="str">
+      <c r="E8" s="198" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="199" t="str">
+      <c r="F8" s="198" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="199" t="str">
+      <c r="G8" s="198" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5891,47 +5903,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>32214</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>34458</v>
       </c>
-      <c r="E9" s="151" t="str">
+      <c r="E9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="151" t="str">
+      <c r="F9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="151" t="str">
+      <c r="G9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5942,47 +5954,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>7228</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>7324</v>
       </c>
-      <c r="E10" s="199" t="str">
+      <c r="E10" s="198" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="199" t="str">
+      <c r="F10" s="198" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="199" t="str">
+      <c r="G10" s="198" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -5993,47 +6005,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6042,49 +6054,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>873.20261437908493</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6092,50 +6104,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.36885732685751688</v>
       </c>
-      <c r="E13" s="229" t="str">
+      <c r="E13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="229" t="str">
+      <c r="F13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="229" t="str">
+      <c r="G13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6143,50 +6155,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>26260.797385620914</v>
       </c>
-      <c r="E14" s="230" t="str">
+      <c r="E14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="230" t="str">
+      <c r="F14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="230" t="str">
+      <c r="G14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6194,50 +6206,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-7.6369209602424257E-2</v>
       </c>
-      <c r="D15" s="232" t="str">
+      <c r="D15" s="229" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="232" t="str">
+      <c r="E15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="232" t="str">
+      <c r="F15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6248,47 +6260,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="198">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-2259</v>
       </c>
-      <c r="D16" s="199">
+      <c r="D16" s="198">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-1565</v>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6297,49 +6309,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
-      </c>
-      <c r="C17" s="199">
+        <v>240</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>4046</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>3053</v>
       </c>
-      <c r="E17" s="199" t="str">
+      <c r="E17" s="198" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="199" t="str">
+      <c r="F17" s="198" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="199" t="str">
+      <c r="G17" s="198" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6350,47 +6362,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152">
+      <c r="C18" s="151">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>6.7197158280424024E-2</v>
       </c>
-      <c r="D18" s="152">
+      <c r="D18" s="151">
         <f t="shared" si="6"/>
         <v>6.6928857363578897E-2</v>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6401,47 +6413,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="198">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>4805</v>
       </c>
-      <c r="D19" s="199">
+      <c r="D19" s="198">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>4765</v>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6450,49 +6462,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>6.1477358543339022E-2</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>5.9863754477140249E-2</v>
       </c>
-      <c r="E20" s="152" t="str">
+      <c r="E20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="152" t="str">
+      <c r="F20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="152" t="str">
+      <c r="G20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6503,47 +6515,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="198">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>4396</v>
       </c>
-      <c r="D21" s="199">
+      <c r="D21" s="198">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>4262</v>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6554,47 +6566,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>22704.797385620914</v>
       </c>
-      <c r="E22" s="161" t="str">
+      <c r="E22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="161" t="str">
+      <c r="F22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="161" t="str">
+      <c r="G22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6605,47 +6617,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.2439661493082379</v>
       </c>
-      <c r="E23" s="153" t="str">
+      <c r="E23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="153" t="str">
+      <c r="F23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="153" t="str">
+      <c r="G23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6656,7 +6668,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>15147.215000000002</v>
       </c>
@@ -6704,50 +6716,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.12792522613343046</v>
       </c>
-      <c r="D25" s="233" t="str">
+      <c r="D25" s="230" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="233" t="str">
+      <c r="E25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="233" t="str">
+      <c r="F25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6811,7 +6823,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>818094</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6864,43 +6876,43 @@
         <f>Fin_Analysis!C13</f>
         <v>17115</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6915,43 +6927,43 @@
         <f>Fin_Analysis!C18</f>
         <v>502</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -6960,49 +6972,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>207023</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199" t="str">
+      <c r="E30" s="198" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="199" t="str">
+      <c r="F30" s="198" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="199" t="str">
+      <c r="G30" s="198" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7017,43 +7029,43 @@
         <f>Fin_Analysis!I15</f>
         <v>10498</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199" t="str">
+      <c r="E31" s="198" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="199" t="str">
+      <c r="F31" s="198" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="199" t="str">
+      <c r="G31" s="198" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7068,43 +7080,43 @@
         <f>Fin_Analysis!I34</f>
         <v>116589</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199" t="str">
+      <c r="E32" s="198" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="199" t="str">
+      <c r="F32" s="198" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="199" t="str">
+      <c r="G32" s="198" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7168,45 +7180,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>611071</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199" t="str">
+      <c r="E34" s="198" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="199" t="str">
+      <c r="F34" s="198" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="199" t="str">
+      <c r="G34" s="198" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7219,45 +7231,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>4354</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7272,43 +7284,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7370,47 +7382,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>3.4730330869689581E-2</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="str">
+      <c r="E38" s="154" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7419,7 +7431,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7439,47 +7451,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.51600533745347288</v>
       </c>
-      <c r="E40" s="156" t="str">
+      <c r="E40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="156" t="str">
+      <c r="F40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="156" t="str">
+      <c r="G40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7488,49 +7500,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.10287239272420816</v>
       </c>
-      <c r="E41" s="153" t="str">
+      <c r="E41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="153" t="str">
+      <c r="F41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="153" t="str">
+      <c r="G41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7541,47 +7553,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153" t="str">
+      <c r="E42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="153" t="str">
+      <c r="F42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="153" t="str">
+      <c r="G42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7592,47 +7604,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>4.2882224875342372E-2</v>
       </c>
-      <c r="E43" s="153" t="str">
+      <c r="E43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="153" t="str">
+      <c r="F43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="153" t="str">
+      <c r="G43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7643,47 +7655,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>1.2264942964802092E-2</v>
       </c>
-      <c r="E44" s="153" t="str">
+      <c r="E44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="153" t="str">
+      <c r="F44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="153" t="str">
+      <c r="G44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7692,49 +7704,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>7.0651028864386544E-3</v>
       </c>
-      <c r="E45" s="153" t="str">
+      <c r="E45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="153" t="str">
+      <c r="F45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="153" t="str">
+      <c r="G45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7745,47 +7757,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.31890999909573586</v>
       </c>
-      <c r="E46" s="153" t="str">
+      <c r="E46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="153" t="str">
+      <c r="F46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="153" t="str">
+      <c r="G46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7794,9 +7806,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>247</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>265</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7811,50 +7825,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>8.7405603757025482E-2</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272" t="str">
+      <c r="E48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="272" t="str">
+      <c r="F48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="272" t="str">
+      <c r="G48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7863,49 +7877,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="153">
+        <v>254</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.23935054401029285</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7914,49 +7928,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="153">
+        <v>255</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>7.0203898973512716E-3</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -7965,49 +7979,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="153">
+        <v>245</v>
+      </c>
+      <c r="C51" s="152">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-7.2636655948553051</v>
       </c>
-      <c r="D51" s="153" t="str">
+      <c r="D51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="153" t="str">
+      <c r="E51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="153" t="str">
+      <c r="F51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8016,7 +8030,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8033,49 +8047,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>249</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>0.74162260082582199</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="str">
+      <c r="E53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="156" t="str">
+      <c r="F53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="156" t="str">
+      <c r="G53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8085,47 +8099,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.15580099495425681</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157" t="str">
+      <c r="E54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="157" t="str">
+      <c r="F54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="157" t="str">
+      <c r="G54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8135,47 +8149,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.20434053388692244</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>0.13446497443458727</v>
       </c>
-      <c r="E55" s="153" t="str">
+      <c r="E55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="153" t="str">
+      <c r="F55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="153" t="str">
+      <c r="G55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8185,47 +8199,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8233,149 +8247,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>250</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>251</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>3.9977915643952013E-2</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="str">
+      <c r="E58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="274" t="str">
+      <c r="F58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="274" t="str">
+      <c r="G58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>3.2635118260657993E-2</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="str">
+      <c r="E59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="274" t="str">
+      <c r="F59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="274" t="str">
+      <c r="G59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9671,8 +9685,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9708,8 +9722,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>611071</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9721,8 +9735,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>606717</v>
       </c>
       <c r="K3" s="24"/>
@@ -9732,8 +9746,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>4354</v>
       </c>
       <c r="E4" s="37"/>
@@ -9764,13 +9778,13 @@
         <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>40428.799999999988</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>0.93383943927956004</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9790,9 +9804,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>13.951644423403231</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9820,11 +9834,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>FY</v>
       </c>
@@ -9867,7 +9881,7 @@
         <f>Inputs!C48</f>
         <v>16221</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9895,7 +9909,7 @@
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9923,7 +9937,7 @@
         <f>Inputs!C50</f>
         <v>17115</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -9951,7 +9965,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -9964,7 +9978,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
@@ -9979,7 +9993,7 @@
         <f>Inputs!C52</f>
         <v>748</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10006,7 +10020,7 @@
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10028,7 +10042,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10050,7 +10064,7 @@
         <f>Inputs!C55</f>
         <v>502</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10071,7 +10085,7 @@
         <f>Inputs!C56</f>
         <v>214077</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10079,7 +10093,7 @@
         <f t="shared" si="0"/>
         <v>128446.2</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>Y</v>
       </c>
@@ -10096,7 +10110,7 @@
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10104,7 +10118,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10123,7 +10137,7 @@
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10144,7 +10158,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10309,7 +10323,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>62012</v>
       </c>
@@ -10338,7 +10352,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10364,7 +10378,7 @@
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10391,7 +10405,7 @@
         <f>Inputs!C62</f>
         <v>1681</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10418,7 +10432,7 @@
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10434,7 +10448,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
@@ -10448,7 +10462,7 @@
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10475,7 +10489,7 @@
         <f>Inputs!C65</f>
         <v>101055</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10483,7 +10497,7 @@
         <f t="shared" si="1"/>
         <v>10105.5</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10501,7 +10515,7 @@
         <f>Inputs!C66</f>
         <v>408424</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
@@ -10509,7 +10523,7 @@
         <f t="shared" si="1"/>
         <v>81684.800000000003</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>Y</v>
       </c>
@@ -10528,7 +10542,7 @@
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
@@ -10536,7 +10550,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10555,7 +10569,7 @@
         <f>Inputs!C68</f>
         <v>50190</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10576,7 +10590,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10597,7 +10611,7 @@
         <f>Inputs!C70</f>
         <v>4338</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10618,7 +10632,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10639,7 +10653,7 @@
         <f>Inputs!C72</f>
         <v>3743</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10785,8 +10799,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>145011</v>
       </c>
       <c r="J48" s="8"/>
@@ -10812,8 +10826,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>207023</v>
       </c>
       <c r="J49" s="87"/>
@@ -10836,9 +10850,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10856,13 +10870,13 @@
         <f>MAX(D4,0)</f>
         <v>4354</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>4354</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10883,7 +10897,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -10983,7 +10997,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>16221</v>
       </c>
@@ -10991,7 +11005,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>14598.9</v>
       </c>
@@ -11022,11 +11036,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>127087</v>
@@ -11103,12 +11117,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>79936</v>
       </c>
@@ -11187,17 +11201,17 @@
         <f>Data!C6</f>
         <v>71506</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>71506</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>71506</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11208,23 +11222,23 @@
         <f>Data!C8</f>
         <v>39292</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>39292</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>39292</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.54949235029228316</v>
       </c>
@@ -11234,48 +11248,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>32214</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>32214</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>32214</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>7228</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>7228</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>7228</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.10108242664951193</v>
       </c>
@@ -11289,54 +11303,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>730.718954248366</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>730.718954248366</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>1.0218987976510586E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.33920623508169434</v>
       </c>
@@ -11350,55 +11364,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>4046</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>4046</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>4046</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>5.6582664391799292E-2</v>
       </c>
@@ -11406,29 +11420,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>409</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>409</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>409</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>5.719799737085E-3</v>
       </c>
@@ -11438,27 +11452,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.27690377095281005</v>
       </c>
@@ -11468,49 +11482,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.21183138477889971</v>
       </c>
@@ -11520,69 +11534,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.983538527269563E-2</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>7.0828978152591704E-2</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.983538527269563E-2</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>7.0828978152591704E-2</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.983538527269563E-2</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>7.0828978152591704E-2</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>3.75</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.71740422430790074</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>3.75</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.71740422430790074</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>3.75</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.71740422430790074</v>
       </c>
@@ -11590,23 +11604,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0100200400801605E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>5.08130081300813E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0100200400801605E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>5.08130081300813E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0100200400801605E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>5.08130081300813E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11628,7 +11642,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
@@ -11651,27 +11665,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.8371233445109</v>
+        <v>121.39929453152222</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.8371233445109</v>
+        <v>121.39929453152222</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11679,27 +11693,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>78.982926792072305</v>
+        <v>79.251358913780038</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>78.982926792072305</v>
+        <v>79.251358913780038</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11713,25 +11727,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11742,21 +11756,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>174091.1234318637</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>174901.04848468705</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.077406487260703</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>60.356904922697751</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.077406487260703</v>
-      </c>
-      <c r="I97" s="123">
+        <v>60.356904922697751</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>82.002166157267538</v>
+        <v>82.383665267890194</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11764,18 +11778,18 @@
       <c r="B98" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-4354</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-1.5025293805281801</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11786,46 +11800,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>-101168.1</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-40.149115529523407</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>-34.912274373498619</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>69378.948484687047</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>18.125128502059777</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>18.705260012646164</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>21.323680590658562</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>23.942101168670956</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>45.968861513863402</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11837,25 +11851,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11866,27 +11880,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>113791.40843965752</v>
+        <v>114178.14099617547</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.378202633768389</v>
-      </c>
-      <c r="E103" s="123">
+        <v>33.491642108800256</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.268473686786344</v>
+        <v>39.401931892706187</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>39.268473686786344</v>
-      </c>
-      <c r="H103" s="123">
+        <v>39.401931892706187</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.268473686786344</v>
+        <v>39.401931892706187</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.599182992177901</v>
+        <v>53.781345682226956</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11898,25 +11912,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11925,29 +11939,29 @@
       <c r="B106" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>84190.93724043126</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>25.808385305430015</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>29.053595952676176</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>30.362806241682375</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>31.672016530688573</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>49.875103598045179</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11958,14 +11972,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14DB83C5-6474-49D3-A8F2-C1B363F4C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04D1C8D-4037-43BD-85AE-074FD7B9774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3410,11 +3410,11 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.0744248985115016E-2</v>
       </c>
       <c r="D45" s="151">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7073170731707321E-2</v>
+        <v>6.6982408660351822E-2</v>
       </c>
       <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>73.8</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>213856.18422119998</v>
+        <v>214145.9622486</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4443,7 +4443,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.34996945399339846</v>
+        <v>0.35044366734569304</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4459,7 +4459,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.118515134379487</v>
+        <v>14.137645913694366</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.0744248985115016E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4521,20 +4521,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.125128502059777</v>
+        <v>18.102173117589587</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>52.864190740942909</v>
+        <v>52.821799353176175</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.323680590658562</v>
+        <v>21.29667425598775</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.968861513863402</v>
+        <v>45.931999437544505</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11557,17 +11557,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0828978152591704E-2</v>
+        <v>7.0733133797852052E-2</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0828978152591704E-2</v>
+        <v>7.0733133797852052E-2</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0828978152591704E-2</v>
+        <v>7.0733133797852052E-2</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11608,17 +11608,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.0744248985115016E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.0744248985115016E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.0744248985115016E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11678,14 +11678,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>121.39929453152222</v>
+        <v>121.34497514617405</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>121.39929453152222</v>
+        <v>121.34497514617405</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11706,14 +11706,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.251358913780038</v>
+        <v>79.225433546730542</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.251358913780038</v>
+        <v>79.225433546730542</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11756,21 +11756,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>174901.04848468705</v>
+        <v>174822.79006080492</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.356904922697751</v>
+        <v>60.329898588026943</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.356904922697751</v>
+        <v>60.329898588026943</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>82.383665267890194</v>
+        <v>82.346803191571297</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11819,27 +11819,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>69378.948484687047</v>
+        <v>69300.690060804918</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.125128502059777</v>
+        <v>18.102173117589587</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>18.705260012646164</v>
+        <v>18.678253677975356</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>21.323680590658562</v>
+        <v>21.29667425598775</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.942101168670956</v>
+        <v>23.915094834000143</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.968861513863402</v>
+        <v>45.931999437544505</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11880,27 +11880,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>114178.14099617547</v>
+        <v>114140.79008819198</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.491642108800256</v>
+        <v>33.480686042851836</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.401931892706187</v>
+        <v>39.389042403355106</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>39.401931892706187</v>
+        <v>39.389042403355106</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.401931892706187</v>
+        <v>39.389042403355106</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.781345682226956</v>
+        <v>53.763752278828733</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11941,27 +11941,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>84190.93724043126</v>
+        <v>84133.132574498464</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>25.808385305430015</v>
+        <v>25.791429580220711</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>29.053595952676176</v>
+        <v>29.033648040665231</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>30.362806241682375</v>
+        <v>30.342858329671429</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>31.672016530688573</v>
+        <v>31.652068618677625</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>49.875103598045179</v>
+        <v>49.847875858186619</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C04D1C8D-4037-43BD-85AE-074FD7B9774A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4350688-2978-42EB-BAE6-F727B6FA98B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -850,10 +847,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -965,10 +958,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -986,6 +975,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="191" t="s">
+      <c r="C10" s="190">
+        <v>2897780274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
+        <v>205</v>
+      </c>
+      <c r="C14" s="214">
+        <v>45473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B15" s="213" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="D16" s="24"/>
+    </row>
+    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" s="192">
-        <v>2897780274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
-        <v>45473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="D16" s="24"/>
-    </row>
-    <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
+      <c r="D17" s="24"/>
+    </row>
+    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D19" s="24"/>
+    </row>
+    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="24"/>
+    </row>
+    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="24"/>
+    </row>
+    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
         <v>271</v>
       </c>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
-        <v>224</v>
-      </c>
-      <c r="C18" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="24"/>
-    </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D21" s="24"/>
-    </row>
-    <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>272</v>
-      </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,437 +3033,438 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>71506</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>71195</v>
       </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="149">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
         <v>39292</v>
       </c>
-      <c r="D26" s="149">
+      <c r="D26" s="148">
         <v>36737</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="149">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
         <f>3906+3322</f>
         <v>7228</v>
       </c>
-      <c r="D27" s="149">
+      <c r="D27" s="148">
         <f>4179+3145</f>
         <v>7324</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="B28" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C29" s="148">
+        <v>4046</v>
+      </c>
+      <c r="D29" s="148">
+        <v>3053</v>
+      </c>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>559</v>
+      </c>
+      <c r="D30" s="148">
+        <v>668</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148">
+        <v>-2259</v>
+      </c>
+      <c r="D31" s="148">
+        <v>-1565</v>
+      </c>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="148">
+        <v>4805</v>
+      </c>
+      <c r="D32" s="148">
+        <v>4765</v>
+      </c>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="149">
-        <v>4046</v>
-      </c>
-      <c r="D29" s="149">
-        <v>3053</v>
-      </c>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>559</v>
-      </c>
-      <c r="D30" s="149">
-        <v>668</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149">
-        <v>-2259</v>
-      </c>
-      <c r="D31" s="149">
-        <v>-1565</v>
-      </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149">
-        <v>4805</v>
-      </c>
-      <c r="D32" s="149">
-        <v>4765</v>
-      </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149">
+      <c r="C33" s="148">
         <v>4396</v>
       </c>
-      <c r="D33" s="149">
+      <c r="D33" s="148">
         <v>4262</v>
       </c>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="B34" s="96" t="s">
+        <v>260</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="148">
         <v>207023</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148">
+        <v>611071</v>
+      </c>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>611071</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>4354</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <f>0.95+2.8</f>
         <v>3.75</v>
       </c>
-      <c r="D44" s="247">
+      <c r="D44" s="245">
         <f>3.7+1.25</f>
         <v>4.95</v>
       </c>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="151">
+        <v>234</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0744248985115016E-2</v>
-      </c>
-      <c r="D45" s="151">
+        <v>5.0675675675675678E-2</v>
+      </c>
+      <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6982408660351822E-2</v>
-      </c>
-      <c r="E45" s="151" t="str">
+        <v>6.6891891891891889E-2</v>
+      </c>
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>16221</v>
@@ -3477,21 +3472,21 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59"/>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <v>17115</v>
@@ -3500,21 +3495,21 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59">
         <v>748</v>
@@ -3522,32 +3517,32 @@
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59"/>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>502</v>
@@ -3556,11 +3551,11 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59">
         <v>214077</v>
@@ -3569,69 +3564,69 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>43</v>
+      <c r="E56" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59"/>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59"/>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59">
         <v>1681</v>
@@ -3640,32 +3635,32 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59"/>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C64" s="59"/>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <f>7954+93101</f>
@@ -3674,13 +3669,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>408424</v>
@@ -3688,26 +3683,26 @@
       <c r="D66" s="60">
         <v>0.2</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>43</v>
+      <c r="E66" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59"/>
       <c r="D67" s="60">
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <v>50190</v>
@@ -3716,22 +3711,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>4338</v>
@@ -3739,34 +3734,34 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244">
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242">
         <v>3743</v>
       </c>
-      <c r="D72" s="245">
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>10498</v>
@@ -3774,33 +3769,33 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59"/>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119"/>
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118"/>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>62012</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <v>116589</v>
@@ -3808,83 +3803,83 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59"/>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119"/>
+      <c r="C81" s="118"/>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>266</v>
-      </c>
-      <c r="C82" s="214">
+        <v>263</v>
+      </c>
+      <c r="C82" s="212">
         <v>145011</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" s="214">
+        <v>264</v>
+      </c>
+      <c r="C83" s="212">
         <v>606717</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>235</v>
-      </c>
-      <c r="D87" s="266">
+        <v>231</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3893,166 +3888,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>71506</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>71506</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>71506</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>39292</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>39292</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>39292</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>231</v>
+      <c r="B93" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>7228</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>7228</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>7228</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>240</v>
+      <c r="B94" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>4046</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>4046</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>409</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>409</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>409</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>730.718954248366</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>3.75</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98</f>
         <v>3.75</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>3.75</v>
       </c>
@@ -4065,32 +4060,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4149,13 +4144,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4166,82 +4161,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0016.HK : 新鴻基地產</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>73.900000000000006</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>74</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>2897780274</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>214145.9622486</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>214435.740276</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4252,30 +4247,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0005</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4285,280 +4280,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>258</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>251</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>3.9977915643952019E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>249</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.74162260082582199</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>264</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>8.7405603757025482E-2</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>256</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>254</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35044366734569304</v>
+        <v>0.35091788069798763</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>255</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.137645913694366</v>
+        <v>14.156776693009242</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.71740422430790074</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>259</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0744248985115016E-2</v>
+        <v>5.0675675675675678E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>241</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.102173117589587</v>
-      </c>
-      <c r="D29" s="128">
+        <v>18.079287959150498</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>52.821799353176175</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>52.779537650839877</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.29667425598775</v>
-      </c>
-      <c r="G29" s="286">
+        <v>21.269750540177057</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.931999437544505</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>45.895250131165113</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>disagree</v>
       </c>
@@ -4566,9 +4561,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4576,17 +4571,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4594,26 +4589,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4621,9 +4616,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4636,16 +4631,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Commodity-type Business</v>
       </c>
@@ -5597,10 +5592,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5626,59 +5621,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45473</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000000</v>
       </c>
@@ -5686,19 +5681,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5747,928 +5742,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>71506</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>71195</v>
       </c>
-      <c r="E6" s="199" t="str">
+      <c r="E6" s="197" t="str">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v/>
       </c>
-      <c r="F6" s="199" t="str">
+      <c r="F6" s="197" t="str">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v/>
       </c>
-      <c r="G6" s="199" t="str">
+      <c r="G6" s="197" t="str">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v/>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>4.3682842896271001E-3</v>
       </c>
-      <c r="D7" s="92" t="str">
+      <c r="D7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="E7" s="92" t="str">
+      <c r="E7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="F7" s="92" t="str">
+      <c r="F7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>39292</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>36737</v>
       </c>
-      <c r="E8" s="198" t="str">
+      <c r="E8" s="196" t="str">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v/>
       </c>
-      <c r="F8" s="198" t="str">
+      <c r="F8" s="196" t="str">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v/>
       </c>
-      <c r="G8" s="198" t="str">
+      <c r="G8" s="196" t="str">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v/>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>32214</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>34458</v>
       </c>
-      <c r="E9" s="150" t="str">
+      <c r="E9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F9" s="150" t="str">
+      <c r="F9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="G9" s="150" t="str">
+      <c r="G9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>7228</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>7324</v>
       </c>
-      <c r="E10" s="198" t="str">
+      <c r="E10" s="196" t="str">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v/>
       </c>
-      <c r="F10" s="198" t="str">
+      <c r="F10" s="196" t="str">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v/>
       </c>
-      <c r="G10" s="198" t="str">
+      <c r="G10" s="196" t="str">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v/>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>873.20261437908493</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.36885732685751688</v>
       </c>
-      <c r="E13" s="226" t="str">
+      <c r="E13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="F13" s="226" t="str">
+      <c r="F13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="G13" s="226" t="str">
+      <c r="G13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>26260.797385620914</v>
       </c>
-      <c r="E14" s="227" t="str">
+      <c r="E14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="F14" s="227" t="str">
+      <c r="F14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="G14" s="227" t="str">
+      <c r="G14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-7.6369209602424257E-2</v>
       </c>
-      <c r="D15" s="229" t="str">
+      <c r="D15" s="227" t="str">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v/>
       </c>
-      <c r="E15" s="229" t="str">
+      <c r="E15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="F15" s="229" t="str">
+      <c r="F15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v>-2259</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="196">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v>-1565</v>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>4046</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>3053</v>
       </c>
-      <c r="E17" s="198" t="str">
+      <c r="E17" s="196" t="str">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v/>
       </c>
-      <c r="F17" s="198" t="str">
+      <c r="F17" s="196" t="str">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v/>
       </c>
-      <c r="G17" s="198" t="str">
+      <c r="G17" s="196" t="str">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v/>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v>6.7197158280424024E-2</v>
       </c>
-      <c r="D18" s="151">
+      <c r="D18" s="150">
         <f t="shared" si="6"/>
         <v>6.6928857363578897E-2</v>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v>4805</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="196">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v>4765</v>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>6.1477358543339022E-2</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>5.9863754477140249E-2</v>
       </c>
-      <c r="E20" s="151" t="str">
+      <c r="E20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="F20" s="151" t="str">
+      <c r="F20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="G20" s="151" t="str">
+      <c r="G20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v>4396</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="196">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v>4262</v>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>22704.797385620914</v>
       </c>
-      <c r="E22" s="160" t="str">
+      <c r="E22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="F22" s="160" t="str">
+      <c r="F22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="G22" s="160" t="str">
+      <c r="G22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.2439661493082379</v>
       </c>
-      <c r="E23" s="152" t="str">
+      <c r="E23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="F23" s="152" t="str">
+      <c r="F23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="G23" s="152" t="str">
+      <c r="G23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>15147.215000000002</v>
       </c>
@@ -6712,63 +6707,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.12792522613343046</v>
       </c>
-      <c r="D25" s="230" t="str">
+      <c r="D25" s="228" t="str">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v/>
       </c>
-      <c r="E25" s="230" t="str">
+      <c r="E25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="F25" s="230" t="str">
+      <c r="F25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6814,11 +6809,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41820</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
@@ -6865,266 +6860,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>17115</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>502</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>261</v>
+      <c r="B30" s="93" t="s">
+        <v>259</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>207023</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198" t="str">
+      <c r="E30" s="196" t="str">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v/>
       </c>
-      <c r="F30" s="198" t="str">
+      <c r="F30" s="196" t="str">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v/>
       </c>
-      <c r="G30" s="198" t="str">
+      <c r="G30" s="196" t="str">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v/>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>10498</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198" t="str">
+      <c r="E31" s="196" t="str">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v/>
       </c>
-      <c r="F31" s="198" t="str">
+      <c r="F31" s="196" t="str">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v/>
       </c>
-      <c r="G31" s="198" t="str">
+      <c r="G31" s="196" t="str">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v/>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>116589</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198" t="str">
+      <c r="E32" s="196" t="str">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v/>
       </c>
-      <c r="F32" s="198" t="str">
+      <c r="F32" s="196" t="str">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v/>
       </c>
-      <c r="G32" s="198" t="str">
+      <c r="G32" s="196" t="str">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v/>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7171,165 +7166,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>611071</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198" t="str">
+      <c r="E34" s="196" t="str">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v/>
       </c>
-      <c r="F34" s="198" t="str">
+      <c r="F34" s="196" t="str">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v/>
       </c>
-      <c r="G34" s="198" t="str">
+      <c r="G34" s="196" t="str">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v/>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>4354</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7375,63 +7370,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>3.4730330869689581E-2</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="str">
+      <c r="E38" s="153" t="str">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v/>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7444,372 +7439,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.51600533745347288</v>
       </c>
-      <c r="E40" s="155" t="str">
+      <c r="E40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="F40" s="155" t="str">
+      <c r="F40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="G40" s="155" t="str">
+      <c r="G40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.10287239272420816</v>
       </c>
-      <c r="E41" s="152" t="str">
+      <c r="E41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="F41" s="152" t="str">
+      <c r="F41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="G41" s="152" t="str">
+      <c r="G41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152" t="str">
+      <c r="E42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="F42" s="152" t="str">
+      <c r="F42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="G42" s="152" t="str">
+      <c r="G42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>4.2882224875342372E-2</v>
       </c>
-      <c r="E43" s="152" t="str">
+      <c r="E43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="F43" s="152" t="str">
+      <c r="F43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="G43" s="152" t="str">
+      <c r="G43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>1.2264942964802092E-2</v>
       </c>
-      <c r="E44" s="152" t="str">
+      <c r="E44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="F44" s="152" t="str">
+      <c r="F44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="G44" s="152" t="str">
+      <c r="G44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>7.0651028864386544E-3</v>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.31890999909573586</v>
       </c>
-      <c r="E46" s="152" t="str">
+      <c r="E46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="F46" s="152" t="str">
+      <c r="F46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="G46" s="152" t="str">
+      <c r="G46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>247</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>265</v>
+      <c r="B47" s="101" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>262</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7821,216 +7816,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>8.7405603757025482E-2</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269" t="str">
+      <c r="E48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="F48" s="269" t="str">
+      <c r="F48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="G48" s="269" t="str">
+      <c r="G48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>254</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.23935054401029285</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>7.0203898973512716E-3</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="152">
+      <c r="B51" s="93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" s="151">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>-7.2636655948553051</v>
       </c>
-      <c r="D51" s="152" t="str">
+      <c r="D51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="E51" s="152" t="str">
+      <c r="E51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="F51" s="152" t="str">
+      <c r="F51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>248</v>
+      <c r="B52" s="101" t="s">
+        <v>246</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8046,350 +8041,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>249</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.74162260082582199</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="str">
+      <c r="E53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="F53" s="155" t="str">
+      <c r="F53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="G53" s="155" t="str">
+      <c r="G53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>0.15580099495425681</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156" t="str">
+      <c r="E54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="F54" s="156" t="str">
+      <c r="F54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="G54" s="156" t="str">
+      <c r="G54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.20434053388692244</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>0.13446497443458727</v>
       </c>
-      <c r="E55" s="152" t="str">
+      <c r="E55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="F55" s="152" t="str">
+      <c r="F55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="G55" s="152" t="str">
+      <c r="G55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151" t="str">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v/>
+      </c>
+      <c r="F56" s="151" t="str">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v/>
+      </c>
+      <c r="G56" s="151" t="str">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v/>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>251</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>3.9977915643952013E-2</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="str">
+      <c r="E58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="F58" s="271" t="str">
+      <c r="F58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="G58" s="271" t="str">
+      <c r="G58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>3.2635118260657993E-2</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="str">
+      <c r="E59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="F59" s="271" t="str">
+      <c r="F59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="G59" s="271" t="str">
+      <c r="G59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9668,7 +9663,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9686,7 +9681,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9704,25 +9699,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>611071</v>
       </c>
@@ -9730,12 +9725,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>606717</v>
       </c>
@@ -9743,28 +9738,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>4354</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9777,7 +9772,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>40428.799999999988</v>
@@ -9786,16 +9781,16 @@
         <f>1-D6/D3</f>
         <v>0.93383943927956004</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>0.54963555440882406</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9803,7 +9798,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>13.951644423403231</v>
@@ -9813,287 +9808,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.53757337289556861</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>FY</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>16221</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>14598.9</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>10498</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>0</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>0</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>17115</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>10269</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>0</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>748</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>374</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>10498</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>0</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>502</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>214077</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>128446.2</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>Y</v>
       </c>
@@ -10104,21 +10099,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>0</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10131,45 +10126,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>0</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10177,17 +10172,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10197,19 +10192,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.74597732181425491</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>24867.9</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.16154375334141879</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10219,17 +10214,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.5</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>374</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>2.4295321981225044E-3</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10238,7 +10233,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10248,17 +10243,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.59976605352807122</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>128697.2</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.83602671446045862</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10271,7 +10266,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10281,17 +10276,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>0</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>0</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10318,12 +10313,12 @@
         <f>SUM(E24:E27)</f>
         <v>153939.1</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>62012</v>
       </c>
@@ -10333,171 +10328,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>116589</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>0</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>0</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>0</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>1681</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>840.5</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>0</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>0</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>0</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>116589</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>101055</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>10105.5</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10505,25 +10500,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>408424</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.2</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>81684.800000000003</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>Y</v>
       </c>
@@ -10531,26 +10526,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>0</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.1</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10558,113 +10553,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>50190</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>5019</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>4338</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>216.9</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>3743</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10672,17 +10667,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10692,16 +10687,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>0</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10711,16 +10706,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.10654493069615324</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>10946</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10730,14 +10725,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.18905615615746577</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>86703.8</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10750,7 +10745,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10760,14 +10755,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>2.6840737532483606E-2</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>216.9</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10780,13 +10775,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>569431</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.17186753092121784</v>
       </c>
@@ -10794,12 +10789,12 @@
         <f>SUM(E30:E42)</f>
         <v>97866.7</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>145011</v>
       </c>
@@ -10810,63 +10805,63 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>818094</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.30779568118089118</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>251805.8</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>207023</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>4354</v>
       </c>
@@ -10874,45 +10869,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>4354</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>127087</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10920,61 +10915,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -10988,35 +10983,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>11320</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>16221</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>14598.9</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11030,29 +11025,29 @@
         <f>E61+E62</f>
         <v>25918.9</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>127087</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11066,9 +11061,9 @@
         <f>E63-E64</f>
         <v>-101168.1</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11076,28 +11071,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11111,29 +11106,29 @@
         <f>E49-E63</f>
         <v>225886.9</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>79936</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11147,29 +11142,29 @@
         <f>E68-E69</f>
         <v>145950.9</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11179,66 +11174,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>71506</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>71506</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>71506</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>39292</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>39292</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.54949235029228316</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>39292</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.54949235029228316</v>
       </c>
@@ -11246,50 +11241,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>32214</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>32214</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>32214</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>231</v>
+      <c r="B77" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>7228</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>7228</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.10108242664951193</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>7228</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.10108242664951193</v>
       </c>
@@ -11297,60 +11292,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>730.718954248366</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>730.718954248366</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>1.0218987976510586E-2</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>730.718954248366</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>1.0218987976510586E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.33920623508169434</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>24255.281045751635</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.33920623508169434</v>
       </c>
@@ -11358,61 +11353,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>240</v>
+      <c r="B81" s="103" t="s">
+        <v>238</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>4046</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>4046</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>4046</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>5.6582664391799292E-2</v>
       </c>
@@ -11420,59 +11415,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>409</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>409</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>5.719799737085E-3</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>409</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>5.719799737085E-3</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.27690377095281005</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>19800.281045751635</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.27690377095281005</v>
       </c>
@@ -11480,184 +11475,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.23499999999999999</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.23499999999999999</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.21183138477889971</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>15147.215000000002</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.21183138477889971</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>5.2271785876612675</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0733133797852052E-2</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>7.0637548481909021E-2</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0733133797852052E-2</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>7.0637548481909021E-2</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0733133797852052E-2</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>7.0637548481909021E-2</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>3.75</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.71740422430790074</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>3.75</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.71740422430790074</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>3.75</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.71740422430790074</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0744248985115016E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>5.0675675675675678E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0744248985115016E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>5.0675675675675678E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0744248985115016E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>5.0675675675675678E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>HK</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11665,55 +11660,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>HK Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>121.34497514617405</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>121.29082193686401</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>121.34497514617405</v>
+        <v>121.29082193686401</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.225433546730542</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>79.199585005941231</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.225433546730542</v>
+        <v>79.199585005941231</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11723,123 +11718,123 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>174822.79006080492</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>174744.77104822593</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.329898588026943</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>60.302974872216247</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.329898588026943</v>
-      </c>
-      <c r="I97" s="122">
+        <v>60.302974872216247</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>82.346803191571297</v>
+        <v>82.310053885191905</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>-4354</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>-1.5025293805281801</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>-101168.1</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-40.149115529523407</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>-34.912274373498619</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>69300.690060804918</v>
-      </c>
-      <c r="D100" s="109">
+        <v>69222.671048225922</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.102173117589587</v>
-      </c>
-      <c r="E100" s="109">
+        <v>18.079287959150498</v>
+      </c>
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>18.678253677975356</v>
-      </c>
-      <c r="F100" s="109">
+        <v>18.65132996216466</v>
+      </c>
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>21.29667425598775</v>
-      </c>
-      <c r="H100" s="109">
+        <v>21.269750540177057</v>
+      </c>
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.915094834000143</v>
-      </c>
-      <c r="I100" s="109">
+        <v>23.888171118189454</v>
+      </c>
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.931999437544505</v>
+        <v>45.895250131165113</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11849,58 +11844,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>114140.79008819198</v>
-      </c>
-      <c r="D103" s="109">
+        <v>114103.54986448807</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.480686042851836</v>
-      </c>
-      <c r="E103" s="122">
+        <v>33.469762443698265</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.389042403355106</v>
-      </c>
-      <c r="F103" s="109">
+        <v>39.37619111023325</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>39.389042403355106</v>
-      </c>
-      <c r="H103" s="122">
+        <v>39.37619111023325</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.389042403355106</v>
-      </c>
-      <c r="I103" s="109">
+        <v>39.37619111023325</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.763752278828733</v>
+        <v>53.746211011062158</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11910,58 +11905,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>84133.132574498464</v>
-      </c>
-      <c r="D106" s="109">
+        <v>84075.502956356999</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>25.791429580220711</v>
-      </c>
-      <c r="E106" s="122">
+        <v>25.774525201424382</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>29.033648040665231</v>
-      </c>
-      <c r="F106" s="109">
+        <v>29.013760536198955</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>30.342858329671429</v>
-      </c>
-      <c r="H106" s="122">
+        <v>30.322970825205154</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>31.652068618677625</v>
-      </c>
-      <c r="I106" s="122">
+        <v>31.632181114211352</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>49.847875858186619</v>
+        <v>49.820730571113636</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -11970,15 +11965,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Profit</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4350688-2978-42EB-BAE6-F727B6FA98B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{942287C6-39D3-4C27-AA92-5D40A9BD29F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -983,6 +983,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,13 +2942,16 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
         <v>209</v>
       </c>
       <c r="C17" s="237" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D17" s="24"/>
     </row>
@@ -2979,7 +2996,7 @@
         <v>215</v>
       </c>
       <c r="C22" s="238" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3404,11 +3421,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0675675675675678E-2</v>
+        <v>5.08130081300813E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6891891891891889E-2</v>
+        <v>6.7073170731707321E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3870,11 +3887,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45473</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3888,10 +3905,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4113,8 +4130,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4127,8 +4147,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4171,60 +4191,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>74</v>
+        <v>73.8</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>2897780274</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>214435.740276</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>213856.18422119998</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4247,11 +4267,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4392,7 +4412,7 @@
         <v>249</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>3.9977915643952019E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4404,20 +4424,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>247</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.74162260082582199</v>
+        <v>254</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.33920623508169434</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>261</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>8.7405603757025482E-2</v>
       </c>
@@ -4426,26 +4446,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>254</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.33920623508169434</v>
+      <c r="B23" s="275" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.3483947210973155</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35091788069798763</v>
+        <v>0.34996945399339846</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>255</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>5.6582664391799292E-2</v>
       </c>
@@ -4454,7 +4474,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.156776693009242</v>
+        <v>14.118515134379487</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4486,7 +4506,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0675675675675678E-2</v>
+        <v>5.08130081300813E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4505,10 +4525,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>239</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4516,22 +4536,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.079287959150498</v>
+        <v>18.125128502059777</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>52.779537650839877</v>
+        <v>52.864190740942909</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.269750540177057</v>
-      </c>
-      <c r="G29" s="285">
+        <v>21.323680590658562</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.895250131165113</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>45.968861513863402</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5562,7 +5582,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7803,7 +7823,7 @@
       <c r="B47" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>262</v>
       </c>
       <c r="D47" s="36"/>
@@ -9730,7 +9750,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>606717</v>
       </c>
@@ -10777,7 +10797,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>569431</v>
       </c>
@@ -10794,7 +10814,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>145011</v>
       </c>
@@ -10903,11 +10923,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>127087</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10918,11 +10938,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10934,11 +10954,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11152,19 +11172,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45473</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11174,18 +11194,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11552,17 +11572,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0637548481909021E-2</v>
+        <v>7.0828978152591704E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0637548481909021E-2</v>
+        <v>7.0828978152591704E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0637548481909021E-2</v>
+        <v>7.0828978152591704E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11603,17 +11623,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0675675675675678E-2</v>
+        <v>5.08130081300813E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0675675675675678E-2</v>
+        <v>5.08130081300813E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0675675675675678E-2</v>
+        <v>5.08130081300813E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11644,15 +11664,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11673,14 +11693,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>121.29082193686401</v>
+        <v>121.39929453152222</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>121.29082193686401</v>
+        <v>121.39929453152222</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11701,14 +11721,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.199585005941231</v>
+        <v>79.251358913780038</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.199585005941231</v>
+        <v>79.251358913780038</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11751,21 +11771,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>174744.77104822593</v>
+        <v>174901.04848468705</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.302974872216247</v>
+        <v>60.356904922697751</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.302974872216247</v>
+        <v>60.356904922697751</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>82.310053885191905</v>
+        <v>82.383665267890194</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11814,27 +11834,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>69222.671048225922</v>
+        <v>69378.948484687047</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.079287959150498</v>
+        <v>18.125128502059777</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>18.65132996216466</v>
+        <v>18.705260012646164</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>21.269750540177057</v>
+        <v>21.323680590658562</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.888171118189454</v>
+        <v>23.942101168670956</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.895250131165113</v>
+        <v>45.968861513863402</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11875,27 +11895,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>114103.54986448807</v>
+        <v>114178.14099617547</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.469762443698265</v>
+        <v>33.491642108800256</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.37619111023325</v>
+        <v>39.401931892706187</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>39.37619111023325</v>
+        <v>39.401931892706187</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.37619111023325</v>
+        <v>39.401931892706187</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.746211011062158</v>
+        <v>53.781345682226956</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11936,27 +11956,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>84075.502956356999</v>
+        <v>84190.93724043126</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>25.774525201424382</v>
+        <v>25.808385305430015</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>29.013760536198955</v>
+        <v>29.053595952676176</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>30.322970825205154</v>
+        <v>30.362806241682375</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>31.632181114211352</v>
+        <v>31.672016530688573</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>49.820730571113636</v>
+        <v>49.875103598045179</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{942287C6-39D3-4C27-AA92-5D40A9BD29F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05EC7417-81E6-4765-B87C-4B4CB667FB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3421,11 +3421,11 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.1652892561983473E-2</v>
       </c>
       <c r="D45" s="150">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.7073170731707321E-2</v>
+        <v>6.8181818181818191E-2</v>
       </c>
       <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4201,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>73.8</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4242,7 +4242,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>213856.18422119998</v>
+        <v>210378.84789239999</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4458,7 +4458,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.34996945399339846</v>
+        <v>0.34427889376586351</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.118515134379487</v>
+        <v>13.888945782600958</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.1652892561983473E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4536,20 +4536,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>18.125128502059777</v>
+        <v>18.406189767514103</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>52.864190740942909</v>
+        <v>53.383222652848133</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>21.323680590658562</v>
+        <v>21.65434090295777</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.968861513863402</v>
+        <v>46.420193611172294</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9701,7 +9701,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11572,17 +11572,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0828978152591704E-2</v>
+        <v>7.1999705064204791E-2</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0828978152591704E-2</v>
+        <v>7.1999705064204791E-2</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0828978152591704E-2</v>
+        <v>7.1999705064204791E-2</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11623,17 +11623,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.1652892561983473E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.1652892561983473E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.08130081300813E-2</v>
+        <v>5.1652892561983473E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11693,14 +11693,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>121.39929453152222</v>
+        <v>122.06437052728623</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>121.39929453152222</v>
+        <v>122.06437052728623</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11721,14 +11721,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.251358913780038</v>
+        <v>79.568582193537992</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.251358913780038</v>
+        <v>79.568582193537992</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11771,21 +11771,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>174901.04848468705</v>
+        <v>175859.22941506238</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.356904922697751</v>
+        <v>60.68756523499696</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.356904922697751</v>
+        <v>60.68756523499696</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>82.383665267890194</v>
+        <v>82.834997365199087</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11812,7 +11812,7 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>-101168.1</v>
       </c>
       <c r="D99" s="209"/>
@@ -11834,27 +11834,27 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>69378.948484687047</v>
+        <v>70337.129415062373</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>18.125128502059777</v>
+        <v>18.406189767514103</v>
       </c>
       <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>18.705260012646164</v>
+        <v>19.035920324945373</v>
       </c>
       <c r="F100" s="108">
         <f>(E100+H100)/2</f>
-        <v>21.323680590658562</v>
+        <v>21.65434090295777</v>
       </c>
       <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>23.942101168670956</v>
+        <v>24.272761480970168</v>
       </c>
       <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.968861513863402</v>
+        <v>46.420193611172294</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11895,27 +11895,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>114178.14099617547</v>
+        <v>114635.16741010582</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.491642108800256</v>
+        <v>33.625700738202326</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.401931892706187</v>
+        <v>39.559647927296858</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>39.401931892706187</v>
+        <v>39.559647927296858</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.401931892706187</v>
+        <v>39.559647927296858</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.781345682226956</v>
+        <v>53.996618897739552</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11956,27 +11956,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>84190.93724043126</v>
+        <v>84898.540912584096</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>25.808385305430015</v>
+        <v>26.015945252858216</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>29.053595952676176</v>
+        <v>29.297784126121115</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>30.362806241682375</v>
+        <v>30.606994415127314</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>31.672016530688573</v>
+        <v>31.916204704133513</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>49.875103598045179</v>
+        <v>50.208406254455923</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17CC428A-70D4-4A53-9E7D-1A1D6088DEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C081BC-09AB-4259-92F7-D21CFE7F256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3634,11 +3634,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0133689839572192E-2</v>
+        <v>5.016722408026756E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6176470588235295E-2</v>
+        <v>6.622073578595318E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>74.8</v>
+        <v>74.75</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4455,7 +4455,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>216753.96449519999</v>
+        <v>216609.07548150001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4635,7 +4635,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4676,7 +4676,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35471158751634424</v>
+        <v>0.35447448084019695</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.309822927528261</v>
+        <v>14.300257537870822</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4724,7 +4724,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0133689839572192E-2</v>
+        <v>5.016722408026756E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4754,20 +4754,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>28.060555669135578</v>
+        <v>20.135513271780521</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>54.349792343255274</v>
+        <v>52.466649613789812</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>33.012418434277151</v>
+        <v>23.688839143271203</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>47.260688994135023</v>
+        <v>45.623173577208533</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11804,17 +11804,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9882066679963467E-2</v>
+        <v>6.9928810537274483E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9882066679963467E-2</v>
+        <v>6.9928810537274483E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9882066679963467E-2</v>
+        <v>6.9928810537274483E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11855,17 +11855,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0133689839572192E-2</v>
+        <v>5.016722408026756E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0133689839572192E-2</v>
+        <v>5.016722408026756E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0133689839572192E-2</v>
+        <v>5.016722408026756E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11918,21 +11918,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>105.59012654563674</v>
+        <v>120.88989413641362</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>105.59012654563674</v>
+        <v>120.88989413641362</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11953,14 +11953,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>71.633024872988031</v>
+        <v>79.008135825287894</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>71.633024872988031</v>
+        <v>79.008135825287894</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12003,21 +12003,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>201184.8349358823</v>
+        <v>174167.15078333035</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>69.427222188303944</v>
+        <v>60.103642897298002</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>69.427222188303944</v>
+        <v>60.103642897298002</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>83.675492748161815</v>
+        <v>82.037977331235325</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12067,23 +12067,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>28.060555669135578</v>
+        <v>20.135513271780521</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>33.012418434277151</v>
+        <v>23.688839143271203</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>33.012418434277151</v>
+        <v>23.688839143271203</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>33.012418434277151</v>
+        <v>23.688839143271203</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>47.260688994135023</v>
+        <v>45.623173577208533</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12122,23 +12122,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>40.034895137364906</v>
+        <v>33.388855976877416</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>47.099876632194004</v>
+        <v>39.28100703162049</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>47.099876632194004</v>
+        <v>39.28100703162049</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>47.099876632194004</v>
+        <v>39.28100703162049</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>56.765995546922568</v>
+        <v>53.616290279021491</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12177,23 +12177,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>34.04772540325024</v>
+        <v>26.762184624328967</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>40.056147533235574</v>
+        <v>31.484923087445846</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>40.056147533235574</v>
+        <v>31.484923087445846</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>40.056147533235574</v>
+        <v>31.484923087445846</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>52.013342270528796</v>
+        <v>49.619731928115016</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0C081BC-09AB-4259-92F7-D21CFE7F256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB236C8-F6FD-459B-AEE9-391650CAD02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>281</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3634,11 +3635,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.016722408026756E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.622073578595318E-2</v>
+        <v>6.6132264529058127E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4319,7 +4320,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4342,6 +4343,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4360,8 +4364,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4397,24 +4401,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>74.75</v>
+        <v>74.849999999999994</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4424,7 +4431,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
@@ -4453,11 +4460,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>216609.07548150001</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>216898.85350890001</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4480,11 +4487,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4552,10 +4559,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4602,7 +4609,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4676,7 +4683,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35447448084019695</v>
+        <v>0.35494869419249148</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4692,7 +4699,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.300257537870822</v>
+        <v>14.319388317185698</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4724,7 +4731,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.016722408026756E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4743,10 +4750,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4754,22 +4761,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>20.135513271780521</v>
+        <v>25.081151705849216</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>52.466649613789812</v>
+        <v>64.211994153306321</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>23.688839143271203</v>
-      </c>
-      <c r="G29" s="312">
+        <v>29.50723730099908</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>45.623173577208533</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>55.836516655048982</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5751,15 +5758,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5787,7 +5795,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11804,17 +11812,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9928810537274483E-2</v>
+        <v>6.983538527269563E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9928810537274483E-2</v>
+        <v>6.983538527269563E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.9928810537274483E-2</v>
+        <v>6.983538527269563E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11855,17 +11863,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.016722408026756E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.016722408026756E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.016722408026756E-2</v>
+        <v>5.0100200400801605E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11914,7 +11922,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11925,14 +11933,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.88989413641362</v>
+        <v>132.59277109069632</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>120.88989413641362</v>
+        <v>132.59277109069632</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11953,14 +11961,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.008135825287894</v>
+        <v>86.666786185871175</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>79.008135825287894</v>
+        <v>86.666786185871175</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12003,21 +12011,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>174167.15078333035</v>
+        <v>191027.59019107211</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>60.103642897298002</v>
+        <v>65.922041055025872</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>60.103642897298002</v>
+        <v>65.922041055025872</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>82.037977331235325</v>
+        <v>92.251320409075774</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12067,23 +12075,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>20.135513271780521</v>
+        <v>25.081151705849216</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>23.688839143271203</v>
+        <v>29.50723730099908</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>23.688839143271203</v>
+        <v>29.50723730099908</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>23.688839143271203</v>
+        <v>29.50723730099908</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>45.623173577208533</v>
+        <v>55.836516655048982</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12122,23 +12130,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>33.388855976877416</v>
+        <v>36.625403342483409</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>39.28100703162049</v>
+        <v>43.088709814686361</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>39.28100703162049</v>
+        <v>43.088709814686361</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>39.28100703162049</v>
+        <v>43.088709814686361</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>53.616290279021491</v>
+        <v>60.298351075179092</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12177,23 +12185,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>26.762184624328967</v>
+        <v>30.853277524166312</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>31.484923087445846</v>
+        <v>36.297973557842724</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>31.484923087445846</v>
+        <v>36.297973557842724</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>31.484923087445846</v>
+        <v>36.297973557842724</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>49.619731928115016</v>
+        <v>58.06743386511404</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AB236C8-F6FD-459B-AEE9-391650CAD02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC161B6-7F11-47A4-A2EE-9744D6E943B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3635,11 +3635,11 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0100200400801605E-2</v>
+        <v>5.040322580645161E-2</v>
       </c>
       <c r="D45" s="87">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6132264529058127E-2</v>
+        <v>6.6532258064516125E-2</v>
       </c>
       <c r="E45" s="87" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4401,27 +4401,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>74.849999999999994</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4431,40 +4431,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>2897780274</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>216898.85350890001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>215594.85238560001</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4487,11 +4487,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4642,7 +4642,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35494869419249148</v>
+        <v>0.35281473410716596</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4699,7 +4699,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.319388317185698</v>
+        <v>14.233299810268752</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0100200400801605E-2</v>
+        <v>5.040322580645161E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4750,10 +4750,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4761,22 +4761,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>25.081151705849216</v>
+        <v>29.375036340979005</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>64.211994153306321</v>
+        <v>64.917419914362554</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>29.50723730099908</v>
-      </c>
-      <c r="G29" s="313">
+        <v>34.558866283504713</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>55.836516655048982</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>56.449930360315264</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5759,15 +5759,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11140,7 +11140,7 @@
         <f>I15+I34</f>
         <v>127087</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11151,11 +11151,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11167,11 +11167,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11812,17 +11812,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.983538527269563E-2</v>
+        <v>7.025777671587724E-2</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.983538527269563E-2</v>
+        <v>7.025777671587724E-2</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>6.983538527269563E-2</v>
+        <v>7.025777671587724E-2</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11863,17 +11863,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0100200400801605E-2</v>
+        <v>5.040322580645161E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0100200400801605E-2</v>
+        <v>5.040322580645161E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0100200400801605E-2</v>
+        <v>5.040322580645161E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11926,21 +11926,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>132.59277109069632</v>
+        <v>124.13339248108031</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>132.59277109069632</v>
+        <v>124.13339248108031</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -11961,14 +11961,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>86.666786185871175</v>
+        <v>82.627225989499408</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>86.666786185871175</v>
+        <v>82.627225989499408</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12011,21 +12011,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>191027.59019107211</v>
+        <v>205666.10100814365</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>65.922041055025872</v>
+        <v>70.973670037531505</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>65.922041055025872</v>
+        <v>70.973670037531505</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>92.251320409075774</v>
+        <v>92.864734114342056</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12075,23 +12075,23 @@
       <c r="C100" s="249"/>
       <c r="D100" s="257">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>25.081151705849216</v>
+        <v>29.375036340979005</v>
       </c>
       <c r="E100" s="257">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>29.50723730099908</v>
+        <v>34.558866283504713</v>
       </c>
       <c r="F100" s="257">
         <f>(E100+H100)/2</f>
-        <v>29.50723730099908</v>
+        <v>34.558866283504713</v>
       </c>
       <c r="H100" s="257">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>29.50723730099908</v>
+        <v>34.558866283504713</v>
       </c>
       <c r="I100" s="257">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>55.836516655048982</v>
+        <v>56.449930360315264</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12130,23 +12130,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>36.625403342483409</v>
+        <v>40.156026938768527</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>43.088709814686361</v>
+        <v>47.242384633845326</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>43.088709814686361</v>
+        <v>47.242384633845326</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>43.088709814686361</v>
+        <v>47.242384633845326</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>60.298351075179092</v>
+        <v>61.813789333841129</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12185,23 +12185,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>30.853277524166312</v>
+        <v>34.765531639873764</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>36.297973557842724</v>
+        <v>40.900625458675023</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>36.297973557842724</v>
+        <v>40.900625458675023</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>36.297973557842724</v>
+        <v>40.900625458675023</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>58.06743386511404</v>
+        <v>59.131859847078196</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09F2259B-E2C4-4D90-AAEE-171D7DA67C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{79ED29DD-C33F-477F-BA64-444B3DE11B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3658,11 +3658,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.040322580645161E-2</v>
+        <v>5.0641458474004052E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6532258064516125E-2</v>
+        <v>6.6846725185685352E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4429,27 +4429,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>74.400000000000006</v>
+        <v>74.05</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4459,7 +4459,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
@@ -4488,11 +4488,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>215594.85238560001</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>214580.62928969998</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4515,11 +4515,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35281473410716596</v>
+        <v>0.35115498737413486</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.233299810268752</v>
+        <v>14.166342082666681</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.040322580645161E-2</v>
+        <v>5.0641458474004052E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4778,10 +4778,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>29.649252793396752</v>
+        <v>29.724501126995335</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>65.502679255196014</v>
+        <v>65.636010921223729</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>34.881473874584415</v>
-      </c>
-      <c r="G29" s="313">
+        <v>34.970001325876865</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>56.958851526257405</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>57.074792105411944</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5787,15 +5787,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11942,17 +11942,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.025777671587724E-2</v>
+        <v>7.0589852635533662E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.025777671587724E-2</v>
+        <v>7.0589852635533662E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.025777671587724E-2</v>
+        <v>7.0589852635533662E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11993,17 +11993,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.040322580645161E-2</v>
+        <v>5.0641458474004052E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.040322580645161E-2</v>
+        <v>5.0641458474004052E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.040322580645161E-2</v>
+        <v>5.0641458474004052E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12063,14 +12063,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>124.69763517417613</v>
+        <v>124.8524702397832</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>124.69763517417613</v>
+        <v>124.8524702397832</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12091,14 +12091,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>83.002804289451689</v>
+        <v>83.078130439081079</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>83.002804289451689</v>
+        <v>83.078130439081079</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12141,21 +12141,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>206600.94692181706</v>
+        <v>206857.48002387982</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>71.296277628611207</v>
+        <v>71.384805079903657</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>71.296277628611207</v>
+        <v>71.384805079903657</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>93.373655280284197</v>
+        <v>93.489595859438737</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12205,23 +12205,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>29.649252793396752</v>
+        <v>29.724501126995335</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>34.881473874584415</v>
+        <v>34.970001325876865</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>34.881473874584415</v>
+        <v>34.970001325876865</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>34.881473874584415</v>
+        <v>34.970001325876865</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>56.958851526257405</v>
+        <v>57.074792105411944</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12260,23 +12260,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>40.338554333944757</v>
+        <v>40.375162108894088</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>47.457122745817358</v>
+        <v>47.500190716345983</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>47.457122745817358</v>
+        <v>47.500190716345983</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>47.457122745817358</v>
+        <v>47.500190716345983</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>62.152543824866186</v>
+        <v>62.208948085614686</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12315,23 +12315,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>34.993903563670756</v>
+        <v>35.049831617944712</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>41.169298310200887</v>
+        <v>41.235096021111424</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>41.169298310200887</v>
+        <v>41.235096021111424</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>41.169298310200887</v>
+        <v>41.235096021111424</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>59.555697675561795</v>
+        <v>59.641870095513312</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0016.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0016.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79ED29DD-C33F-477F-BA64-444B3DE11B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A265ED9-58F8-44AF-8304-D55349BC9B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3658,11 +3658,11 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>5.0641458474004052E-2</v>
+        <v>5.3342816500711238E-2</v>
       </c>
       <c r="D45" s="82">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>6.6846725185685352E-2</v>
+        <v>7.0412517780938835E-2</v>
       </c>
       <c r="E45" s="82" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4429,27 +4429,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0016.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>74.05</v>
+        <v>70.3</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4459,40 +4459,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>新鴻基地產</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>2897780274</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45625</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>214580.62928969998</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>203713.95326219997</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4515,11 +4515,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4711,7 +4711,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.35115498737413486</v>
+        <v>0.3333719866630882</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>14.166342082666681</v>
+        <v>13.448937858358779</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4759,7 +4759,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>5.0641458474004052E-2</v>
+        <v>5.3342816500711238E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4778,10 +4778,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4789,22 +4789,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>29.724501126995335</v>
+        <v>30.582665255258952</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>65.636010921223729</v>
+        <v>67.15658217476124</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>34.970001325876865</v>
-      </c>
-      <c r="G29" s="314">
+        <v>35.979606182657591</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>57.074792105411944</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>58.397027978053259</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5787,15 +5787,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11270,7 +11270,7 @@
         <f>I15+I34</f>
         <v>127087</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11281,11 +11281,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11297,11 +11297,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11942,17 +11942,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0589852635533662E-2</v>
+        <v>7.4355314191483182E-2</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0589852635533662E-2</v>
+        <v>7.4355314191483182E-2</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0589852635533662E-2</v>
+        <v>7.4355314191483182E-2</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -11993,17 +11993,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0641458474004052E-2</v>
+        <v>5.3342816500711238E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0641458474004052E-2</v>
+        <v>5.3342816500711238E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>5.0641458474004052E-2</v>
+        <v>5.3342816500711238E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12063,14 +12063,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>124.8524702397832</v>
+        <v>126.61827544432305</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>124.8524702397832</v>
+        <v>126.61827544432305</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12091,14 +12091,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>83.078130439081079</v>
+        <v>83.935857110520146</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>83.078130439081079</v>
+        <v>83.935857110520146</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12141,21 +12141,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>206857.48002387982</v>
+        <v>209783.09306239357</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>71.384805079903657</v>
+        <v>72.394409936684383</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>71.384805079903657</v>
+        <v>72.394409936684383</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>93.489595859438737</v>
+        <v>94.811831732080051</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12205,23 +12205,23 @@
       <c r="C100" s="243"/>
       <c r="D100" s="251">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>29.724501126995335</v>
+        <v>30.582665255258952</v>
       </c>
       <c r="E100" s="251">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>34.970001325876865</v>
+        <v>35.979606182657591</v>
       </c>
       <c r="F100" s="251">
         <f>(E100+H100)/2</f>
-        <v>34.970001325876865</v>
+        <v>35.979606182657591</v>
       </c>
       <c r="H100" s="251">
         <f>MAX(H97+H98+H99,0)</f>
-        <v>34.970001325876865</v>
+        <v>35.979606182657591</v>
       </c>
       <c r="I100" s="251">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>57.074792105411944</v>
+        <v>58.397027978053259</v>
       </c>
       <c r="K100" s="75"/>
     </row>
@@ -12260,23 +12260,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>40.375162108894088</v>
+        <v>40.792008915887038</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>47.500190716345983</v>
+        <v>47.990598724572983</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>47.500190716345983</v>
+        <v>47.990598724572983</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>47.500190716345983</v>
+        <v>47.990598724572983</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>62.208948085614686</v>
+        <v>62.851214271591587</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12315,23 +12315,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>35.049831617944712</v>
+        <v>35.687337085572992</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>41.235096021111424</v>
+        <v>41.985102453615283</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>41.235096021111424</v>
+        <v>41.985102453615283</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>41.235096021111424</v>
+        <v>41.985102453615283</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>59.641870095513312</v>
+        <v>60.624121124822423</v>
       </c>
       <c r="K106" s="75"/>
     </row>
